--- a/Data/SHARP_SA.xlsx
+++ b/Data/SHARP_SA.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>

--- a/Data/SHARP_SA.xlsx
+++ b/Data/SHARP_SA.xlsx
@@ -8754,7 +8754,7 @@
     <row r="24" ht="16.5" customHeight="1" s="27">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>WA310101         SHANGHAI Y0012        001000TESTYBJL2302601     3                                                         4          1SFFOB SHA OSK        CA1AUJ22SY         A1AUJ22SY         V M0A1AUJ22SY     000000001.0000001    0001    00000607.7200000607.72000010000000000.000000000000.000000000000.000000000000.005              6              00054084039999910Y1BS1 NB  000000000.000000000000.000000000000.000                YB76174           202109152023062600000000          00000000.000000000000000000000000108.0000000131267.52USD                              000000          000000          000000                             0000000 0000000000000000000000000000000000000000                                                                                                                                                                                                        /SH1/MMJC004080                         20230626112004BGJ-P89107  /SH1/MMJC004090                         20230626112045BGJ-P89107</t>
+          <t>WA310106         SHANGHAI Y0017        001000TESTYBJL2302601     8                                                         9          1SFFOB SHA OSK        CA1AUJ22SY         A1AUJ22SY         V M0A1AUJ22SY     000000001.0000001    0001    00000607.7200000607.72000010000000000.000000000000.000000000000.000000000000.0010             11             00054084039999910Y1BS1 NB  000000000.000000000000.000000000000.000                YB76174           202109152023062600000000          00000000.000000000000000000000000108.0000000131267.52USD                              000000          000000          000000                             0000000 0000000000000000000000000000000000000000                                                                                                                                                                                                        /SH1/MMJC004080                         20230626112004BGJ-P89107  /SH1/MMJC004090                         20230626112045BGJ-P89107</t>
         </is>
       </c>
       <c r="B24" s="9">

--- a/Data/SHARP_SA.xlsx
+++ b/Data/SHARP_SA.xlsx
@@ -3668,7 +3668,7 @@
     <row r="9" ht="16.5" customHeight="1" s="27">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>WA210101         SHANGHAI Y001 2         1  0000350421.56USD 0000000000.000000000000.000000000000.000000000000.0020230626ESTIMA                   SHARP202110142023060120230601LS040L      SHARP     3                                                                       T40RUSD  YB  YB  YZS 202306260000000000000000             00000000000000            000020230601202306014                   5                   YB                   /SH1/MMJC004080                         20230626162504BGJ-P89107  /SH1/MMJC004090                         20230626162504BGJ-P89107</t>
+          <t>WA21010ads       SHANGHAI Y001 asdf      1  0000350421.56USD 0000000000.000000000000.000000000000.000000000000.0020230626ESTIMA                   SHARP202110142023060120230601LS040L      SHARP     asdf                                                                    T40RUSD  YB  YB  YZS 202306260000000000000000             00000000000000            00002023060120230601asdfa               af                  YB                   /SH1/MMJC004080                         20230626162504BGJ-P89107  /SH1/MMJC004090                         20230626162504BGJ-P89107</t>
         </is>
       </c>
       <c r="B9" s="9">
@@ -8754,7 +8754,7 @@
     <row r="24" ht="16.5" customHeight="1" s="27">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>WA310106         SHANGHAI Y0017        001000TESTYBJL2302601     8                                                         9          1SFFOB SHA OSK        CA1AUJ22SY         A1AUJ22SY         V M0A1AUJ22SY     000000001.0000001    0001    00000607.7200000607.72000010000000000.000000000000.000000000000.000000000000.0010             11             00054084039999910Y1BS1 NB  000000000.000000000000.000000000000.000                YB76174           202109152023062600000000          00000000.000000000000000000000000108.0000000131267.52USD                              000000          000000          000000                             0000000 0000000000000000000000000000000000000000                                                                                                                                                                                                        /SH1/MMJC004080                         20230626112004BGJ-P89107  /SH1/MMJC004090                         20230626112045BGJ-P89107</t>
+          <t>WA31010adf       SHANGHAI Y001asdf     001000TESTYBJL2302601     adf                                                       dfgjd      1SFFOB SHA OSK        CA1AUJ22SY         A1AUJ22SY         V M0A1AUJ22SY     000000001.0000001    0001    00000607.7200000607.72000010000000000.000000000000.000000000000.000000000000.00ghd            dfgh           00054084039999910Y1BS1 NB  000000000.000000000000.000000000000.000                YB76174           202109152023062600000000          00000000.000000000000000000000000108.0000000131267.52USD                              000000          000000          000000                             0000000 0000000000000000000000000000000000000000                                                                                                                                                                                                        /SH1/MMJC004080                         20230626112004BGJ-P89107  /SH1/MMJC004090                         20230626112045BGJ-P89107</t>
         </is>
       </c>
       <c r="B24" s="9">

--- a/Data/SHARP_SA.xlsx
+++ b/Data/SHARP_SA.xlsx
@@ -262,7 +262,7 @@
     <t>WA2101023062601  SHANGHAI Y001 23S06260011  0000350421.56USD 0000000000.000000000000.000000000000.000000000000.0020230626ESTIMA                   SHARP202110142023060120230601LS040L      SHARP     YB76174                                                                 T40RUSD  YB  YB  YZS 202306260000000000000000             00000000000000            00002023060120230601TESTYBJL2302601     TESTYBJL2302601     YB                   /SH1/MMJC004080                         20230626162504BGJ-P89107  /SH1/MMJC004090                         20230626162504BGJ-P89107</t>
   </si>
   <si>
-    <t>WA21010ads       SHANGHAI Y001 asdf      1  0000350421.56USD 0000000000.000000000000.000000000000.000000000000.0020230626ESTIMA                   SHARP202110142023060120230601LS040L      SHARP     asdf                                                                    T40RUSD  YB  YB  YZS 202306260000000000000000             00000000000000            00002023060120230601asdfa               af                  YB                   /SH1/MMJC004080                         20230626162504BGJ-P89107  /SH1/MMJC004090                         20230626162504BGJ-P89107</t>
+    <t>WA21010ads       SHANGHAI Y001 asdf      1  0000350421.56USD 0000000000.000000000000.000000000000.000000000000.0020230626ESTIMA                   SHARP202110142023060120230601LS040L      SHARP     asdf                                                                    T40RUSD  YB  YB  YZS 202306260000000000000000             00000000000000            00002023060120230601asdfa               af                  YB                   /SH1/MMJC004080                         20230626162504BGJ-P89107  /SH1/MMJC00409                          20230626162504BGJ-P89107</t>
   </si>
   <si>
     <t>項目</t>
@@ -1751,7 +1751,7 @@
   <dimension ref="A1:DC581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="BY9" s="10" t="str">
         <f>MIDB($A9,BY$2,BY$3)</f>
-        <v>/SH1/MMJC004090                         </v>
+        <v>/SH1/MMJC00409                          </v>
       </c>
       <c r="BZ9" s="10" t="str">
         <f>MIDB($A9,BZ$2,BZ$3)</f>

--- a/Data/SHARP_SA.xlsx
+++ b/Data/SHARP_SA.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28125"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -604,298 +604,298 @@
     </border>
   </borders>
   <cellStyleXfs count="52">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="8" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyAlignment="1">
+    <xf applyAlignment="1" borderId="5" fillId="12" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyAlignment="1">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="16" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="4" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="16" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="9" applyAlignment="1">
+    <xf applyAlignment="1" borderId="9" fillId="17" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyAlignment="1">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyAlignment="1">
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="27" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="29" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="34" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="35" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="36" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="31" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="51">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="51">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="50">
+    <xf applyAlignment="1" borderId="2" fillId="5" fontId="7" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="50">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="50">
+    <xf applyAlignment="1" borderId="2" fillId="6" fontId="7" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="50">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="51">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="51">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="32">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="32">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="32">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="32">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="32">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="32">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="32">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="32">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="32">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="32">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="32">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="32">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="50">
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="7" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="50">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="32">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="32">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="50">
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="50">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="32">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="32">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="50">
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="7" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="50">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="32">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="32">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="32">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="32">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="52">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
     <cellStyle name="標準 2 2" xfId="32"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle builtinId="28" name="适中" xfId="33"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="34"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="37"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="39"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="40"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="43"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="46"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="49"/>
     <cellStyle name="常规 4" xfId="50"/>
     <cellStyle name="常规 3" xfId="51"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1236,87 +1236,87 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col width="17.1083333333333" customWidth="1" style="27" min="1" max="1"/>
-    <col width="10.4416666666667" customWidth="1" style="27" min="2" max="2"/>
-    <col width="12.3333333333333" customWidth="1" style="27" min="3" max="3"/>
-    <col width="15" customWidth="1" style="27" min="4" max="4"/>
-    <col width="21.775" customWidth="1" style="27" min="5" max="5"/>
-    <col width="8.44166666666667" customWidth="1" style="27" min="6" max="6"/>
-    <col width="14.4416666666667" customWidth="1" style="27" min="7" max="7"/>
-    <col width="15.4416666666667" customWidth="1" style="27" min="8" max="10"/>
-    <col width="18.5" customWidth="1" style="27" min="11" max="11"/>
-    <col width="15.6666666666667" customWidth="1" style="27" min="12" max="12"/>
-    <col width="9.108333333333331" customWidth="1" style="27" min="13" max="13"/>
-    <col outlineLevel="1" width="14.3333333333333" customWidth="1" style="27" min="14" max="14"/>
-    <col outlineLevel="1" width="7.10833333333333" customWidth="1" style="27" min="15" max="15"/>
-    <col outlineLevel="1" width="12.775" customWidth="1" style="27" min="16" max="16"/>
-    <col outlineLevel="1" width="14.375" customWidth="1" style="27" min="17" max="17"/>
-    <col outlineLevel="1" width="11" customWidth="1" style="27" min="18" max="18"/>
-    <col outlineLevel="1" width="11.8833333333333" customWidth="1" style="27" min="19" max="19"/>
-    <col outlineLevel="1" width="20.4416666666667" customWidth="1" style="27" min="20" max="20"/>
-    <col outlineLevel="1" width="10.125" customWidth="1" style="27" min="21" max="22"/>
-    <col outlineLevel="1" width="12.4416666666667" customWidth="1" style="27" min="23" max="23"/>
-    <col outlineLevel="1" width="9.55833333333333" customWidth="1" style="27" min="24" max="24"/>
-    <col outlineLevel="1" width="8.775" customWidth="1" style="27" min="25" max="25"/>
-    <col outlineLevel="1" width="12.3333333333333" customWidth="1" style="27" min="26" max="26"/>
-    <col outlineLevel="1" width="12.1083333333333" customWidth="1" style="27" min="27" max="27"/>
-    <col outlineLevel="1" width="15.775" customWidth="1" style="27" min="28" max="28"/>
-    <col outlineLevel="1" width="15.125" customWidth="1" style="27" min="29" max="29"/>
-    <col outlineLevel="1" width="19.3333333333333" customWidth="1" style="27" min="30" max="30"/>
-    <col outlineLevel="1" width="9.66666666666667" customWidth="1" style="27" min="31" max="31"/>
-    <col outlineLevel="1" width="10.4416666666667" customWidth="1" style="27" min="32" max="32"/>
-    <col outlineLevel="1" width="11.4416666666667" customWidth="1" style="27" min="33" max="33"/>
-    <col outlineLevel="1" width="7.55833333333333" customWidth="1" style="27" min="34" max="34"/>
-    <col outlineLevel="1" width="12.2166666666667" customWidth="1" style="27" min="35" max="35"/>
-    <col outlineLevel="1" width="10.775" customWidth="1" style="27" min="36" max="36"/>
-    <col outlineLevel="1" width="15.775" customWidth="1" style="27" min="37" max="37"/>
-    <col outlineLevel="1" width="19" customWidth="1" style="27" min="38" max="38"/>
-    <col outlineLevel="1" width="11.5" customWidth="1" style="27" min="39" max="39"/>
-    <col outlineLevel="1" width="14.8833333333333" customWidth="1" style="27" min="40" max="40"/>
-    <col outlineLevel="1" width="16.875" customWidth="1" style="27" min="41" max="41"/>
-    <col outlineLevel="1" width="12.2166666666667" customWidth="1" style="27" min="42" max="42"/>
-    <col outlineLevel="1" width="11.4416666666667" customWidth="1" style="27" min="43" max="43"/>
-    <col outlineLevel="1" width="11.5583333333333" customWidth="1" style="27" min="44" max="44"/>
-    <col outlineLevel="1" width="14.775" customWidth="1" style="27" min="45" max="45"/>
-    <col outlineLevel="1" width="12.775" customWidth="1" style="27" min="46" max="46"/>
-    <col outlineLevel="1" width="6.625" customWidth="1" style="27" min="47" max="47"/>
-    <col outlineLevel="1" width="9" customWidth="1" style="27" min="48" max="48"/>
-    <col width="9.66666666666667" customWidth="1" style="27" min="49" max="49"/>
-    <col width="10.5583333333333" customWidth="1" style="27" min="50" max="50"/>
-    <col width="25.6666666666667" customWidth="1" style="27" min="51" max="51"/>
-    <col width="20.5583333333333" customWidth="1" style="27" min="52" max="52"/>
-    <col width="16.1083333333333" customWidth="1" style="27" min="53" max="53"/>
-    <col width="12.8833333333333" customWidth="1" style="27" min="54" max="54"/>
-    <col width="11.4416666666667" customWidth="1" style="27" min="55" max="55"/>
-    <col width="10" customWidth="1" style="27" min="56" max="56"/>
-    <col width="10.4416666666667" customWidth="1" style="27" min="57" max="57"/>
-    <col width="16.775" customWidth="1" style="27" min="58" max="59"/>
-    <col width="9" customWidth="1" style="27" min="60" max="63"/>
-    <col width="10.8833333333333" customWidth="1" style="27" min="64" max="64"/>
-    <col width="12.8833333333333" customWidth="1" style="27" min="65" max="65"/>
-    <col width="23" customWidth="1" style="27" min="66" max="66"/>
-    <col width="9" customWidth="1" style="27" min="67" max="72"/>
-    <col width="12.775" customWidth="1" style="27" min="73" max="73"/>
-    <col width="16.2166666666667" customWidth="1" style="27" min="74" max="74"/>
-    <col width="14.8833333333333" customWidth="1" style="27" min="75" max="75"/>
-    <col width="13.2166666666667" customWidth="1" style="27" min="76" max="76"/>
-    <col width="24.8833333333333" customWidth="1" style="27" min="77" max="77"/>
-    <col width="16.775" customWidth="1" style="27" min="78" max="78"/>
-    <col width="9" customWidth="1" style="27" min="79" max="79"/>
-    <col width="13.4416666666667" customWidth="1" style="27" min="80" max="80"/>
-    <col width="9" customWidth="1" style="27" min="81" max="85"/>
-    <col width="15.8833333333333" customWidth="1" style="27" min="86" max="86"/>
-    <col width="15.2166666666667" customWidth="1" style="27" min="87" max="87"/>
-    <col width="15.1083333333333" customWidth="1" style="27" min="88" max="88"/>
-    <col width="14.6666666666667" customWidth="1" style="27" min="89" max="89"/>
-    <col width="9" customWidth="1" style="27" min="90" max="99"/>
-    <col width="18.875" customWidth="1" style="27" min="100" max="100"/>
-    <col width="9" customWidth="1" style="27" min="101" max="104"/>
-    <col width="9.55833333333333" customWidth="1" style="27" min="105" max="105"/>
-    <col width="9" customWidth="1" style="27" min="106" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="27" width="17.1083333333333"/>
+    <col customWidth="1" max="2" min="2" style="27" width="10.4416666666667"/>
+    <col customWidth="1" max="3" min="3" style="27" width="12.3333333333333"/>
+    <col customWidth="1" max="4" min="4" style="27" width="15"/>
+    <col customWidth="1" max="5" min="5" style="27" width="21.775"/>
+    <col customWidth="1" max="6" min="6" style="27" width="8.44166666666667"/>
+    <col customWidth="1" max="7" min="7" style="27" width="14.4416666666667"/>
+    <col customWidth="1" max="10" min="8" style="27" width="15.4416666666667"/>
+    <col customWidth="1" max="11" min="11" style="27" width="18.5"/>
+    <col customWidth="1" max="12" min="12" style="27" width="15.6666666666667"/>
+    <col customWidth="1" max="13" min="13" style="27" width="9.108333333333331"/>
+    <col customWidth="1" max="14" min="14" outlineLevel="1" style="27" width="14.3333333333333"/>
+    <col customWidth="1" max="15" min="15" outlineLevel="1" style="27" width="7.10833333333333"/>
+    <col customWidth="1" max="16" min="16" outlineLevel="1" style="27" width="12.775"/>
+    <col customWidth="1" max="17" min="17" outlineLevel="1" style="27" width="14.375"/>
+    <col customWidth="1" max="18" min="18" outlineLevel="1" style="27" width="11"/>
+    <col customWidth="1" max="19" min="19" outlineLevel="1" style="27" width="11.8833333333333"/>
+    <col customWidth="1" max="20" min="20" outlineLevel="1" style="27" width="20.4416666666667"/>
+    <col customWidth="1" max="22" min="21" outlineLevel="1" style="27" width="10.125"/>
+    <col customWidth="1" max="23" min="23" outlineLevel="1" style="27" width="12.4416666666667"/>
+    <col customWidth="1" max="24" min="24" outlineLevel="1" style="27" width="9.55833333333333"/>
+    <col customWidth="1" max="25" min="25" outlineLevel="1" style="27" width="8.775"/>
+    <col customWidth="1" max="26" min="26" outlineLevel="1" style="27" width="12.3333333333333"/>
+    <col customWidth="1" max="27" min="27" outlineLevel="1" style="27" width="12.1083333333333"/>
+    <col customWidth="1" max="28" min="28" outlineLevel="1" style="27" width="15.775"/>
+    <col customWidth="1" max="29" min="29" outlineLevel="1" style="27" width="15.125"/>
+    <col customWidth="1" max="30" min="30" outlineLevel="1" style="27" width="19.3333333333333"/>
+    <col customWidth="1" max="31" min="31" outlineLevel="1" style="27" width="9.66666666666667"/>
+    <col customWidth="1" max="32" min="32" outlineLevel="1" style="27" width="10.4416666666667"/>
+    <col customWidth="1" max="33" min="33" outlineLevel="1" style="27" width="11.4416666666667"/>
+    <col customWidth="1" max="34" min="34" outlineLevel="1" style="27" width="7.55833333333333"/>
+    <col customWidth="1" max="35" min="35" outlineLevel="1" style="27" width="12.2166666666667"/>
+    <col customWidth="1" max="36" min="36" outlineLevel="1" style="27" width="10.775"/>
+    <col customWidth="1" max="37" min="37" outlineLevel="1" style="27" width="15.775"/>
+    <col customWidth="1" max="38" min="38" outlineLevel="1" style="27" width="19"/>
+    <col customWidth="1" max="39" min="39" outlineLevel="1" style="27" width="11.5"/>
+    <col customWidth="1" max="40" min="40" outlineLevel="1" style="27" width="14.8833333333333"/>
+    <col customWidth="1" max="41" min="41" outlineLevel="1" style="27" width="16.875"/>
+    <col customWidth="1" max="42" min="42" outlineLevel="1" style="27" width="12.2166666666667"/>
+    <col customWidth="1" max="43" min="43" outlineLevel="1" style="27" width="11.4416666666667"/>
+    <col customWidth="1" max="44" min="44" outlineLevel="1" style="27" width="11.5583333333333"/>
+    <col customWidth="1" max="45" min="45" outlineLevel="1" style="27" width="14.775"/>
+    <col customWidth="1" max="46" min="46" outlineLevel="1" style="27" width="12.775"/>
+    <col customWidth="1" max="47" min="47" outlineLevel="1" style="27" width="6.625"/>
+    <col customWidth="1" max="48" min="48" outlineLevel="1" style="27" width="9"/>
+    <col customWidth="1" max="49" min="49" style="27" width="9.66666666666667"/>
+    <col customWidth="1" max="50" min="50" style="27" width="10.5583333333333"/>
+    <col customWidth="1" max="51" min="51" style="27" width="25.6666666666667"/>
+    <col customWidth="1" max="52" min="52" style="27" width="20.5583333333333"/>
+    <col customWidth="1" max="53" min="53" style="27" width="16.1083333333333"/>
+    <col customWidth="1" max="54" min="54" style="27" width="12.8833333333333"/>
+    <col customWidth="1" max="55" min="55" style="27" width="11.4416666666667"/>
+    <col customWidth="1" max="56" min="56" style="27" width="10"/>
+    <col customWidth="1" max="57" min="57" style="27" width="10.4416666666667"/>
+    <col customWidth="1" max="59" min="58" style="27" width="16.775"/>
+    <col customWidth="1" max="63" min="60" style="27" width="9"/>
+    <col customWidth="1" max="64" min="64" style="27" width="10.8833333333333"/>
+    <col customWidth="1" max="65" min="65" style="27" width="12.8833333333333"/>
+    <col customWidth="1" max="66" min="66" style="27" width="23"/>
+    <col customWidth="1" max="72" min="67" style="27" width="9"/>
+    <col customWidth="1" max="73" min="73" style="27" width="12.775"/>
+    <col customWidth="1" max="74" min="74" style="27" width="16.2166666666667"/>
+    <col customWidth="1" max="75" min="75" style="27" width="14.8833333333333"/>
+    <col customWidth="1" max="76" min="76" style="27" width="13.2166666666667"/>
+    <col customWidth="1" max="77" min="77" style="27" width="24.8833333333333"/>
+    <col customWidth="1" max="78" min="78" style="27" width="16.775"/>
+    <col customWidth="1" max="79" min="79" style="27" width="9"/>
+    <col customWidth="1" max="80" min="80" style="27" width="13.4416666666667"/>
+    <col customWidth="1" max="85" min="81" style="27" width="9"/>
+    <col customWidth="1" max="86" min="86" style="27" width="15.8833333333333"/>
+    <col customWidth="1" max="87" min="87" style="27" width="15.2166666666667"/>
+    <col customWidth="1" max="88" min="88" style="27" width="15.1083333333333"/>
+    <col customWidth="1" max="89" min="89" style="27" width="14.6666666666667"/>
+    <col customWidth="1" max="99" min="90" style="27" width="9"/>
+    <col customWidth="1" max="100" min="100" style="27" width="18.875"/>
+    <col customWidth="1" max="104" min="101" style="27" width="9"/>
+    <col customWidth="1" max="105" min="105" style="27" width="9.55833333333333"/>
+    <col customWidth="1" max="16384" min="106" style="27" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.45" customHeight="1" s="27">
+    <row customHeight="1" ht="21.45" r="1" s="27">
       <c r="A1" s="1" t="n">
         <v>24</v>
       </c>
@@ -1716,7 +1716,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" s="27">
+    <row customHeight="1" ht="14.25" r="2" s="27">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>開始位置</t>
@@ -2038,7 +2038,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="27">
+    <row customHeight="1" ht="14.25" r="3" s="27">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>桁数</t>
@@ -2282,7 +2282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1" s="27">
+    <row customHeight="1" ht="14.25" r="4" s="27">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>記述</t>
@@ -2660,7 +2660,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="23" customHeight="1" s="27">
+    <row customHeight="1" ht="23" r="5" s="27">
       <c r="B5" s="9" t="n"/>
       <c r="C5" s="9" t="n"/>
       <c r="D5" s="9" t="n"/>
@@ -2712,7 +2712,7 @@
       <c r="AX5" s="9" t="n"/>
       <c r="AY5" s="9" t="n"/>
     </row>
-    <row r="6" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="6" s="27">
       <c r="B6" s="9" t="n"/>
       <c r="C6" s="9">
         <f>MIDB($A6,C$2,C$3)</f>
@@ -3027,7 +3027,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="7" s="27">
       <c r="A7" s="0" t="inlineStr">
         <is>
           <t>WA2101023062601  SHANGHAI Y001 23S06260011  0000350421.56USD 0000000000.000000000000.000000000000.000000000000.0020230626ESTIMA                   SHARP202110142023060120230601LS040L      SHARP     YB76174                                                                 T40RUSD  YB  YB  YZS 202306260000000000000000             00000000000000            00002023060120230601TESTYBJL2302601     TESTYBJL2302601     YB                   /SH1/MMJC004080                         20230626162504BGJ-P89107  /SH1/MMJC004090                         20230626162504BGJ-P89107</t>
@@ -3347,7 +3347,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="8" s="27">
       <c r="B8" s="9">
         <f>MIDB($A8,B$2,B$3)</f>
         <v/>
@@ -3665,7 +3665,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="9" s="27">
       <c r="A9" s="0" t="inlineStr">
         <is>
           <t>WA21010          SHANGHAI Y001           1  0000350421.56USD 0000000000.000000000000.000000000000.000000000000.0020230626ESTIMA                   SHARP202110142023060120230601LS040L      SHARP                                                                             T40RUSD  YB  YB  YZS 202306260000000000000000             00000000000000            00002023060120230601                                        YB                   /SH1/MMJC004080                         20230626162504BGJ-P89107  /SH1/MMJC004090                         20230626162504BGJ-P89107</t>
@@ -3988,7 +3988,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="10" s="27">
       <c r="B10" s="9">
         <f>MIDB($A10,B$2,B$3)</f>
         <v/>
@@ -4306,7 +4306,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="11" s="27">
       <c r="B11" s="9">
         <f>MIDB($A11,B$2,B$3)</f>
         <v/>
@@ -4624,7 +4624,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="12" s="27">
       <c r="B12" s="9">
         <f>MIDB($A12,B$2,B$3)</f>
         <v/>
@@ -4942,7 +4942,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="13" s="27">
       <c r="B13" s="9" t="n"/>
       <c r="C13" s="9" t="n"/>
       <c r="D13" s="9" t="n"/>
@@ -5023,7 +5023,7 @@
       <c r="CA13" s="9" t="n"/>
       <c r="CB13" s="9" t="n"/>
     </row>
-    <row r="14" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="14" s="27">
       <c r="B14" s="9" t="n"/>
       <c r="C14" s="9" t="n"/>
       <c r="D14" s="9" t="n"/>
@@ -5104,7 +5104,7 @@
       <c r="CA14" s="9" t="n"/>
       <c r="CB14" s="9" t="n"/>
     </row>
-    <row r="15" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="15" s="27">
       <c r="B15" s="9">
         <f>MIDB($A15,B$2,B$3)</f>
         <v/>
@@ -5422,7 +5422,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="31" customHeight="1" s="27">
+    <row customHeight="1" ht="31" r="16" s="27">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>項目</t>
@@ -5962,7 +5962,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1" s="27">
+    <row customHeight="1" ht="14.25" r="17" s="27">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>開始位置</t>
@@ -6392,7 +6392,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1" s="27">
+    <row customHeight="1" ht="14.25" r="18" s="27">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>桁数</t>
@@ -6929,7 +6929,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1" s="27">
+    <row customHeight="1" ht="14.25" r="19" s="27">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>記述</t>
@@ -7416,7 +7416,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="27">
+    <row customHeight="1" ht="15" r="20" s="27">
       <c r="B20" s="9" t="n"/>
       <c r="C20" s="9" t="n"/>
       <c r="D20" s="9" t="n"/>
@@ -7468,7 +7468,7 @@
       <c r="AX20" s="9" t="n"/>
       <c r="AY20" s="9" t="n"/>
     </row>
-    <row r="21" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="21" s="27">
       <c r="B21" s="9">
         <f>MIDB($A21,B$17,B$18)</f>
         <v/>
@@ -7894,7 +7894,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="22" s="27">
       <c r="A22" s="0" t="inlineStr">
         <is>
           <t>WA3101023062601  SHANGHAI Y0015408403  001000TESTYBJL2302601     A1AUJ22SY                                                 23S0626001 1SFFOB SHA OSK        CA1AUJ22SY         A1AUJ22SY         V M0A1AUJ22SY     000000001.0000001    0001    00000607.7200000607.72000010000000000.000000000000.000000000000.000000000000.00540840399999   540840399999   00054084039999910Y1BS1 NB  000000000.000000000000.000000000000.000                YB76174           202109152023062600000000          00000000.000000000000000000000000108.0000000131267.52USD                              000000          000000          000000                             0000000 0000000000000000000000000000000000000000                                                                                                                                                                                                        /SH1/MMJC004080                         20230626112004BGJ-P89107  /SH1/MMJC004090                         20230626112045BGJ-P89107</t>
@@ -8325,7 +8325,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="23" s="27">
       <c r="B23" s="9">
         <f>MIDB($A23,B$17,B$18)</f>
         <v/>
@@ -8751,7 +8751,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="24" s="27">
       <c r="A24" s="0" t="inlineStr">
         <is>
           <t>WA31010          SHANGHAI Y001         001000TESTYBJL2302601                                                                          1SFFOB SHA OSK        CA1AUJ22SY         A1AUJ22SY         V M0A1AUJ22SY     000000001.0000001    0001    00000607.7200000607.72000010000000000.000000000000.000000000000.000000000000.00                              00054084039999910Y1BS1 NB  000000000.000000000000.000000000000.000                YB76174           202109152023062600000000          00000000.000000000000000000000000108.0000000131267.52USD                              000000          000000          000000                             0000000 0000000000000000000000000000000000000000                                                                                                                                                                                                        /SH1/MMJC004080                         20230626112004BGJ-P89107  /SH1/MMJC004090                         20230626112045BGJ-P89107</t>
@@ -9182,7 +9182,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="25" s="27">
       <c r="B25" s="9">
         <f>MIDB($A25,B$17,B$18)</f>
         <v/>
@@ -9605,7 +9605,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="26" s="27">
       <c r="B26" s="9">
         <f>MIDB($A26,B$17,B$18)</f>
         <v/>
@@ -10031,7 +10031,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="27" s="27">
       <c r="B27" s="9">
         <f>MIDB($A27,B$17,B$18)</f>
         <v/>
@@ -10457,7 +10457,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="28" s="27">
       <c r="B28" s="9">
         <f>MIDB($A28,B$17,B$18)</f>
         <v/>
@@ -10883,7 +10883,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="29" s="27">
       <c r="B29" s="9">
         <f>MIDB($A29,B$17,B$18)</f>
         <v/>
@@ -11309,7 +11309,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="30" s="27">
       <c r="B30" s="9">
         <f>MIDB($A30,B$17,B$18)</f>
         <v/>
@@ -11735,7 +11735,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="31" s="27">
       <c r="B31" s="9">
         <f>MIDB($A31,B$17,B$18)</f>
         <v/>
@@ -12161,7 +12161,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="32" s="27">
       <c r="B32" s="9">
         <f>MIDB($A32,B$17,B$18)</f>
         <v/>
@@ -12587,7 +12587,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="33" s="27">
       <c r="B33" s="9">
         <f>MIDB($A33,B$17,B$18)</f>
         <v/>
@@ -13013,7 +13013,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="34" s="27">
       <c r="B34" s="9">
         <f>MIDB($A34,B$17,B$18)</f>
         <v/>
@@ -13439,7 +13439,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="35" s="27">
       <c r="B35" s="9">
         <f>MIDB($A35,B$17,B$18)</f>
         <v/>
@@ -13865,7 +13865,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="36" s="27">
       <c r="B36" s="9">
         <f>MIDB($A36,B$17,B$18)</f>
         <v/>
@@ -14291,7 +14291,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="37" s="27">
       <c r="B37" s="9">
         <f>MIDB($A37,B$17,B$18)</f>
         <v/>
@@ -14717,7 +14717,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="38" s="27">
       <c r="B38" s="9">
         <f>MIDB($A38,B$17,B$18)</f>
         <v/>
@@ -15143,7 +15143,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="39" s="27">
       <c r="B39" s="9">
         <f>MIDB($A39,B$17,B$18)</f>
         <v/>
@@ -15569,7 +15569,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="40" s="27">
       <c r="B40" s="9">
         <f>MIDB($A40,B$17,B$18)</f>
         <v/>
@@ -15995,7 +15995,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="41" s="27">
       <c r="B41" s="9">
         <f>MIDB($A41,B$17,B$18)</f>
         <v/>
@@ -16421,7 +16421,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="42" s="27">
       <c r="B42" s="9">
         <f>MIDB($A42,B$17,B$18)</f>
         <v/>
@@ -16847,7 +16847,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="43" s="27">
       <c r="B43" s="9">
         <f>MIDB($A43,B$17,B$18)</f>
         <v/>
@@ -17273,7 +17273,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="44" s="27">
       <c r="B44" s="9">
         <f>MIDB($A44,B$17,B$18)</f>
         <v/>
@@ -17699,7 +17699,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="45" s="27">
       <c r="B45" s="9">
         <f>MIDB($A45,B$17,B$18)</f>
         <v/>
@@ -18125,7 +18125,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="46" s="27">
       <c r="B46" s="9">
         <f>MIDB($A46,B$17,B$18)</f>
         <v/>
@@ -18551,7 +18551,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="47" s="27">
       <c r="B47" s="9">
         <f>MIDB($A47,B$17,B$18)</f>
         <v/>
@@ -18977,7 +18977,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="48" s="27">
       <c r="B48" s="9">
         <f>MIDB($A48,B$17,B$18)</f>
         <v/>
@@ -19403,7 +19403,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="49" s="27">
       <c r="B49" s="9" t="n"/>
       <c r="C49" s="9" t="n"/>
       <c r="D49" s="9" t="n"/>
@@ -19455,7 +19455,7 @@
       <c r="AX49" s="9" t="n"/>
       <c r="AY49" s="9" t="n"/>
     </row>
-    <row r="50" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="50" s="27">
       <c r="B50" s="9" t="n"/>
       <c r="C50" s="9" t="n"/>
       <c r="D50" s="9" t="n"/>
@@ -19507,7 +19507,7 @@
       <c r="AX50" s="9" t="n"/>
       <c r="AY50" s="9" t="n"/>
     </row>
-    <row r="51" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="51" s="27">
       <c r="B51" s="9" t="n"/>
       <c r="C51" s="9" t="n"/>
       <c r="D51" s="9" t="n"/>
@@ -19559,7 +19559,7 @@
       <c r="AX51" s="9" t="n"/>
       <c r="AY51" s="9" t="n"/>
     </row>
-    <row r="52" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="52" s="27">
       <c r="B52" s="9" t="n"/>
       <c r="C52" s="9" t="n"/>
       <c r="D52" s="9" t="n"/>
@@ -19611,7 +19611,7 @@
       <c r="AX52" s="9" t="n"/>
       <c r="AY52" s="9" t="n"/>
     </row>
-    <row r="53" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="53" s="27">
       <c r="B53" s="9" t="n"/>
       <c r="C53" s="9" t="n"/>
       <c r="D53" s="9" t="n"/>
@@ -19663,7 +19663,7 @@
       <c r="AX53" s="9" t="n"/>
       <c r="AY53" s="9" t="n"/>
     </row>
-    <row r="54" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="54" s="27">
       <c r="B54" s="9" t="n"/>
       <c r="C54" s="9" t="n"/>
       <c r="D54" s="9" t="n"/>
@@ -19715,7 +19715,7 @@
       <c r="AX54" s="9" t="n"/>
       <c r="AY54" s="9" t="n"/>
     </row>
-    <row r="55" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="55" s="27">
       <c r="B55" s="9" t="n"/>
       <c r="C55" s="9" t="n"/>
       <c r="D55" s="9" t="n"/>
@@ -19767,7 +19767,7 @@
       <c r="AX55" s="9" t="n"/>
       <c r="AY55" s="9" t="n"/>
     </row>
-    <row r="56" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="56" s="27">
       <c r="B56" s="9" t="n"/>
       <c r="C56" s="9" t="n"/>
       <c r="D56" s="9" t="n"/>
@@ -19819,7 +19819,7 @@
       <c r="AX56" s="9" t="n"/>
       <c r="AY56" s="9" t="n"/>
     </row>
-    <row r="57" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="57" s="27">
       <c r="B57" s="9" t="n"/>
       <c r="C57" s="9" t="n"/>
       <c r="D57" s="9" t="n"/>
@@ -19871,7 +19871,7 @@
       <c r="AX57" s="9" t="n"/>
       <c r="AY57" s="9" t="n"/>
     </row>
-    <row r="58" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="58" s="27">
       <c r="B58" s="9" t="n"/>
       <c r="C58" s="9" t="n"/>
       <c r="D58" s="9" t="n"/>
@@ -19923,7 +19923,7 @@
       <c r="AX58" s="9" t="n"/>
       <c r="AY58" s="9" t="n"/>
     </row>
-    <row r="59" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="59" s="27">
       <c r="B59" s="9" t="n"/>
       <c r="C59" s="9" t="n"/>
       <c r="D59" s="9" t="n"/>
@@ -19975,7 +19975,7 @@
       <c r="AX59" s="9" t="n"/>
       <c r="AY59" s="9" t="n"/>
     </row>
-    <row r="60" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="60" s="27">
       <c r="B60" s="9" t="n"/>
       <c r="C60" s="9" t="n"/>
       <c r="D60" s="9" t="n"/>
@@ -20027,7 +20027,7 @@
       <c r="AX60" s="9" t="n"/>
       <c r="AY60" s="9" t="n"/>
     </row>
-    <row r="61" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="61" s="27">
       <c r="B61" s="9" t="n"/>
       <c r="C61" s="9" t="n"/>
       <c r="D61" s="9" t="n"/>
@@ -20079,7 +20079,7 @@
       <c r="AX61" s="9" t="n"/>
       <c r="AY61" s="9" t="n"/>
     </row>
-    <row r="62" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="62" s="27">
       <c r="B62" s="9" t="n"/>
       <c r="C62" s="9" t="n"/>
       <c r="D62" s="9" t="n"/>
@@ -20131,7 +20131,7 @@
       <c r="AX62" s="9" t="n"/>
       <c r="AY62" s="9" t="n"/>
     </row>
-    <row r="63" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="63" s="27">
       <c r="B63" s="9" t="n"/>
       <c r="C63" s="9" t="n"/>
       <c r="D63" s="9" t="n"/>
@@ -20183,7 +20183,7 @@
       <c r="AX63" s="9" t="n"/>
       <c r="AY63" s="9" t="n"/>
     </row>
-    <row r="64" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="64" s="27">
       <c r="B64" s="9" t="n"/>
       <c r="C64" s="9" t="n"/>
       <c r="D64" s="9" t="n"/>
@@ -20235,7 +20235,7 @@
       <c r="AX64" s="9" t="n"/>
       <c r="AY64" s="9" t="n"/>
     </row>
-    <row r="65" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="65" s="27">
       <c r="B65" s="9" t="n"/>
       <c r="C65" s="9" t="n"/>
       <c r="D65" s="9" t="n"/>
@@ -20287,7 +20287,7 @@
       <c r="AX65" s="9" t="n"/>
       <c r="AY65" s="9" t="n"/>
     </row>
-    <row r="66" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="66" s="27">
       <c r="B66" s="9" t="n"/>
       <c r="C66" s="9" t="n"/>
       <c r="D66" s="9" t="n"/>
@@ -20339,7 +20339,7 @@
       <c r="AX66" s="9" t="n"/>
       <c r="AY66" s="9" t="n"/>
     </row>
-    <row r="67" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="67" s="27">
       <c r="B67" s="9" t="n"/>
       <c r="C67" s="9" t="n"/>
       <c r="D67" s="9" t="n"/>
@@ -20391,7 +20391,7 @@
       <c r="AX67" s="9" t="n"/>
       <c r="AY67" s="9" t="n"/>
     </row>
-    <row r="68" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="68" s="27">
       <c r="B68" s="9" t="n"/>
       <c r="C68" s="9" t="n"/>
       <c r="D68" s="9" t="n"/>
@@ -20443,7 +20443,7 @@
       <c r="AX68" s="9" t="n"/>
       <c r="AY68" s="9" t="n"/>
     </row>
-    <row r="69" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="69" s="27">
       <c r="B69" s="9" t="n"/>
       <c r="C69" s="9" t="n"/>
       <c r="D69" s="9" t="n"/>
@@ -20495,7 +20495,7 @@
       <c r="AX69" s="9" t="n"/>
       <c r="AY69" s="9" t="n"/>
     </row>
-    <row r="70" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="70" s="27">
       <c r="B70" s="9" t="n"/>
       <c r="C70" s="9" t="n"/>
       <c r="D70" s="9" t="n"/>
@@ -20547,7 +20547,7 @@
       <c r="AX70" s="9" t="n"/>
       <c r="AY70" s="9" t="n"/>
     </row>
-    <row r="71" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="71" s="27">
       <c r="B71" s="9" t="n"/>
       <c r="C71" s="9" t="n"/>
       <c r="D71" s="9" t="n"/>
@@ -20599,7 +20599,7 @@
       <c r="AX71" s="9" t="n"/>
       <c r="AY71" s="9" t="n"/>
     </row>
-    <row r="72" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="72" s="27">
       <c r="B72" s="9" t="n"/>
       <c r="C72" s="9" t="n"/>
       <c r="D72" s="9" t="n"/>
@@ -20651,7 +20651,7 @@
       <c r="AX72" s="9" t="n"/>
       <c r="AY72" s="9" t="n"/>
     </row>
-    <row r="73" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="73" s="27">
       <c r="B73" s="9" t="n"/>
       <c r="C73" s="9" t="n"/>
       <c r="D73" s="9" t="n"/>
@@ -20703,7 +20703,7 @@
       <c r="AX73" s="9" t="n"/>
       <c r="AY73" s="9" t="n"/>
     </row>
-    <row r="74" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="74" s="27">
       <c r="B74" s="9" t="n"/>
       <c r="C74" s="9" t="n"/>
       <c r="D74" s="9" t="n"/>
@@ -20755,7 +20755,7 @@
       <c r="AX74" s="9" t="n"/>
       <c r="AY74" s="9" t="n"/>
     </row>
-    <row r="75" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="75" s="27">
       <c r="B75" s="9" t="n"/>
       <c r="C75" s="9" t="n"/>
       <c r="D75" s="9" t="n"/>
@@ -20807,7 +20807,7 @@
       <c r="AX75" s="9" t="n"/>
       <c r="AY75" s="9" t="n"/>
     </row>
-    <row r="76" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="76" s="27">
       <c r="B76" s="9" t="n"/>
       <c r="C76" s="9" t="n"/>
       <c r="D76" s="9" t="n"/>
@@ -20859,7 +20859,7 @@
       <c r="AX76" s="9" t="n"/>
       <c r="AY76" s="9" t="n"/>
     </row>
-    <row r="77" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="77" s="27">
       <c r="B77" s="9" t="n"/>
       <c r="C77" s="9" t="n"/>
       <c r="D77" s="9" t="n"/>
@@ -20911,7 +20911,7 @@
       <c r="AX77" s="9" t="n"/>
       <c r="AY77" s="9" t="n"/>
     </row>
-    <row r="78" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="78" s="27">
       <c r="B78" s="9" t="n"/>
       <c r="C78" s="9" t="n"/>
       <c r="D78" s="9" t="n"/>
@@ -20963,7 +20963,7 @@
       <c r="AX78" s="9" t="n"/>
       <c r="AY78" s="9" t="n"/>
     </row>
-    <row r="79" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="79" s="27">
       <c r="B79" s="9" t="n"/>
       <c r="C79" s="9" t="n"/>
       <c r="D79" s="9" t="n"/>
@@ -21015,7 +21015,7 @@
       <c r="AX79" s="9" t="n"/>
       <c r="AY79" s="9" t="n"/>
     </row>
-    <row r="80" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="80" s="27">
       <c r="B80" s="9" t="n"/>
       <c r="C80" s="9" t="n"/>
       <c r="D80" s="9" t="n"/>
@@ -21067,7 +21067,7 @@
       <c r="AX80" s="9" t="n"/>
       <c r="AY80" s="9" t="n"/>
     </row>
-    <row r="81" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="81" s="27">
       <c r="B81" s="9" t="n"/>
       <c r="C81" s="9" t="n"/>
       <c r="D81" s="9" t="n"/>
@@ -21119,7 +21119,7 @@
       <c r="AX81" s="9" t="n"/>
       <c r="AY81" s="9" t="n"/>
     </row>
-    <row r="82" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="82" s="27">
       <c r="B82" s="9" t="n"/>
       <c r="C82" s="9" t="n"/>
       <c r="D82" s="9" t="n"/>
@@ -21171,7 +21171,7 @@
       <c r="AX82" s="9" t="n"/>
       <c r="AY82" s="9" t="n"/>
     </row>
-    <row r="83" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="83" s="27">
       <c r="B83" s="9" t="n"/>
       <c r="C83" s="9" t="n"/>
       <c r="D83" s="9" t="n"/>
@@ -21223,7 +21223,7 @@
       <c r="AX83" s="9" t="n"/>
       <c r="AY83" s="9" t="n"/>
     </row>
-    <row r="84" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="84" s="27">
       <c r="B84" s="9" t="n"/>
       <c r="C84" s="9" t="n"/>
       <c r="D84" s="9" t="n"/>
@@ -21275,7 +21275,7 @@
       <c r="AX84" s="9" t="n"/>
       <c r="AY84" s="9" t="n"/>
     </row>
-    <row r="85" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="85" s="27">
       <c r="B85" s="9" t="n"/>
       <c r="C85" s="9" t="n"/>
       <c r="D85" s="9" t="n"/>
@@ -21327,7 +21327,7 @@
       <c r="AX85" s="9" t="n"/>
       <c r="AY85" s="9" t="n"/>
     </row>
-    <row r="86" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="86" s="27">
       <c r="B86" s="9" t="n"/>
       <c r="C86" s="9" t="n"/>
       <c r="D86" s="9" t="n"/>
@@ -21379,7 +21379,7 @@
       <c r="AX86" s="9" t="n"/>
       <c r="AY86" s="9" t="n"/>
     </row>
-    <row r="87" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="87" s="27">
       <c r="B87" s="9" t="n"/>
       <c r="C87" s="9" t="n"/>
       <c r="D87" s="9" t="n"/>
@@ -21431,7 +21431,7 @@
       <c r="AX87" s="9" t="n"/>
       <c r="AY87" s="9" t="n"/>
     </row>
-    <row r="88" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="88" s="27">
       <c r="B88" s="9" t="n"/>
       <c r="C88" s="9" t="n"/>
       <c r="D88" s="9" t="n"/>
@@ -21483,7 +21483,7 @@
       <c r="AX88" s="9" t="n"/>
       <c r="AY88" s="9" t="n"/>
     </row>
-    <row r="89" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="89" s="27">
       <c r="B89" s="9" t="n"/>
       <c r="C89" s="9" t="n"/>
       <c r="D89" s="9" t="n"/>
@@ -21535,7 +21535,7 @@
       <c r="AX89" s="9" t="n"/>
       <c r="AY89" s="9" t="n"/>
     </row>
-    <row r="90" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="90" s="27">
       <c r="B90" s="9" t="n"/>
       <c r="C90" s="9" t="n"/>
       <c r="D90" s="9" t="n"/>
@@ -21587,7 +21587,7 @@
       <c r="AX90" s="9" t="n"/>
       <c r="AY90" s="9" t="n"/>
     </row>
-    <row r="91" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="91" s="27">
       <c r="B91" s="9" t="n"/>
       <c r="C91" s="9" t="n"/>
       <c r="D91" s="9" t="n"/>
@@ -21639,7 +21639,7 @@
       <c r="AX91" s="9" t="n"/>
       <c r="AY91" s="9" t="n"/>
     </row>
-    <row r="92" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="92" s="27">
       <c r="B92" s="9" t="n"/>
       <c r="C92" s="9" t="n"/>
       <c r="D92" s="9" t="n"/>
@@ -21691,7 +21691,7 @@
       <c r="AX92" s="9" t="n"/>
       <c r="AY92" s="9" t="n"/>
     </row>
-    <row r="93" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="93" s="27">
       <c r="B93" s="9" t="n"/>
       <c r="C93" s="9" t="n"/>
       <c r="D93" s="9" t="n"/>
@@ -21743,7 +21743,7 @@
       <c r="AX93" s="9" t="n"/>
       <c r="AY93" s="9" t="n"/>
     </row>
-    <row r="94" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="94" s="27">
       <c r="B94" s="9" t="n"/>
       <c r="C94" s="9" t="n"/>
       <c r="D94" s="9" t="n"/>
@@ -21795,7 +21795,7 @@
       <c r="AX94" s="9" t="n"/>
       <c r="AY94" s="9" t="n"/>
     </row>
-    <row r="95" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="95" s="27">
       <c r="B95" s="9" t="n"/>
       <c r="C95" s="9" t="n"/>
       <c r="D95" s="9" t="n"/>
@@ -21847,7 +21847,7 @@
       <c r="AX95" s="9" t="n"/>
       <c r="AY95" s="9" t="n"/>
     </row>
-    <row r="96" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="96" s="27">
       <c r="B96" s="9" t="n"/>
       <c r="C96" s="9" t="n"/>
       <c r="D96" s="9" t="n"/>
@@ -21899,7 +21899,7 @@
       <c r="AX96" s="9" t="n"/>
       <c r="AY96" s="9" t="n"/>
     </row>
-    <row r="97" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="97" s="27">
       <c r="B97" s="9" t="n"/>
       <c r="C97" s="9" t="n"/>
       <c r="D97" s="9" t="n"/>
@@ -21951,7 +21951,7 @@
       <c r="AX97" s="9" t="n"/>
       <c r="AY97" s="9" t="n"/>
     </row>
-    <row r="98" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="98" s="27">
       <c r="B98" s="9" t="n"/>
       <c r="C98" s="9" t="n"/>
       <c r="D98" s="9" t="n"/>
@@ -22003,7 +22003,7 @@
       <c r="AX98" s="9" t="n"/>
       <c r="AY98" s="9" t="n"/>
     </row>
-    <row r="99" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="99" s="27">
       <c r="B99" s="9" t="n"/>
       <c r="C99" s="9" t="n"/>
       <c r="D99" s="9" t="n"/>
@@ -22055,7 +22055,7 @@
       <c r="AX99" s="9" t="n"/>
       <c r="AY99" s="9" t="n"/>
     </row>
-    <row r="100" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="100" s="27">
       <c r="B100" s="9" t="n"/>
       <c r="C100" s="9" t="n"/>
       <c r="D100" s="9" t="n"/>
@@ -22107,7 +22107,7 @@
       <c r="AX100" s="9" t="n"/>
       <c r="AY100" s="9" t="n"/>
     </row>
-    <row r="101" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="101" s="27">
       <c r="B101" s="9" t="n"/>
       <c r="C101" s="9" t="n"/>
       <c r="D101" s="9" t="n"/>
@@ -22159,7 +22159,7 @@
       <c r="AX101" s="9" t="n"/>
       <c r="AY101" s="9" t="n"/>
     </row>
-    <row r="102" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="102" s="27">
       <c r="B102" s="9" t="n"/>
       <c r="C102" s="9" t="n"/>
       <c r="D102" s="9" t="n"/>
@@ -22211,7 +22211,7 @@
       <c r="AX102" s="9" t="n"/>
       <c r="AY102" s="9" t="n"/>
     </row>
-    <row r="103" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="103" s="27">
       <c r="B103" s="9" t="n"/>
       <c r="C103" s="9" t="n"/>
       <c r="D103" s="9" t="n"/>
@@ -22263,7 +22263,7 @@
       <c r="AX103" s="9" t="n"/>
       <c r="AY103" s="9" t="n"/>
     </row>
-    <row r="104" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="104" s="27">
       <c r="B104" s="9" t="n"/>
       <c r="C104" s="9" t="n"/>
       <c r="D104" s="9" t="n"/>
@@ -22315,7 +22315,7 @@
       <c r="AX104" s="9" t="n"/>
       <c r="AY104" s="9" t="n"/>
     </row>
-    <row r="105" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="105" s="27">
       <c r="B105" s="9" t="n"/>
       <c r="C105" s="9" t="n"/>
       <c r="D105" s="9" t="n"/>
@@ -22367,7 +22367,7 @@
       <c r="AX105" s="9" t="n"/>
       <c r="AY105" s="9" t="n"/>
     </row>
-    <row r="106" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="106" s="27">
       <c r="B106" s="9" t="n"/>
       <c r="C106" s="9" t="n"/>
       <c r="D106" s="9" t="n"/>
@@ -22419,7 +22419,7 @@
       <c r="AX106" s="9" t="n"/>
       <c r="AY106" s="9" t="n"/>
     </row>
-    <row r="107" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="107" s="27">
       <c r="B107" s="9" t="n"/>
       <c r="C107" s="9" t="n"/>
       <c r="D107" s="9" t="n"/>
@@ -22471,7 +22471,7 @@
       <c r="AX107" s="9" t="n"/>
       <c r="AY107" s="9" t="n"/>
     </row>
-    <row r="108" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="108" s="27">
       <c r="B108" s="9" t="n"/>
       <c r="C108" s="9" t="n"/>
       <c r="D108" s="9" t="n"/>
@@ -22523,7 +22523,7 @@
       <c r="AX108" s="9" t="n"/>
       <c r="AY108" s="9" t="n"/>
     </row>
-    <row r="109" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="109" s="27">
       <c r="B109" s="9" t="n"/>
       <c r="C109" s="9" t="n"/>
       <c r="D109" s="9" t="n"/>
@@ -22575,7 +22575,7 @@
       <c r="AX109" s="9" t="n"/>
       <c r="AY109" s="9" t="n"/>
     </row>
-    <row r="110" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="110" s="27">
       <c r="B110" s="9" t="n"/>
       <c r="C110" s="9" t="n"/>
       <c r="D110" s="9" t="n"/>
@@ -22627,7 +22627,7 @@
       <c r="AX110" s="9" t="n"/>
       <c r="AY110" s="9" t="n"/>
     </row>
-    <row r="111" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="111" s="27">
       <c r="B111" s="9" t="n"/>
       <c r="C111" s="9" t="n"/>
       <c r="D111" s="9" t="n"/>
@@ -22679,7 +22679,7 @@
       <c r="AX111" s="9" t="n"/>
       <c r="AY111" s="9" t="n"/>
     </row>
-    <row r="112" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="112" s="27">
       <c r="B112" s="9" t="n"/>
       <c r="C112" s="9" t="n"/>
       <c r="D112" s="9" t="n"/>
@@ -22731,7 +22731,7 @@
       <c r="AX112" s="9" t="n"/>
       <c r="AY112" s="9" t="n"/>
     </row>
-    <row r="113" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="113" s="27">
       <c r="B113" s="9" t="n"/>
       <c r="C113" s="9" t="n"/>
       <c r="D113" s="9" t="n"/>
@@ -22783,7 +22783,7 @@
       <c r="AX113" s="9" t="n"/>
       <c r="AY113" s="9" t="n"/>
     </row>
-    <row r="114" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="114" s="27">
       <c r="B114" s="9" t="n"/>
       <c r="C114" s="9" t="n"/>
       <c r="D114" s="9" t="n"/>
@@ -22835,7 +22835,7 @@
       <c r="AX114" s="9" t="n"/>
       <c r="AY114" s="9" t="n"/>
     </row>
-    <row r="115" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="115" s="27">
       <c r="B115" s="9" t="n"/>
       <c r="C115" s="9" t="n"/>
       <c r="D115" s="9" t="n"/>
@@ -22887,7 +22887,7 @@
       <c r="AX115" s="9" t="n"/>
       <c r="AY115" s="9" t="n"/>
     </row>
-    <row r="116" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="116" s="27">
       <c r="B116" s="9" t="n"/>
       <c r="C116" s="9" t="n"/>
       <c r="D116" s="9" t="n"/>
@@ -22939,7 +22939,7 @@
       <c r="AX116" s="9" t="n"/>
       <c r="AY116" s="9" t="n"/>
     </row>
-    <row r="117" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="117" s="27">
       <c r="B117" s="9" t="n"/>
       <c r="C117" s="9" t="n"/>
       <c r="D117" s="9" t="n"/>
@@ -22991,7 +22991,7 @@
       <c r="AX117" s="9" t="n"/>
       <c r="AY117" s="9" t="n"/>
     </row>
-    <row r="118" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="118" s="27">
       <c r="B118" s="9" t="n"/>
       <c r="C118" s="9" t="n"/>
       <c r="D118" s="9" t="n"/>
@@ -23043,7 +23043,7 @@
       <c r="AX118" s="9" t="n"/>
       <c r="AY118" s="9" t="n"/>
     </row>
-    <row r="119" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="119" s="27">
       <c r="B119" s="9" t="n"/>
       <c r="C119" s="9" t="n"/>
       <c r="D119" s="9" t="n"/>
@@ -23095,7 +23095,7 @@
       <c r="AX119" s="9" t="n"/>
       <c r="AY119" s="9" t="n"/>
     </row>
-    <row r="120" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="120" s="27">
       <c r="B120" s="9" t="n"/>
       <c r="C120" s="9" t="n"/>
       <c r="D120" s="9" t="n"/>
@@ -23147,7 +23147,7 @@
       <c r="AX120" s="9" t="n"/>
       <c r="AY120" s="9" t="n"/>
     </row>
-    <row r="121" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="121" s="27">
       <c r="B121" s="9" t="n"/>
       <c r="C121" s="9" t="n"/>
       <c r="D121" s="9" t="n"/>
@@ -23199,7 +23199,7 @@
       <c r="AX121" s="9" t="n"/>
       <c r="AY121" s="9" t="n"/>
     </row>
-    <row r="122" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="122" s="27">
       <c r="B122" s="9" t="n"/>
       <c r="C122" s="9" t="n"/>
       <c r="D122" s="9" t="n"/>
@@ -23251,7 +23251,7 @@
       <c r="AX122" s="9" t="n"/>
       <c r="AY122" s="9" t="n"/>
     </row>
-    <row r="123" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="123" s="27">
       <c r="B123" s="9" t="n"/>
       <c r="C123" s="9" t="n"/>
       <c r="D123" s="9" t="n"/>
@@ -23303,7 +23303,7 @@
       <c r="AX123" s="9" t="n"/>
       <c r="AY123" s="9" t="n"/>
     </row>
-    <row r="124" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="124" s="27">
       <c r="B124" s="9" t="n"/>
       <c r="C124" s="9" t="n"/>
       <c r="D124" s="9" t="n"/>
@@ -23355,7 +23355,7 @@
       <c r="AX124" s="9" t="n"/>
       <c r="AY124" s="9" t="n"/>
     </row>
-    <row r="125" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="125" s="27">
       <c r="B125" s="9" t="n"/>
       <c r="C125" s="9" t="n"/>
       <c r="D125" s="9" t="n"/>
@@ -23407,7 +23407,7 @@
       <c r="AX125" s="9" t="n"/>
       <c r="AY125" s="9" t="n"/>
     </row>
-    <row r="126" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="126" s="27">
       <c r="B126" s="9" t="n"/>
       <c r="C126" s="9" t="n"/>
       <c r="D126" s="9" t="n"/>
@@ -23459,7 +23459,7 @@
       <c r="AX126" s="9" t="n"/>
       <c r="AY126" s="9" t="n"/>
     </row>
-    <row r="127" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="127" s="27">
       <c r="B127" s="9" t="n"/>
       <c r="C127" s="9" t="n"/>
       <c r="D127" s="9" t="n"/>
@@ -23511,7 +23511,7 @@
       <c r="AX127" s="9" t="n"/>
       <c r="AY127" s="9" t="n"/>
     </row>
-    <row r="128" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="128" s="27">
       <c r="B128" s="9" t="n"/>
       <c r="C128" s="9" t="n"/>
       <c r="D128" s="9" t="n"/>
@@ -23563,7 +23563,7 @@
       <c r="AX128" s="9" t="n"/>
       <c r="AY128" s="9" t="n"/>
     </row>
-    <row r="129" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="129" s="27">
       <c r="B129" s="9" t="n"/>
       <c r="C129" s="9" t="n"/>
       <c r="D129" s="9" t="n"/>
@@ -23615,7 +23615,7 @@
       <c r="AX129" s="9" t="n"/>
       <c r="AY129" s="9" t="n"/>
     </row>
-    <row r="130" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="130" s="27">
       <c r="B130" s="9" t="n"/>
       <c r="C130" s="9" t="n"/>
       <c r="D130" s="9" t="n"/>
@@ -23667,7 +23667,7 @@
       <c r="AX130" s="9" t="n"/>
       <c r="AY130" s="9" t="n"/>
     </row>
-    <row r="131" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="131" s="27">
       <c r="B131" s="9" t="n"/>
       <c r="C131" s="9" t="n"/>
       <c r="D131" s="9" t="n"/>
@@ -23719,7 +23719,7 @@
       <c r="AX131" s="9" t="n"/>
       <c r="AY131" s="9" t="n"/>
     </row>
-    <row r="132" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="132" s="27">
       <c r="B132" s="9" t="n"/>
       <c r="C132" s="9" t="n"/>
       <c r="D132" s="9" t="n"/>
@@ -23771,7 +23771,7 @@
       <c r="AX132" s="9" t="n"/>
       <c r="AY132" s="9" t="n"/>
     </row>
-    <row r="133" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="133" s="27">
       <c r="B133" s="9" t="n"/>
       <c r="C133" s="9" t="n"/>
       <c r="D133" s="9" t="n"/>
@@ -23823,7 +23823,7 @@
       <c r="AX133" s="9" t="n"/>
       <c r="AY133" s="9" t="n"/>
     </row>
-    <row r="134" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="134" s="27">
       <c r="B134" s="9" t="n"/>
       <c r="C134" s="9" t="n"/>
       <c r="D134" s="9" t="n"/>
@@ -23875,7 +23875,7 @@
       <c r="AX134" s="9" t="n"/>
       <c r="AY134" s="9" t="n"/>
     </row>
-    <row r="135" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="135" s="27">
       <c r="B135" s="9" t="n"/>
       <c r="C135" s="9" t="n"/>
       <c r="D135" s="9" t="n"/>
@@ -23927,7 +23927,7 @@
       <c r="AX135" s="9" t="n"/>
       <c r="AY135" s="9" t="n"/>
     </row>
-    <row r="136" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="136" s="27">
       <c r="B136" s="9" t="n"/>
       <c r="C136" s="9" t="n"/>
       <c r="D136" s="9" t="n"/>
@@ -23979,7 +23979,7 @@
       <c r="AX136" s="9" t="n"/>
       <c r="AY136" s="9" t="n"/>
     </row>
-    <row r="137" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="137" s="27">
       <c r="B137" s="9" t="n"/>
       <c r="C137" s="9" t="n"/>
       <c r="D137" s="9" t="n"/>
@@ -24031,7 +24031,7 @@
       <c r="AX137" s="9" t="n"/>
       <c r="AY137" s="9" t="n"/>
     </row>
-    <row r="138" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="138" s="27">
       <c r="B138" s="9" t="n"/>
       <c r="C138" s="9" t="n"/>
       <c r="D138" s="9" t="n"/>
@@ -24083,7 +24083,7 @@
       <c r="AX138" s="9" t="n"/>
       <c r="AY138" s="9" t="n"/>
     </row>
-    <row r="139" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="139" s="27">
       <c r="B139" s="9" t="n"/>
       <c r="C139" s="9" t="n"/>
       <c r="D139" s="9" t="n"/>
@@ -24135,7 +24135,7 @@
       <c r="AX139" s="9" t="n"/>
       <c r="AY139" s="9" t="n"/>
     </row>
-    <row r="140" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="140" s="27">
       <c r="B140" s="9" t="n"/>
       <c r="C140" s="9" t="n"/>
       <c r="D140" s="9" t="n"/>
@@ -24187,7 +24187,7 @@
       <c r="AX140" s="9" t="n"/>
       <c r="AY140" s="9" t="n"/>
     </row>
-    <row r="141" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="141" s="27">
       <c r="B141" s="9" t="n"/>
       <c r="C141" s="9" t="n"/>
       <c r="D141" s="9" t="n"/>
@@ -24239,7 +24239,7 @@
       <c r="AX141" s="9" t="n"/>
       <c r="AY141" s="9" t="n"/>
     </row>
-    <row r="142" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="142" s="27">
       <c r="B142" s="9" t="n"/>
       <c r="C142" s="9" t="n"/>
       <c r="D142" s="9" t="n"/>
@@ -24291,7 +24291,7 @@
       <c r="AX142" s="9" t="n"/>
       <c r="AY142" s="9" t="n"/>
     </row>
-    <row r="143" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="143" s="27">
       <c r="B143" s="9" t="n"/>
       <c r="C143" s="9" t="n"/>
       <c r="D143" s="9" t="n"/>
@@ -24343,7 +24343,7 @@
       <c r="AX143" s="9" t="n"/>
       <c r="AY143" s="9" t="n"/>
     </row>
-    <row r="144" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="144" s="27">
       <c r="B144" s="9" t="n"/>
       <c r="C144" s="9" t="n"/>
       <c r="D144" s="9" t="n"/>
@@ -24395,7 +24395,7 @@
       <c r="AX144" s="9" t="n"/>
       <c r="AY144" s="9" t="n"/>
     </row>
-    <row r="145" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="145" s="27">
       <c r="B145" s="9" t="n"/>
       <c r="C145" s="9" t="n"/>
       <c r="D145" s="9" t="n"/>
@@ -24447,7 +24447,7 @@
       <c r="AX145" s="9" t="n"/>
       <c r="AY145" s="9" t="n"/>
     </row>
-    <row r="146" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="146" s="27">
       <c r="B146" s="9" t="n"/>
       <c r="C146" s="9" t="n"/>
       <c r="D146" s="9" t="n"/>
@@ -24499,7 +24499,7 @@
       <c r="AX146" s="9" t="n"/>
       <c r="AY146" s="9" t="n"/>
     </row>
-    <row r="147" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="147" s="27">
       <c r="B147" s="9" t="n"/>
       <c r="C147" s="9" t="n"/>
       <c r="D147" s="9" t="n"/>
@@ -24551,7 +24551,7 @@
       <c r="AX147" s="9" t="n"/>
       <c r="AY147" s="9" t="n"/>
     </row>
-    <row r="148" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="148" s="27">
       <c r="B148" s="9" t="n"/>
       <c r="C148" s="9" t="n"/>
       <c r="D148" s="9" t="n"/>
@@ -24603,7 +24603,7 @@
       <c r="AX148" s="9" t="n"/>
       <c r="AY148" s="9" t="n"/>
     </row>
-    <row r="149" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="149" s="27">
       <c r="B149" s="9" t="n"/>
       <c r="C149" s="9" t="n"/>
       <c r="D149" s="9" t="n"/>
@@ -24655,7 +24655,7 @@
       <c r="AX149" s="9" t="n"/>
       <c r="AY149" s="9" t="n"/>
     </row>
-    <row r="150" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="150" s="27">
       <c r="B150" s="9" t="n"/>
       <c r="C150" s="9" t="n"/>
       <c r="D150" s="9" t="n"/>
@@ -24707,7 +24707,7 @@
       <c r="AX150" s="9" t="n"/>
       <c r="AY150" s="9" t="n"/>
     </row>
-    <row r="151" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="151" s="27">
       <c r="B151" s="9" t="n"/>
       <c r="C151" s="9" t="n"/>
       <c r="D151" s="9" t="n"/>
@@ -24759,7 +24759,7 @@
       <c r="AX151" s="9" t="n"/>
       <c r="AY151" s="9" t="n"/>
     </row>
-    <row r="152" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="152" s="27">
       <c r="B152" s="9" t="n"/>
       <c r="C152" s="9" t="n"/>
       <c r="D152" s="9" t="n"/>
@@ -24811,7 +24811,7 @@
       <c r="AX152" s="9" t="n"/>
       <c r="AY152" s="9" t="n"/>
     </row>
-    <row r="153" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="153" s="27">
       <c r="B153" s="9" t="n"/>
       <c r="C153" s="9" t="n"/>
       <c r="D153" s="9" t="n"/>
@@ -24863,7 +24863,7 @@
       <c r="AX153" s="9" t="n"/>
       <c r="AY153" s="9" t="n"/>
     </row>
-    <row r="154" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="154" s="27">
       <c r="B154" s="9" t="n"/>
       <c r="C154" s="9" t="n"/>
       <c r="D154" s="9" t="n"/>
@@ -24915,7 +24915,7 @@
       <c r="AX154" s="9" t="n"/>
       <c r="AY154" s="9" t="n"/>
     </row>
-    <row r="155" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="155" s="27">
       <c r="B155" s="9" t="n"/>
       <c r="C155" s="9" t="n"/>
       <c r="D155" s="9" t="n"/>
@@ -24967,7 +24967,7 @@
       <c r="AX155" s="9" t="n"/>
       <c r="AY155" s="9" t="n"/>
     </row>
-    <row r="156" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="156" s="27">
       <c r="B156" s="9" t="n"/>
       <c r="C156" s="9" t="n"/>
       <c r="D156" s="9" t="n"/>
@@ -25019,7 +25019,7 @@
       <c r="AX156" s="9" t="n"/>
       <c r="AY156" s="9" t="n"/>
     </row>
-    <row r="157" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="157" s="27">
       <c r="B157" s="9" t="n"/>
       <c r="C157" s="9" t="n"/>
       <c r="D157" s="9" t="n"/>
@@ -25071,7 +25071,7 @@
       <c r="AX157" s="9" t="n"/>
       <c r="AY157" s="9" t="n"/>
     </row>
-    <row r="158" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="158" s="27">
       <c r="B158" s="9" t="n"/>
       <c r="C158" s="9" t="n"/>
       <c r="D158" s="9" t="n"/>
@@ -25123,7 +25123,7 @@
       <c r="AX158" s="9" t="n"/>
       <c r="AY158" s="9" t="n"/>
     </row>
-    <row r="159" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="159" s="27">
       <c r="B159" s="9" t="n"/>
       <c r="C159" s="9" t="n"/>
       <c r="D159" s="9" t="n"/>
@@ -25175,7 +25175,7 @@
       <c r="AX159" s="9" t="n"/>
       <c r="AY159" s="9" t="n"/>
     </row>
-    <row r="160" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="160" s="27">
       <c r="B160" s="9" t="n"/>
       <c r="C160" s="9" t="n"/>
       <c r="D160" s="9" t="n"/>
@@ -25227,7 +25227,7 @@
       <c r="AX160" s="9" t="n"/>
       <c r="AY160" s="9" t="n"/>
     </row>
-    <row r="161" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="161" s="27">
       <c r="B161" s="9" t="n"/>
       <c r="C161" s="9" t="n"/>
       <c r="D161" s="9" t="n"/>
@@ -25279,7 +25279,7 @@
       <c r="AX161" s="9" t="n"/>
       <c r="AY161" s="9" t="n"/>
     </row>
-    <row r="162" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="162" s="27">
       <c r="B162" s="9" t="n"/>
       <c r="C162" s="9" t="n"/>
       <c r="D162" s="9" t="n"/>
@@ -25331,7 +25331,7 @@
       <c r="AX162" s="9" t="n"/>
       <c r="AY162" s="9" t="n"/>
     </row>
-    <row r="163" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="163" s="27">
       <c r="B163" s="9" t="n"/>
       <c r="C163" s="9" t="n"/>
       <c r="D163" s="9" t="n"/>
@@ -25383,7 +25383,7 @@
       <c r="AX163" s="9" t="n"/>
       <c r="AY163" s="9" t="n"/>
     </row>
-    <row r="164" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="164" s="27">
       <c r="B164" s="9" t="n"/>
       <c r="C164" s="9" t="n"/>
       <c r="D164" s="9" t="n"/>
@@ -25435,7 +25435,7 @@
       <c r="AX164" s="9" t="n"/>
       <c r="AY164" s="9" t="n"/>
     </row>
-    <row r="165" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="165" s="27">
       <c r="B165" s="9" t="n"/>
       <c r="C165" s="9" t="n"/>
       <c r="D165" s="9" t="n"/>
@@ -25487,7 +25487,7 @@
       <c r="AX165" s="9" t="n"/>
       <c r="AY165" s="9" t="n"/>
     </row>
-    <row r="166" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="166" s="27">
       <c r="B166" s="9" t="n"/>
       <c r="C166" s="9" t="n"/>
       <c r="D166" s="9" t="n"/>
@@ -25539,7 +25539,7 @@
       <c r="AX166" s="9" t="n"/>
       <c r="AY166" s="9" t="n"/>
     </row>
-    <row r="167" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="167" s="27">
       <c r="B167" s="9" t="n"/>
       <c r="C167" s="9" t="n"/>
       <c r="D167" s="9" t="n"/>
@@ -25591,7 +25591,7 @@
       <c r="AX167" s="9" t="n"/>
       <c r="AY167" s="9" t="n"/>
     </row>
-    <row r="168" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="168" s="27">
       <c r="B168" s="9" t="n"/>
       <c r="C168" s="9" t="n"/>
       <c r="D168" s="9" t="n"/>
@@ -25643,7 +25643,7 @@
       <c r="AX168" s="9" t="n"/>
       <c r="AY168" s="9" t="n"/>
     </row>
-    <row r="169" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="169" s="27">
       <c r="B169" s="9" t="n"/>
       <c r="C169" s="9" t="n"/>
       <c r="D169" s="9" t="n"/>
@@ -25695,7 +25695,7 @@
       <c r="AX169" s="9" t="n"/>
       <c r="AY169" s="9" t="n"/>
     </row>
-    <row r="170" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="170" s="27">
       <c r="B170" s="9" t="n"/>
       <c r="C170" s="9" t="n"/>
       <c r="D170" s="9" t="n"/>
@@ -25747,7 +25747,7 @@
       <c r="AX170" s="9" t="n"/>
       <c r="AY170" s="9" t="n"/>
     </row>
-    <row r="171" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="171" s="27">
       <c r="B171" s="9" t="n"/>
       <c r="C171" s="9" t="n"/>
       <c r="D171" s="9" t="n"/>
@@ -25799,7 +25799,7 @@
       <c r="AX171" s="9" t="n"/>
       <c r="AY171" s="9" t="n"/>
     </row>
-    <row r="172" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="172" s="27">
       <c r="B172" s="9" t="n"/>
       <c r="C172" s="9" t="n"/>
       <c r="D172" s="9" t="n"/>
@@ -25851,7 +25851,7 @@
       <c r="AX172" s="9" t="n"/>
       <c r="AY172" s="9" t="n"/>
     </row>
-    <row r="173" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="173" s="27">
       <c r="B173" s="9" t="n"/>
       <c r="C173" s="9" t="n"/>
       <c r="D173" s="9" t="n"/>
@@ -25903,7 +25903,7 @@
       <c r="AX173" s="9" t="n"/>
       <c r="AY173" s="9" t="n"/>
     </row>
-    <row r="174" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="174" s="27">
       <c r="B174" s="9" t="n"/>
       <c r="C174" s="9" t="n"/>
       <c r="D174" s="9" t="n"/>
@@ -25955,7 +25955,7 @@
       <c r="AX174" s="9" t="n"/>
       <c r="AY174" s="9" t="n"/>
     </row>
-    <row r="175" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="175" s="27">
       <c r="B175" s="9" t="n"/>
       <c r="C175" s="9" t="n"/>
       <c r="D175" s="9" t="n"/>
@@ -26007,7 +26007,7 @@
       <c r="AX175" s="9" t="n"/>
       <c r="AY175" s="9" t="n"/>
     </row>
-    <row r="176" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="176" s="27">
       <c r="B176" s="9" t="n"/>
       <c r="C176" s="9" t="n"/>
       <c r="D176" s="9" t="n"/>
@@ -26059,7 +26059,7 @@
       <c r="AX176" s="9" t="n"/>
       <c r="AY176" s="9" t="n"/>
     </row>
-    <row r="177" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="177" s="27">
       <c r="B177" s="9" t="n"/>
       <c r="C177" s="9" t="n"/>
       <c r="D177" s="9" t="n"/>
@@ -26111,7 +26111,7 @@
       <c r="AX177" s="9" t="n"/>
       <c r="AY177" s="9" t="n"/>
     </row>
-    <row r="178" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="178" s="27">
       <c r="B178" s="9" t="n"/>
       <c r="C178" s="9" t="n"/>
       <c r="D178" s="9" t="n"/>
@@ -26163,7 +26163,7 @@
       <c r="AX178" s="9" t="n"/>
       <c r="AY178" s="9" t="n"/>
     </row>
-    <row r="179" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="179" s="27">
       <c r="B179" s="9" t="n"/>
       <c r="C179" s="9" t="n"/>
       <c r="D179" s="9" t="n"/>
@@ -26215,7 +26215,7 @@
       <c r="AX179" s="9" t="n"/>
       <c r="AY179" s="9" t="n"/>
     </row>
-    <row r="180" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="180" s="27">
       <c r="B180" s="9" t="n"/>
       <c r="C180" s="9" t="n"/>
       <c r="D180" s="9" t="n"/>
@@ -26267,7 +26267,7 @@
       <c r="AX180" s="9" t="n"/>
       <c r="AY180" s="9" t="n"/>
     </row>
-    <row r="181" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="181" s="27">
       <c r="B181" s="9" t="n"/>
       <c r="C181" s="9" t="n"/>
       <c r="D181" s="9" t="n"/>
@@ -26319,7 +26319,7 @@
       <c r="AX181" s="9" t="n"/>
       <c r="AY181" s="9" t="n"/>
     </row>
-    <row r="182" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="182" s="27">
       <c r="B182" s="9" t="n"/>
       <c r="C182" s="9" t="n"/>
       <c r="D182" s="9" t="n"/>
@@ -26371,7 +26371,7 @@
       <c r="AX182" s="9" t="n"/>
       <c r="AY182" s="9" t="n"/>
     </row>
-    <row r="183" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="183" s="27">
       <c r="B183" s="9" t="n"/>
       <c r="C183" s="9" t="n"/>
       <c r="D183" s="9" t="n"/>
@@ -26423,7 +26423,7 @@
       <c r="AX183" s="9" t="n"/>
       <c r="AY183" s="9" t="n"/>
     </row>
-    <row r="184" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="184" s="27">
       <c r="B184" s="9" t="n"/>
       <c r="C184" s="9" t="n"/>
       <c r="D184" s="9" t="n"/>
@@ -26475,7 +26475,7 @@
       <c r="AX184" s="9" t="n"/>
       <c r="AY184" s="9" t="n"/>
     </row>
-    <row r="185" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="185" s="27">
       <c r="B185" s="9" t="n"/>
       <c r="C185" s="9" t="n"/>
       <c r="D185" s="9" t="n"/>
@@ -26527,7 +26527,7 @@
       <c r="AX185" s="9" t="n"/>
       <c r="AY185" s="9" t="n"/>
     </row>
-    <row r="186" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="186" s="27">
       <c r="B186" s="9" t="n"/>
       <c r="C186" s="9" t="n"/>
       <c r="D186" s="9" t="n"/>
@@ -26579,7 +26579,7 @@
       <c r="AX186" s="9" t="n"/>
       <c r="AY186" s="9" t="n"/>
     </row>
-    <row r="187" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="187" s="27">
       <c r="B187" s="9" t="n"/>
       <c r="C187" s="9" t="n"/>
       <c r="D187" s="9" t="n"/>
@@ -26631,7 +26631,7 @@
       <c r="AX187" s="9" t="n"/>
       <c r="AY187" s="9" t="n"/>
     </row>
-    <row r="188" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="188" s="27">
       <c r="B188" s="9" t="n"/>
       <c r="C188" s="9" t="n"/>
       <c r="D188" s="9" t="n"/>
@@ -26683,7 +26683,7 @@
       <c r="AX188" s="9" t="n"/>
       <c r="AY188" s="9" t="n"/>
     </row>
-    <row r="189" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="189" s="27">
       <c r="B189" s="9" t="n"/>
       <c r="C189" s="9" t="n"/>
       <c r="D189" s="9" t="n"/>
@@ -26735,7 +26735,7 @@
       <c r="AX189" s="9" t="n"/>
       <c r="AY189" s="9" t="n"/>
     </row>
-    <row r="190" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="190" s="27">
       <c r="B190" s="9" t="n"/>
       <c r="C190" s="9" t="n"/>
       <c r="D190" s="9" t="n"/>
@@ -26787,7 +26787,7 @@
       <c r="AX190" s="9" t="n"/>
       <c r="AY190" s="9" t="n"/>
     </row>
-    <row r="191" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="191" s="27">
       <c r="B191" s="9" t="n"/>
       <c r="C191" s="9" t="n"/>
       <c r="D191" s="9" t="n"/>
@@ -26839,7 +26839,7 @@
       <c r="AX191" s="9" t="n"/>
       <c r="AY191" s="9" t="n"/>
     </row>
-    <row r="192" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="192" s="27">
       <c r="B192" s="9" t="n"/>
       <c r="C192" s="9" t="n"/>
       <c r="D192" s="9" t="n"/>
@@ -26891,7 +26891,7 @@
       <c r="AX192" s="9" t="n"/>
       <c r="AY192" s="9" t="n"/>
     </row>
-    <row r="193" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="193" s="27">
       <c r="B193" s="9" t="n"/>
       <c r="C193" s="9" t="n"/>
       <c r="D193" s="9" t="n"/>
@@ -26943,7 +26943,7 @@
       <c r="AX193" s="9" t="n"/>
       <c r="AY193" s="9" t="n"/>
     </row>
-    <row r="194" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="194" s="27">
       <c r="B194" s="9" t="n"/>
       <c r="C194" s="9" t="n"/>
       <c r="D194" s="9" t="n"/>
@@ -26995,7 +26995,7 @@
       <c r="AX194" s="9" t="n"/>
       <c r="AY194" s="9" t="n"/>
     </row>
-    <row r="195" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="195" s="27">
       <c r="B195" s="9" t="n"/>
       <c r="C195" s="9" t="n"/>
       <c r="D195" s="9" t="n"/>
@@ -27047,7 +27047,7 @@
       <c r="AX195" s="9" t="n"/>
       <c r="AY195" s="9" t="n"/>
     </row>
-    <row r="196" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="196" s="27">
       <c r="B196" s="9" t="n"/>
       <c r="C196" s="9" t="n"/>
       <c r="D196" s="9" t="n"/>
@@ -27099,7 +27099,7 @@
       <c r="AX196" s="9" t="n"/>
       <c r="AY196" s="9" t="n"/>
     </row>
-    <row r="197" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="197" s="27">
       <c r="B197" s="9" t="n"/>
       <c r="C197" s="9" t="n"/>
       <c r="D197" s="9" t="n"/>
@@ -27151,7 +27151,7 @@
       <c r="AX197" s="9" t="n"/>
       <c r="AY197" s="9" t="n"/>
     </row>
-    <row r="198" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="198" s="27">
       <c r="B198" s="9" t="n"/>
       <c r="C198" s="9" t="n"/>
       <c r="D198" s="9" t="n"/>
@@ -27203,7 +27203,7 @@
       <c r="AX198" s="9" t="n"/>
       <c r="AY198" s="9" t="n"/>
     </row>
-    <row r="199" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="199" s="27">
       <c r="B199" s="9" t="n"/>
       <c r="C199" s="9" t="n"/>
       <c r="D199" s="9" t="n"/>
@@ -27255,7 +27255,7 @@
       <c r="AX199" s="9" t="n"/>
       <c r="AY199" s="9" t="n"/>
     </row>
-    <row r="200" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="200" s="27">
       <c r="B200" s="9" t="n"/>
       <c r="C200" s="9" t="n"/>
       <c r="D200" s="9" t="n"/>
@@ -27307,7 +27307,7 @@
       <c r="AX200" s="9" t="n"/>
       <c r="AY200" s="9" t="n"/>
     </row>
-    <row r="201" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="201" s="27">
       <c r="B201" s="9" t="n"/>
       <c r="C201" s="9" t="n"/>
       <c r="D201" s="9" t="n"/>
@@ -27359,7 +27359,7 @@
       <c r="AX201" s="9" t="n"/>
       <c r="AY201" s="9" t="n"/>
     </row>
-    <row r="202" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="202" s="27">
       <c r="B202" s="9" t="n"/>
       <c r="C202" s="9" t="n"/>
       <c r="D202" s="9" t="n"/>
@@ -27411,7 +27411,7 @@
       <c r="AX202" s="9" t="n"/>
       <c r="AY202" s="9" t="n"/>
     </row>
-    <row r="203" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="203" s="27">
       <c r="B203" s="9" t="n"/>
       <c r="C203" s="9" t="n"/>
       <c r="D203" s="9" t="n"/>
@@ -27463,7 +27463,7 @@
       <c r="AX203" s="9" t="n"/>
       <c r="AY203" s="9" t="n"/>
     </row>
-    <row r="204" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="204" s="27">
       <c r="B204" s="9" t="n"/>
       <c r="C204" s="9" t="n"/>
       <c r="D204" s="9" t="n"/>
@@ -27515,7 +27515,7 @@
       <c r="AX204" s="9" t="n"/>
       <c r="AY204" s="9" t="n"/>
     </row>
-    <row r="205" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="205" s="27">
       <c r="B205" s="9" t="n"/>
       <c r="C205" s="9" t="n"/>
       <c r="D205" s="9" t="n"/>
@@ -27567,7 +27567,7 @@
       <c r="AX205" s="9" t="n"/>
       <c r="AY205" s="9" t="n"/>
     </row>
-    <row r="206" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="206" s="27">
       <c r="B206" s="9" t="n"/>
       <c r="C206" s="9" t="n"/>
       <c r="D206" s="9" t="n"/>
@@ -27619,7 +27619,7 @@
       <c r="AX206" s="9" t="n"/>
       <c r="AY206" s="9" t="n"/>
     </row>
-    <row r="207" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="207" s="27">
       <c r="B207" s="9" t="n"/>
       <c r="C207" s="9" t="n"/>
       <c r="D207" s="9" t="n"/>
@@ -27671,7 +27671,7 @@
       <c r="AX207" s="9" t="n"/>
       <c r="AY207" s="9" t="n"/>
     </row>
-    <row r="208" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="208" s="27">
       <c r="B208" s="9" t="n"/>
       <c r="C208" s="9" t="n"/>
       <c r="D208" s="9" t="n"/>
@@ -27723,7 +27723,7 @@
       <c r="AX208" s="9" t="n"/>
       <c r="AY208" s="9" t="n"/>
     </row>
-    <row r="209" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="209" s="27">
       <c r="B209" s="9" t="n"/>
       <c r="C209" s="9" t="n"/>
       <c r="D209" s="9" t="n"/>
@@ -27775,7 +27775,7 @@
       <c r="AX209" s="9" t="n"/>
       <c r="AY209" s="9" t="n"/>
     </row>
-    <row r="210" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="210" s="27">
       <c r="B210" s="9" t="n"/>
       <c r="C210" s="9" t="n"/>
       <c r="D210" s="9" t="n"/>
@@ -27827,7 +27827,7 @@
       <c r="AX210" s="9" t="n"/>
       <c r="AY210" s="9" t="n"/>
     </row>
-    <row r="211" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="211" s="27">
       <c r="B211" s="9" t="n"/>
       <c r="C211" s="9" t="n"/>
       <c r="D211" s="9" t="n"/>
@@ -27879,7 +27879,7 @@
       <c r="AX211" s="9" t="n"/>
       <c r="AY211" s="9" t="n"/>
     </row>
-    <row r="212" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="212" s="27">
       <c r="B212" s="9" t="n"/>
       <c r="C212" s="9" t="n"/>
       <c r="D212" s="9" t="n"/>
@@ -27931,7 +27931,7 @@
       <c r="AX212" s="9" t="n"/>
       <c r="AY212" s="9" t="n"/>
     </row>
-    <row r="213" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="213" s="27">
       <c r="B213" s="9" t="n"/>
       <c r="C213" s="9" t="n"/>
       <c r="D213" s="9" t="n"/>
@@ -27983,7 +27983,7 @@
       <c r="AX213" s="9" t="n"/>
       <c r="AY213" s="9" t="n"/>
     </row>
-    <row r="214" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="214" s="27">
       <c r="B214" s="9" t="n"/>
       <c r="C214" s="9" t="n"/>
       <c r="D214" s="9" t="n"/>
@@ -28035,7 +28035,7 @@
       <c r="AX214" s="9" t="n"/>
       <c r="AY214" s="9" t="n"/>
     </row>
-    <row r="215" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="215" s="27">
       <c r="B215" s="9" t="n"/>
       <c r="C215" s="9" t="n"/>
       <c r="D215" s="9" t="n"/>
@@ -28087,7 +28087,7 @@
       <c r="AX215" s="9" t="n"/>
       <c r="AY215" s="9" t="n"/>
     </row>
-    <row r="216" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="216" s="27">
       <c r="B216" s="9" t="n"/>
       <c r="C216" s="9" t="n"/>
       <c r="D216" s="9" t="n"/>
@@ -28139,7 +28139,7 @@
       <c r="AX216" s="9" t="n"/>
       <c r="AY216" s="9" t="n"/>
     </row>
-    <row r="217" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="217" s="27">
       <c r="B217" s="9" t="n"/>
       <c r="C217" s="9" t="n"/>
       <c r="D217" s="9" t="n"/>
@@ -28191,7 +28191,7 @@
       <c r="AX217" s="9" t="n"/>
       <c r="AY217" s="9" t="n"/>
     </row>
-    <row r="218" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="218" s="27">
       <c r="B218" s="9" t="n"/>
       <c r="C218" s="9" t="n"/>
       <c r="D218" s="9" t="n"/>
@@ -28243,7 +28243,7 @@
       <c r="AX218" s="9" t="n"/>
       <c r="AY218" s="9" t="n"/>
     </row>
-    <row r="219" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="219" s="27">
       <c r="B219" s="9" t="n"/>
       <c r="C219" s="9" t="n"/>
       <c r="D219" s="9" t="n"/>
@@ -28295,7 +28295,7 @@
       <c r="AX219" s="9" t="n"/>
       <c r="AY219" s="9" t="n"/>
     </row>
-    <row r="220" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="220" s="27">
       <c r="B220" s="9" t="n"/>
       <c r="C220" s="9" t="n"/>
       <c r="D220" s="9" t="n"/>
@@ -28347,7 +28347,7 @@
       <c r="AX220" s="9" t="n"/>
       <c r="AY220" s="9" t="n"/>
     </row>
-    <row r="221" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="221" s="27">
       <c r="B221" s="9" t="n"/>
       <c r="C221" s="9" t="n"/>
       <c r="D221" s="9" t="n"/>
@@ -28399,7 +28399,7 @@
       <c r="AX221" s="9" t="n"/>
       <c r="AY221" s="9" t="n"/>
     </row>
-    <row r="222" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="222" s="27">
       <c r="B222" s="9" t="n"/>
       <c r="C222" s="9" t="n"/>
       <c r="D222" s="9" t="n"/>
@@ -28451,7 +28451,7 @@
       <c r="AX222" s="9" t="n"/>
       <c r="AY222" s="9" t="n"/>
     </row>
-    <row r="223" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="223" s="27">
       <c r="B223" s="9" t="n"/>
       <c r="C223" s="9" t="n"/>
       <c r="D223" s="9" t="n"/>
@@ -28503,7 +28503,7 @@
       <c r="AX223" s="9" t="n"/>
       <c r="AY223" s="9" t="n"/>
     </row>
-    <row r="224" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="224" s="27">
       <c r="B224" s="9" t="n"/>
       <c r="C224" s="9" t="n"/>
       <c r="D224" s="9" t="n"/>
@@ -28555,7 +28555,7 @@
       <c r="AX224" s="9" t="n"/>
       <c r="AY224" s="9" t="n"/>
     </row>
-    <row r="225" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="225" s="27">
       <c r="B225" s="9" t="n"/>
       <c r="C225" s="9" t="n"/>
       <c r="D225" s="9" t="n"/>
@@ -28607,7 +28607,7 @@
       <c r="AX225" s="9" t="n"/>
       <c r="AY225" s="9" t="n"/>
     </row>
-    <row r="226" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="226" s="27">
       <c r="B226" s="9" t="n"/>
       <c r="C226" s="9" t="n"/>
       <c r="D226" s="9" t="n"/>
@@ -28659,7 +28659,7 @@
       <c r="AX226" s="9" t="n"/>
       <c r="AY226" s="9" t="n"/>
     </row>
-    <row r="227" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="227" s="27">
       <c r="B227" s="9" t="n"/>
       <c r="C227" s="9" t="n"/>
       <c r="D227" s="9" t="n"/>
@@ -28711,7 +28711,7 @@
       <c r="AX227" s="9" t="n"/>
       <c r="AY227" s="9" t="n"/>
     </row>
-    <row r="228" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="228" s="27">
       <c r="B228" s="9" t="n"/>
       <c r="C228" s="9" t="n"/>
       <c r="D228" s="9" t="n"/>
@@ -28763,7 +28763,7 @@
       <c r="AX228" s="9" t="n"/>
       <c r="AY228" s="9" t="n"/>
     </row>
-    <row r="229" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="229" s="27">
       <c r="B229" s="9" t="n"/>
       <c r="C229" s="9" t="n"/>
       <c r="D229" s="9" t="n"/>
@@ -28815,7 +28815,7 @@
       <c r="AX229" s="9" t="n"/>
       <c r="AY229" s="9" t="n"/>
     </row>
-    <row r="230" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="230" s="27">
       <c r="B230" s="9" t="n"/>
       <c r="C230" s="9" t="n"/>
       <c r="D230" s="9" t="n"/>
@@ -28867,7 +28867,7 @@
       <c r="AX230" s="9" t="n"/>
       <c r="AY230" s="9" t="n"/>
     </row>
-    <row r="231" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="231" s="27">
       <c r="B231" s="9" t="n"/>
       <c r="C231" s="9" t="n"/>
       <c r="D231" s="9" t="n"/>
@@ -28919,7 +28919,7 @@
       <c r="AX231" s="9" t="n"/>
       <c r="AY231" s="9" t="n"/>
     </row>
-    <row r="232" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="232" s="27">
       <c r="B232" s="9" t="n"/>
       <c r="C232" s="9" t="n"/>
       <c r="D232" s="9" t="n"/>
@@ -28971,7 +28971,7 @@
       <c r="AX232" s="9" t="n"/>
       <c r="AY232" s="9" t="n"/>
     </row>
-    <row r="233" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="233" s="27">
       <c r="B233" s="9" t="n"/>
       <c r="C233" s="9" t="n"/>
       <c r="D233" s="9" t="n"/>
@@ -29023,7 +29023,7 @@
       <c r="AX233" s="9" t="n"/>
       <c r="AY233" s="9" t="n"/>
     </row>
-    <row r="234" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="234" s="27">
       <c r="B234" s="9" t="n"/>
       <c r="C234" s="9" t="n"/>
       <c r="D234" s="9" t="n"/>
@@ -29075,7 +29075,7 @@
       <c r="AX234" s="9" t="n"/>
       <c r="AY234" s="9" t="n"/>
     </row>
-    <row r="235" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="235" s="27">
       <c r="B235" s="9" t="n"/>
       <c r="C235" s="9" t="n"/>
       <c r="D235" s="9" t="n"/>
@@ -29127,7 +29127,7 @@
       <c r="AX235" s="9" t="n"/>
       <c r="AY235" s="9" t="n"/>
     </row>
-    <row r="236" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="236" s="27">
       <c r="B236" s="9" t="n"/>
       <c r="C236" s="9" t="n"/>
       <c r="D236" s="9" t="n"/>
@@ -29179,7 +29179,7 @@
       <c r="AX236" s="9" t="n"/>
       <c r="AY236" s="9" t="n"/>
     </row>
-    <row r="237" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="237" s="27">
       <c r="B237" s="9" t="n"/>
       <c r="C237" s="9" t="n"/>
       <c r="D237" s="9" t="n"/>
@@ -29231,7 +29231,7 @@
       <c r="AX237" s="9" t="n"/>
       <c r="AY237" s="9" t="n"/>
     </row>
-    <row r="238" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="238" s="27">
       <c r="B238" s="9" t="n"/>
       <c r="C238" s="9" t="n"/>
       <c r="D238" s="9" t="n"/>
@@ -29283,7 +29283,7 @@
       <c r="AX238" s="9" t="n"/>
       <c r="AY238" s="9" t="n"/>
     </row>
-    <row r="239" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="239" s="27">
       <c r="B239" s="9" t="n"/>
       <c r="C239" s="9" t="n"/>
       <c r="D239" s="9" t="n"/>
@@ -29335,7 +29335,7 @@
       <c r="AX239" s="9" t="n"/>
       <c r="AY239" s="9" t="n"/>
     </row>
-    <row r="240" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="240" s="27">
       <c r="B240" s="9" t="n"/>
       <c r="C240" s="9" t="n"/>
       <c r="D240" s="9" t="n"/>
@@ -29387,7 +29387,7 @@
       <c r="AX240" s="9" t="n"/>
       <c r="AY240" s="9" t="n"/>
     </row>
-    <row r="241" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="241" s="27">
       <c r="B241" s="9" t="n"/>
       <c r="C241" s="9" t="n"/>
       <c r="D241" s="9" t="n"/>
@@ -29439,7 +29439,7 @@
       <c r="AX241" s="9" t="n"/>
       <c r="AY241" s="9" t="n"/>
     </row>
-    <row r="242" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="242" s="27">
       <c r="B242" s="9" t="n"/>
       <c r="C242" s="9" t="n"/>
       <c r="D242" s="9" t="n"/>
@@ -29491,7 +29491,7 @@
       <c r="AX242" s="9" t="n"/>
       <c r="AY242" s="9" t="n"/>
     </row>
-    <row r="243" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="243" s="27">
       <c r="B243" s="9" t="n"/>
       <c r="C243" s="9" t="n"/>
       <c r="D243" s="9" t="n"/>
@@ -29543,7 +29543,7 @@
       <c r="AX243" s="9" t="n"/>
       <c r="AY243" s="9" t="n"/>
     </row>
-    <row r="244" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="244" s="27">
       <c r="B244" s="9" t="n"/>
       <c r="C244" s="9" t="n"/>
       <c r="D244" s="9" t="n"/>
@@ -29595,7 +29595,7 @@
       <c r="AX244" s="9" t="n"/>
       <c r="AY244" s="9" t="n"/>
     </row>
-    <row r="245" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="245" s="27">
       <c r="B245" s="9" t="n"/>
       <c r="C245" s="9" t="n"/>
       <c r="D245" s="9" t="n"/>
@@ -29647,7 +29647,7 @@
       <c r="AX245" s="9" t="n"/>
       <c r="AY245" s="9" t="n"/>
     </row>
-    <row r="246" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="246" s="27">
       <c r="B246" s="9" t="n"/>
       <c r="C246" s="9" t="n"/>
       <c r="D246" s="9" t="n"/>
@@ -29699,7 +29699,7 @@
       <c r="AX246" s="9" t="n"/>
       <c r="AY246" s="9" t="n"/>
     </row>
-    <row r="247" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="247" s="27">
       <c r="B247" s="9" t="n"/>
       <c r="C247" s="9" t="n"/>
       <c r="D247" s="9" t="n"/>
@@ -29751,7 +29751,7 @@
       <c r="AX247" s="9" t="n"/>
       <c r="AY247" s="9" t="n"/>
     </row>
-    <row r="248" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="248" s="27">
       <c r="B248" s="9" t="n"/>
       <c r="C248" s="9" t="n"/>
       <c r="D248" s="9" t="n"/>
@@ -29803,7 +29803,7 @@
       <c r="AX248" s="9" t="n"/>
       <c r="AY248" s="9" t="n"/>
     </row>
-    <row r="249" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="249" s="27">
       <c r="B249" s="9" t="n"/>
       <c r="C249" s="9" t="n"/>
       <c r="D249" s="9" t="n"/>
@@ -29855,7 +29855,7 @@
       <c r="AX249" s="9" t="n"/>
       <c r="AY249" s="9" t="n"/>
     </row>
-    <row r="250" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="250" s="27">
       <c r="B250" s="9" t="n"/>
       <c r="C250" s="9" t="n"/>
       <c r="D250" s="9" t="n"/>
@@ -29907,7 +29907,7 @@
       <c r="AX250" s="9" t="n"/>
       <c r="AY250" s="9" t="n"/>
     </row>
-    <row r="251" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="251" s="27">
       <c r="B251" s="9" t="n"/>
       <c r="C251" s="9" t="n"/>
       <c r="D251" s="9" t="n"/>
@@ -29959,7 +29959,7 @@
       <c r="AX251" s="9" t="n"/>
       <c r="AY251" s="9" t="n"/>
     </row>
-    <row r="252" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="252" s="27">
       <c r="B252" s="9" t="n"/>
       <c r="C252" s="9" t="n"/>
       <c r="D252" s="9" t="n"/>
@@ -30011,7 +30011,7 @@
       <c r="AX252" s="9" t="n"/>
       <c r="AY252" s="9" t="n"/>
     </row>
-    <row r="253" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="253" s="27">
       <c r="B253" s="9" t="n"/>
       <c r="C253" s="9" t="n"/>
       <c r="D253" s="9" t="n"/>
@@ -30063,7 +30063,7 @@
       <c r="AX253" s="9" t="n"/>
       <c r="AY253" s="9" t="n"/>
     </row>
-    <row r="254" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="254" s="27">
       <c r="B254" s="9" t="n"/>
       <c r="C254" s="9" t="n"/>
       <c r="D254" s="9" t="n"/>
@@ -30115,7 +30115,7 @@
       <c r="AX254" s="9" t="n"/>
       <c r="AY254" s="9" t="n"/>
     </row>
-    <row r="255" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="255" s="27">
       <c r="B255" s="9" t="n"/>
       <c r="C255" s="9" t="n"/>
       <c r="D255" s="9" t="n"/>
@@ -30167,7 +30167,7 @@
       <c r="AX255" s="9" t="n"/>
       <c r="AY255" s="9" t="n"/>
     </row>
-    <row r="256" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="256" s="27">
       <c r="B256" s="9" t="n"/>
       <c r="C256" s="9" t="n"/>
       <c r="D256" s="9" t="n"/>
@@ -30219,7 +30219,7 @@
       <c r="AX256" s="9" t="n"/>
       <c r="AY256" s="9" t="n"/>
     </row>
-    <row r="257" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="257" s="27">
       <c r="B257" s="9" t="n"/>
       <c r="C257" s="9" t="n"/>
       <c r="D257" s="9" t="n"/>
@@ -30271,7 +30271,7 @@
       <c r="AX257" s="9" t="n"/>
       <c r="AY257" s="9" t="n"/>
     </row>
-    <row r="258" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="258" s="27">
       <c r="B258" s="9" t="n"/>
       <c r="C258" s="9" t="n"/>
       <c r="D258" s="9" t="n"/>
@@ -30323,7 +30323,7 @@
       <c r="AX258" s="9" t="n"/>
       <c r="AY258" s="9" t="n"/>
     </row>
-    <row r="259" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="259" s="27">
       <c r="B259" s="9" t="n"/>
       <c r="C259" s="9" t="n"/>
       <c r="D259" s="9" t="n"/>
@@ -30375,7 +30375,7 @@
       <c r="AX259" s="9" t="n"/>
       <c r="AY259" s="9" t="n"/>
     </row>
-    <row r="260" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="260" s="27">
       <c r="B260" s="9" t="n"/>
       <c r="C260" s="9" t="n"/>
       <c r="D260" s="9" t="n"/>
@@ -30427,7 +30427,7 @@
       <c r="AX260" s="9" t="n"/>
       <c r="AY260" s="9" t="n"/>
     </row>
-    <row r="261" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="261" s="27">
       <c r="B261" s="9" t="n"/>
       <c r="C261" s="9" t="n"/>
       <c r="D261" s="9" t="n"/>
@@ -30479,7 +30479,7 @@
       <c r="AX261" s="9" t="n"/>
       <c r="AY261" s="9" t="n"/>
     </row>
-    <row r="262" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="262" s="27">
       <c r="B262" s="9" t="n"/>
       <c r="C262" s="9" t="n"/>
       <c r="D262" s="9" t="n"/>
@@ -30531,7 +30531,7 @@
       <c r="AX262" s="9" t="n"/>
       <c r="AY262" s="9" t="n"/>
     </row>
-    <row r="263" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="263" s="27">
       <c r="B263" s="9" t="n"/>
       <c r="C263" s="9" t="n"/>
       <c r="D263" s="9" t="n"/>
@@ -30583,7 +30583,7 @@
       <c r="AX263" s="9" t="n"/>
       <c r="AY263" s="9" t="n"/>
     </row>
-    <row r="264" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="264" s="27">
       <c r="B264" s="9" t="n"/>
       <c r="C264" s="9" t="n"/>
       <c r="D264" s="9" t="n"/>
@@ -30635,7 +30635,7 @@
       <c r="AX264" s="9" t="n"/>
       <c r="AY264" s="9" t="n"/>
     </row>
-    <row r="265" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="265" s="27">
       <c r="B265" s="9" t="n"/>
       <c r="C265" s="9" t="n"/>
       <c r="D265" s="9" t="n"/>
@@ -30687,7 +30687,7 @@
       <c r="AX265" s="9" t="n"/>
       <c r="AY265" s="9" t="n"/>
     </row>
-    <row r="266" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="266" s="27">
       <c r="B266" s="9" t="n"/>
       <c r="C266" s="9" t="n"/>
       <c r="D266" s="9" t="n"/>
@@ -30739,7 +30739,7 @@
       <c r="AX266" s="9" t="n"/>
       <c r="AY266" s="9" t="n"/>
     </row>
-    <row r="267" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="267" s="27">
       <c r="B267" s="9" t="n"/>
       <c r="C267" s="9" t="n"/>
       <c r="D267" s="9" t="n"/>
@@ -30791,7 +30791,7 @@
       <c r="AX267" s="9" t="n"/>
       <c r="AY267" s="9" t="n"/>
     </row>
-    <row r="268" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="268" s="27">
       <c r="B268" s="9" t="n"/>
       <c r="C268" s="9" t="n"/>
       <c r="D268" s="9" t="n"/>
@@ -30843,7 +30843,7 @@
       <c r="AX268" s="9" t="n"/>
       <c r="AY268" s="9" t="n"/>
     </row>
-    <row r="269" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="269" s="27">
       <c r="B269" s="9" t="n"/>
       <c r="C269" s="9" t="n"/>
       <c r="D269" s="9" t="n"/>
@@ -30895,7 +30895,7 @@
       <c r="AX269" s="9" t="n"/>
       <c r="AY269" s="9" t="n"/>
     </row>
-    <row r="270" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="270" s="27">
       <c r="B270" s="9" t="n"/>
       <c r="C270" s="9" t="n"/>
       <c r="D270" s="9" t="n"/>
@@ -30947,7 +30947,7 @@
       <c r="AX270" s="9" t="n"/>
       <c r="AY270" s="9" t="n"/>
     </row>
-    <row r="271" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="271" s="27">
       <c r="B271" s="9" t="n"/>
       <c r="C271" s="9" t="n"/>
       <c r="D271" s="9" t="n"/>
@@ -30999,7 +30999,7 @@
       <c r="AX271" s="9" t="n"/>
       <c r="AY271" s="9" t="n"/>
     </row>
-    <row r="272" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="272" s="27">
       <c r="B272" s="9" t="n"/>
       <c r="C272" s="9" t="n"/>
       <c r="D272" s="9" t="n"/>
@@ -31051,7 +31051,7 @@
       <c r="AX272" s="9" t="n"/>
       <c r="AY272" s="9" t="n"/>
     </row>
-    <row r="273" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="273" s="27">
       <c r="B273" s="9" t="n"/>
       <c r="C273" s="9" t="n"/>
       <c r="D273" s="9" t="n"/>
@@ -31103,7 +31103,7 @@
       <c r="AX273" s="9" t="n"/>
       <c r="AY273" s="9" t="n"/>
     </row>
-    <row r="274" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="274" s="27">
       <c r="B274" s="9" t="n"/>
       <c r="C274" s="9" t="n"/>
       <c r="D274" s="9" t="n"/>
@@ -31155,7 +31155,7 @@
       <c r="AX274" s="9" t="n"/>
       <c r="AY274" s="9" t="n"/>
     </row>
-    <row r="275" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="275" s="27">
       <c r="B275" s="9" t="n"/>
       <c r="C275" s="9" t="n"/>
       <c r="D275" s="9" t="n"/>
@@ -31207,7 +31207,7 @@
       <c r="AX275" s="9" t="n"/>
       <c r="AY275" s="9" t="n"/>
     </row>
-    <row r="276" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="276" s="27">
       <c r="B276" s="9" t="n"/>
       <c r="C276" s="9" t="n"/>
       <c r="D276" s="9" t="n"/>
@@ -31259,7 +31259,7 @@
       <c r="AX276" s="9" t="n"/>
       <c r="AY276" s="9" t="n"/>
     </row>
-    <row r="277" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="277" s="27">
       <c r="B277" s="9" t="n"/>
       <c r="C277" s="9" t="n"/>
       <c r="D277" s="9" t="n"/>
@@ -31311,7 +31311,7 @@
       <c r="AX277" s="9" t="n"/>
       <c r="AY277" s="9" t="n"/>
     </row>
-    <row r="278" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="278" s="27">
       <c r="B278" s="9" t="n"/>
       <c r="C278" s="9" t="n"/>
       <c r="D278" s="9" t="n"/>
@@ -31363,7 +31363,7 @@
       <c r="AX278" s="9" t="n"/>
       <c r="AY278" s="9" t="n"/>
     </row>
-    <row r="279" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="279" s="27">
       <c r="B279" s="9" t="n"/>
       <c r="C279" s="9" t="n"/>
       <c r="D279" s="9" t="n"/>
@@ -31415,7 +31415,7 @@
       <c r="AX279" s="9" t="n"/>
       <c r="AY279" s="9" t="n"/>
     </row>
-    <row r="280" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="280" s="27">
       <c r="B280" s="9" t="n"/>
       <c r="C280" s="9" t="n"/>
       <c r="D280" s="9" t="n"/>
@@ -31467,7 +31467,7 @@
       <c r="AX280" s="9" t="n"/>
       <c r="AY280" s="9" t="n"/>
     </row>
-    <row r="281" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="281" s="27">
       <c r="B281" s="9" t="n"/>
       <c r="C281" s="9" t="n"/>
       <c r="D281" s="9" t="n"/>
@@ -31519,7 +31519,7 @@
       <c r="AX281" s="9" t="n"/>
       <c r="AY281" s="9" t="n"/>
     </row>
-    <row r="282" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="282" s="27">
       <c r="B282" s="9" t="n"/>
       <c r="C282" s="9" t="n"/>
       <c r="D282" s="9" t="n"/>
@@ -31571,7 +31571,7 @@
       <c r="AX282" s="9" t="n"/>
       <c r="AY282" s="9" t="n"/>
     </row>
-    <row r="283" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="283" s="27">
       <c r="B283" s="9" t="n"/>
       <c r="C283" s="9" t="n"/>
       <c r="D283" s="9" t="n"/>
@@ -31623,7 +31623,7 @@
       <c r="AX283" s="9" t="n"/>
       <c r="AY283" s="9" t="n"/>
     </row>
-    <row r="284" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="284" s="27">
       <c r="B284" s="9" t="n"/>
       <c r="C284" s="9" t="n"/>
       <c r="D284" s="9" t="n"/>
@@ -31675,7 +31675,7 @@
       <c r="AX284" s="9" t="n"/>
       <c r="AY284" s="9" t="n"/>
     </row>
-    <row r="285" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="285" s="27">
       <c r="B285" s="9" t="n"/>
       <c r="C285" s="9" t="n"/>
       <c r="D285" s="9" t="n"/>
@@ -31727,7 +31727,7 @@
       <c r="AX285" s="9" t="n"/>
       <c r="AY285" s="9" t="n"/>
     </row>
-    <row r="286" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="286" s="27">
       <c r="B286" s="9" t="n"/>
       <c r="C286" s="9" t="n"/>
       <c r="D286" s="9" t="n"/>
@@ -31779,7 +31779,7 @@
       <c r="AX286" s="9" t="n"/>
       <c r="AY286" s="9" t="n"/>
     </row>
-    <row r="287" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="287" s="27">
       <c r="B287" s="9" t="n"/>
       <c r="C287" s="9" t="n"/>
       <c r="D287" s="9" t="n"/>
@@ -31831,7 +31831,7 @@
       <c r="AX287" s="9" t="n"/>
       <c r="AY287" s="9" t="n"/>
     </row>
-    <row r="288" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="288" s="27">
       <c r="B288" s="9" t="n"/>
       <c r="C288" s="9" t="n"/>
       <c r="D288" s="9" t="n"/>
@@ -31883,7 +31883,7 @@
       <c r="AX288" s="9" t="n"/>
       <c r="AY288" s="9" t="n"/>
     </row>
-    <row r="289" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="289" s="27">
       <c r="B289" s="9" t="n"/>
       <c r="C289" s="9" t="n"/>
       <c r="D289" s="9" t="n"/>
@@ -31935,7 +31935,7 @@
       <c r="AX289" s="9" t="n"/>
       <c r="AY289" s="9" t="n"/>
     </row>
-    <row r="290" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="290" s="27">
       <c r="B290" s="9" t="n"/>
       <c r="C290" s="9" t="n"/>
       <c r="D290" s="9" t="n"/>
@@ -31987,7 +31987,7 @@
       <c r="AX290" s="9" t="n"/>
       <c r="AY290" s="9" t="n"/>
     </row>
-    <row r="291" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="291" s="27">
       <c r="B291" s="9" t="n"/>
       <c r="C291" s="9" t="n"/>
       <c r="D291" s="9" t="n"/>
@@ -32039,7 +32039,7 @@
       <c r="AX291" s="9" t="n"/>
       <c r="AY291" s="9" t="n"/>
     </row>
-    <row r="292" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="292" s="27">
       <c r="B292" s="9" t="n"/>
       <c r="C292" s="9" t="n"/>
       <c r="D292" s="9" t="n"/>
@@ -32091,7 +32091,7 @@
       <c r="AX292" s="9" t="n"/>
       <c r="AY292" s="9" t="n"/>
     </row>
-    <row r="293" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="293" s="27">
       <c r="B293" s="9" t="n"/>
       <c r="C293" s="9" t="n"/>
       <c r="D293" s="9" t="n"/>
@@ -32143,7 +32143,7 @@
       <c r="AX293" s="9" t="n"/>
       <c r="AY293" s="9" t="n"/>
     </row>
-    <row r="294" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="294" s="27">
       <c r="B294" s="9" t="n"/>
       <c r="C294" s="9" t="n"/>
       <c r="D294" s="9" t="n"/>
@@ -32195,7 +32195,7 @@
       <c r="AX294" s="9" t="n"/>
       <c r="AY294" s="9" t="n"/>
     </row>
-    <row r="295" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="295" s="27">
       <c r="B295" s="9" t="n"/>
       <c r="C295" s="9" t="n"/>
       <c r="D295" s="9" t="n"/>
@@ -32247,7 +32247,7 @@
       <c r="AX295" s="9" t="n"/>
       <c r="AY295" s="9" t="n"/>
     </row>
-    <row r="296" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="296" s="27">
       <c r="B296" s="9" t="n"/>
       <c r="C296" s="9" t="n"/>
       <c r="D296" s="9" t="n"/>
@@ -32299,7 +32299,7 @@
       <c r="AX296" s="9" t="n"/>
       <c r="AY296" s="9" t="n"/>
     </row>
-    <row r="297" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="297" s="27">
       <c r="B297" s="9" t="n"/>
       <c r="C297" s="9" t="n"/>
       <c r="D297" s="9" t="n"/>
@@ -32351,7 +32351,7 @@
       <c r="AX297" s="9" t="n"/>
       <c r="AY297" s="9" t="n"/>
     </row>
-    <row r="298" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="298" s="27">
       <c r="B298" s="9" t="n"/>
       <c r="C298" s="9" t="n"/>
       <c r="D298" s="9" t="n"/>
@@ -32403,7 +32403,7 @@
       <c r="AX298" s="9" t="n"/>
       <c r="AY298" s="9" t="n"/>
     </row>
-    <row r="299" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="299" s="27">
       <c r="B299" s="9" t="n"/>
       <c r="C299" s="9" t="n"/>
       <c r="D299" s="9" t="n"/>
@@ -32455,7 +32455,7 @@
       <c r="AX299" s="9" t="n"/>
       <c r="AY299" s="9" t="n"/>
     </row>
-    <row r="300" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="300" s="27">
       <c r="B300" s="9" t="n"/>
       <c r="C300" s="9" t="n"/>
       <c r="D300" s="9" t="n"/>
@@ -32507,7 +32507,7 @@
       <c r="AX300" s="9" t="n"/>
       <c r="AY300" s="9" t="n"/>
     </row>
-    <row r="301" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="301" s="27">
       <c r="B301" s="9" t="n"/>
       <c r="C301" s="9" t="n"/>
       <c r="D301" s="9" t="n"/>
@@ -32559,7 +32559,7 @@
       <c r="AX301" s="9" t="n"/>
       <c r="AY301" s="9" t="n"/>
     </row>
-    <row r="302" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="302" s="27">
       <c r="B302" s="9" t="n"/>
       <c r="C302" s="9" t="n"/>
       <c r="D302" s="9" t="n"/>
@@ -32611,7 +32611,7 @@
       <c r="AX302" s="9" t="n"/>
       <c r="AY302" s="9" t="n"/>
     </row>
-    <row r="303" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="303" s="27">
       <c r="B303" s="9" t="n"/>
       <c r="C303" s="9" t="n"/>
       <c r="D303" s="9" t="n"/>
@@ -32663,7 +32663,7 @@
       <c r="AX303" s="9" t="n"/>
       <c r="AY303" s="9" t="n"/>
     </row>
-    <row r="304" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="304" s="27">
       <c r="B304" s="9" t="n"/>
       <c r="C304" s="9" t="n"/>
       <c r="D304" s="9" t="n"/>
@@ -32715,7 +32715,7 @@
       <c r="AX304" s="9" t="n"/>
       <c r="AY304" s="9" t="n"/>
     </row>
-    <row r="305" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="305" s="27">
       <c r="B305" s="9" t="n"/>
       <c r="C305" s="9" t="n"/>
       <c r="D305" s="9" t="n"/>
@@ -32767,7 +32767,7 @@
       <c r="AX305" s="9" t="n"/>
       <c r="AY305" s="9" t="n"/>
     </row>
-    <row r="306" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="306" s="27">
       <c r="B306" s="9" t="n"/>
       <c r="C306" s="9" t="n"/>
       <c r="D306" s="9" t="n"/>
@@ -32819,7 +32819,7 @@
       <c r="AX306" s="9" t="n"/>
       <c r="AY306" s="9" t="n"/>
     </row>
-    <row r="307" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="307" s="27">
       <c r="B307" s="9" t="n"/>
       <c r="C307" s="9" t="n"/>
       <c r="D307" s="9" t="n"/>
@@ -32871,7 +32871,7 @@
       <c r="AX307" s="9" t="n"/>
       <c r="AY307" s="9" t="n"/>
     </row>
-    <row r="308" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="308" s="27">
       <c r="B308" s="9" t="n"/>
       <c r="C308" s="9" t="n"/>
       <c r="D308" s="9" t="n"/>
@@ -32923,7 +32923,7 @@
       <c r="AX308" s="9" t="n"/>
       <c r="AY308" s="9" t="n"/>
     </row>
-    <row r="309" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="309" s="27">
       <c r="B309" s="9" t="n"/>
       <c r="C309" s="9" t="n"/>
       <c r="D309" s="9" t="n"/>
@@ -32975,7 +32975,7 @@
       <c r="AX309" s="9" t="n"/>
       <c r="AY309" s="9" t="n"/>
     </row>
-    <row r="310" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="310" s="27">
       <c r="B310" s="9" t="n"/>
       <c r="C310" s="9" t="n"/>
       <c r="D310" s="9" t="n"/>
@@ -33027,7 +33027,7 @@
       <c r="AX310" s="9" t="n"/>
       <c r="AY310" s="9" t="n"/>
     </row>
-    <row r="311" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="311" s="27">
       <c r="B311" s="9" t="n"/>
       <c r="C311" s="9" t="n"/>
       <c r="D311" s="9" t="n"/>
@@ -33079,7 +33079,7 @@
       <c r="AX311" s="9" t="n"/>
       <c r="AY311" s="9" t="n"/>
     </row>
-    <row r="312" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="312" s="27">
       <c r="B312" s="9" t="n"/>
       <c r="C312" s="9" t="n"/>
       <c r="D312" s="9" t="n"/>
@@ -33131,7 +33131,7 @@
       <c r="AX312" s="9" t="n"/>
       <c r="AY312" s="9" t="n"/>
     </row>
-    <row r="313" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="313" s="27">
       <c r="B313" s="9" t="n"/>
       <c r="C313" s="9" t="n"/>
       <c r="D313" s="9" t="n"/>
@@ -33183,7 +33183,7 @@
       <c r="AX313" s="9" t="n"/>
       <c r="AY313" s="9" t="n"/>
     </row>
-    <row r="314" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="314" s="27">
       <c r="B314" s="9" t="n"/>
       <c r="C314" s="9" t="n"/>
       <c r="D314" s="9" t="n"/>
@@ -33235,7 +33235,7 @@
       <c r="AX314" s="9" t="n"/>
       <c r="AY314" s="9" t="n"/>
     </row>
-    <row r="315" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="315" s="27">
       <c r="B315" s="9" t="n"/>
       <c r="C315" s="9" t="n"/>
       <c r="D315" s="9" t="n"/>
@@ -33287,7 +33287,7 @@
       <c r="AX315" s="9" t="n"/>
       <c r="AY315" s="9" t="n"/>
     </row>
-    <row r="316" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="316" s="27">
       <c r="B316" s="9" t="n"/>
       <c r="C316" s="9" t="n"/>
       <c r="D316" s="9" t="n"/>
@@ -33339,7 +33339,7 @@
       <c r="AX316" s="9" t="n"/>
       <c r="AY316" s="9" t="n"/>
     </row>
-    <row r="317" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="317" s="27">
       <c r="B317" s="9" t="n"/>
       <c r="C317" s="9" t="n"/>
       <c r="D317" s="9" t="n"/>
@@ -33391,7 +33391,7 @@
       <c r="AX317" s="9" t="n"/>
       <c r="AY317" s="9" t="n"/>
     </row>
-    <row r="318" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="318" s="27">
       <c r="B318" s="9" t="n"/>
       <c r="C318" s="9" t="n"/>
       <c r="D318" s="9" t="n"/>
@@ -33443,7 +33443,7 @@
       <c r="AX318" s="9" t="n"/>
       <c r="AY318" s="9" t="n"/>
     </row>
-    <row r="319" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="319" s="27">
       <c r="B319" s="9" t="n"/>
       <c r="C319" s="9" t="n"/>
       <c r="D319" s="9" t="n"/>
@@ -33495,7 +33495,7 @@
       <c r="AX319" s="9" t="n"/>
       <c r="AY319" s="9" t="n"/>
     </row>
-    <row r="320" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="320" s="27">
       <c r="B320" s="9" t="n"/>
       <c r="C320" s="9" t="n"/>
       <c r="D320" s="9" t="n"/>
@@ -33547,7 +33547,7 @@
       <c r="AX320" s="9" t="n"/>
       <c r="AY320" s="9" t="n"/>
     </row>
-    <row r="321" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="321" s="27">
       <c r="B321" s="9" t="n"/>
       <c r="C321" s="9" t="n"/>
       <c r="D321" s="9" t="n"/>
@@ -33599,7 +33599,7 @@
       <c r="AX321" s="9" t="n"/>
       <c r="AY321" s="9" t="n"/>
     </row>
-    <row r="322" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="322" s="27">
       <c r="B322" s="9" t="n"/>
       <c r="C322" s="9" t="n"/>
       <c r="D322" s="9" t="n"/>
@@ -33651,7 +33651,7 @@
       <c r="AX322" s="9" t="n"/>
       <c r="AY322" s="9" t="n"/>
     </row>
-    <row r="323" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="323" s="27">
       <c r="B323" s="9" t="n"/>
       <c r="C323" s="9" t="n"/>
       <c r="D323" s="9" t="n"/>
@@ -33703,7 +33703,7 @@
       <c r="AX323" s="9" t="n"/>
       <c r="AY323" s="9" t="n"/>
     </row>
-    <row r="324" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="324" s="27">
       <c r="B324" s="9" t="n"/>
       <c r="C324" s="9" t="n"/>
       <c r="D324" s="9" t="n"/>
@@ -33755,7 +33755,7 @@
       <c r="AX324" s="9" t="n"/>
       <c r="AY324" s="9" t="n"/>
     </row>
-    <row r="325" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="325" s="27">
       <c r="B325" s="9" t="n"/>
       <c r="C325" s="9" t="n"/>
       <c r="D325" s="9" t="n"/>
@@ -33807,7 +33807,7 @@
       <c r="AX325" s="9" t="n"/>
       <c r="AY325" s="9" t="n"/>
     </row>
-    <row r="326" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="326" s="27">
       <c r="B326" s="9" t="n"/>
       <c r="C326" s="9" t="n"/>
       <c r="D326" s="9" t="n"/>
@@ -33859,7 +33859,7 @@
       <c r="AX326" s="9" t="n"/>
       <c r="AY326" s="9" t="n"/>
     </row>
-    <row r="327" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="327" s="27">
       <c r="B327" s="9" t="n"/>
       <c r="C327" s="9" t="n"/>
       <c r="D327" s="9" t="n"/>
@@ -33911,7 +33911,7 @@
       <c r="AX327" s="9" t="n"/>
       <c r="AY327" s="9" t="n"/>
     </row>
-    <row r="328" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="328" s="27">
       <c r="B328" s="9" t="n"/>
       <c r="C328" s="9" t="n"/>
       <c r="D328" s="9" t="n"/>
@@ -33963,7 +33963,7 @@
       <c r="AX328" s="9" t="n"/>
       <c r="AY328" s="9" t="n"/>
     </row>
-    <row r="329" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="329" s="27">
       <c r="B329" s="9" t="n"/>
       <c r="C329" s="9" t="n"/>
       <c r="D329" s="9" t="n"/>
@@ -34015,7 +34015,7 @@
       <c r="AX329" s="9" t="n"/>
       <c r="AY329" s="9" t="n"/>
     </row>
-    <row r="330" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="330" s="27">
       <c r="B330" s="9" t="n"/>
       <c r="C330" s="9" t="n"/>
       <c r="D330" s="9" t="n"/>
@@ -34067,7 +34067,7 @@
       <c r="AX330" s="9" t="n"/>
       <c r="AY330" s="9" t="n"/>
     </row>
-    <row r="331" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="331" s="27">
       <c r="B331" s="9" t="n"/>
       <c r="C331" s="9" t="n"/>
       <c r="D331" s="9" t="n"/>
@@ -34119,7 +34119,7 @@
       <c r="AX331" s="9" t="n"/>
       <c r="AY331" s="9" t="n"/>
     </row>
-    <row r="332" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="332" s="27">
       <c r="B332" s="9" t="n"/>
       <c r="C332" s="9" t="n"/>
       <c r="D332" s="9" t="n"/>
@@ -34171,7 +34171,7 @@
       <c r="AX332" s="9" t="n"/>
       <c r="AY332" s="9" t="n"/>
     </row>
-    <row r="333" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="333" s="27">
       <c r="B333" s="9" t="n"/>
       <c r="C333" s="9" t="n"/>
       <c r="D333" s="9" t="n"/>
@@ -34223,7 +34223,7 @@
       <c r="AX333" s="9" t="n"/>
       <c r="AY333" s="9" t="n"/>
     </row>
-    <row r="334" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="334" s="27">
       <c r="B334" s="9" t="n"/>
       <c r="C334" s="9" t="n"/>
       <c r="D334" s="9" t="n"/>
@@ -34275,7 +34275,7 @@
       <c r="AX334" s="9" t="n"/>
       <c r="AY334" s="9" t="n"/>
     </row>
-    <row r="335" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="335" s="27">
       <c r="B335" s="9" t="n"/>
       <c r="C335" s="9" t="n"/>
       <c r="D335" s="9" t="n"/>
@@ -34327,7 +34327,7 @@
       <c r="AX335" s="9" t="n"/>
       <c r="AY335" s="9" t="n"/>
     </row>
-    <row r="336" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="336" s="27">
       <c r="B336" s="9" t="n"/>
       <c r="C336" s="9" t="n"/>
       <c r="D336" s="9" t="n"/>
@@ -34379,7 +34379,7 @@
       <c r="AX336" s="9" t="n"/>
       <c r="AY336" s="9" t="n"/>
     </row>
-    <row r="337" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="337" s="27">
       <c r="B337" s="9" t="n"/>
       <c r="C337" s="9" t="n"/>
       <c r="D337" s="9" t="n"/>
@@ -34431,7 +34431,7 @@
       <c r="AX337" s="9" t="n"/>
       <c r="AY337" s="9" t="n"/>
     </row>
-    <row r="338" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="338" s="27">
       <c r="B338" s="9" t="n"/>
       <c r="C338" s="9" t="n"/>
       <c r="D338" s="9" t="n"/>
@@ -34483,7 +34483,7 @@
       <c r="AX338" s="9" t="n"/>
       <c r="AY338" s="9" t="n"/>
     </row>
-    <row r="339" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="339" s="27">
       <c r="B339" s="9" t="n"/>
       <c r="C339" s="9" t="n"/>
       <c r="D339" s="9" t="n"/>
@@ -34535,7 +34535,7 @@
       <c r="AX339" s="9" t="n"/>
       <c r="AY339" s="9" t="n"/>
     </row>
-    <row r="340" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="340" s="27">
       <c r="B340" s="9" t="n"/>
       <c r="C340" s="9" t="n"/>
       <c r="D340" s="9" t="n"/>
@@ -34587,7 +34587,7 @@
       <c r="AX340" s="9" t="n"/>
       <c r="AY340" s="9" t="n"/>
     </row>
-    <row r="341" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="341" s="27">
       <c r="B341" s="9" t="n"/>
       <c r="C341" s="9" t="n"/>
       <c r="D341" s="9" t="n"/>
@@ -34639,7 +34639,7 @@
       <c r="AX341" s="9" t="n"/>
       <c r="AY341" s="9" t="n"/>
     </row>
-    <row r="342" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="342" s="27">
       <c r="B342" s="9" t="n"/>
       <c r="C342" s="9" t="n"/>
       <c r="D342" s="9" t="n"/>
@@ -34691,7 +34691,7 @@
       <c r="AX342" s="9" t="n"/>
       <c r="AY342" s="9" t="n"/>
     </row>
-    <row r="343" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="343" s="27">
       <c r="B343" s="9" t="n"/>
       <c r="C343" s="9" t="n"/>
       <c r="D343" s="9" t="n"/>
@@ -34743,7 +34743,7 @@
       <c r="AX343" s="9" t="n"/>
       <c r="AY343" s="9" t="n"/>
     </row>
-    <row r="344" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="344" s="27">
       <c r="B344" s="9" t="n"/>
       <c r="C344" s="9" t="n"/>
       <c r="D344" s="9" t="n"/>
@@ -34795,7 +34795,7 @@
       <c r="AX344" s="9" t="n"/>
       <c r="AY344" s="9" t="n"/>
     </row>
-    <row r="345" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="345" s="27">
       <c r="B345" s="9" t="n"/>
       <c r="C345" s="9" t="n"/>
       <c r="D345" s="9" t="n"/>
@@ -34847,7 +34847,7 @@
       <c r="AX345" s="9" t="n"/>
       <c r="AY345" s="9" t="n"/>
     </row>
-    <row r="346" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="346" s="27">
       <c r="B346" s="9" t="n"/>
       <c r="C346" s="9" t="n"/>
       <c r="D346" s="9" t="n"/>
@@ -34899,7 +34899,7 @@
       <c r="AX346" s="9" t="n"/>
       <c r="AY346" s="9" t="n"/>
     </row>
-    <row r="347" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="347" s="27">
       <c r="B347" s="9" t="n"/>
       <c r="C347" s="9" t="n"/>
       <c r="D347" s="9" t="n"/>
@@ -34951,7 +34951,7 @@
       <c r="AX347" s="9" t="n"/>
       <c r="AY347" s="9" t="n"/>
     </row>
-    <row r="348" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="348" s="27">
       <c r="B348" s="9" t="n"/>
       <c r="C348" s="9" t="n"/>
       <c r="D348" s="9" t="n"/>
@@ -35003,7 +35003,7 @@
       <c r="AX348" s="9" t="n"/>
       <c r="AY348" s="9" t="n"/>
     </row>
-    <row r="349" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="349" s="27">
       <c r="B349" s="9" t="n"/>
       <c r="C349" s="9" t="n"/>
       <c r="D349" s="9" t="n"/>
@@ -35055,7 +35055,7 @@
       <c r="AX349" s="9" t="n"/>
       <c r="AY349" s="9" t="n"/>
     </row>
-    <row r="350" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="350" s="27">
       <c r="B350" s="9" t="n"/>
       <c r="C350" s="9" t="n"/>
       <c r="D350" s="9" t="n"/>
@@ -35107,7 +35107,7 @@
       <c r="AX350" s="9" t="n"/>
       <c r="AY350" s="9" t="n"/>
     </row>
-    <row r="351" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="351" s="27">
       <c r="B351" s="9" t="n"/>
       <c r="C351" s="9" t="n"/>
       <c r="D351" s="9" t="n"/>
@@ -35159,7 +35159,7 @@
       <c r="AX351" s="9" t="n"/>
       <c r="AY351" s="9" t="n"/>
     </row>
-    <row r="352" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="352" s="27">
       <c r="B352" s="9" t="n"/>
       <c r="C352" s="9" t="n"/>
       <c r="D352" s="9" t="n"/>
@@ -35211,7 +35211,7 @@
       <c r="AX352" s="9" t="n"/>
       <c r="AY352" s="9" t="n"/>
     </row>
-    <row r="353" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="353" s="27">
       <c r="B353" s="9" t="n"/>
       <c r="C353" s="9" t="n"/>
       <c r="D353" s="9" t="n"/>
@@ -35263,7 +35263,7 @@
       <c r="AX353" s="9" t="n"/>
       <c r="AY353" s="9" t="n"/>
     </row>
-    <row r="354" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="354" s="27">
       <c r="B354" s="9" t="n"/>
       <c r="C354" s="9" t="n"/>
       <c r="D354" s="9" t="n"/>
@@ -35315,7 +35315,7 @@
       <c r="AX354" s="9" t="n"/>
       <c r="AY354" s="9" t="n"/>
     </row>
-    <row r="355" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="355" s="27">
       <c r="B355" s="9" t="n"/>
       <c r="C355" s="9" t="n"/>
       <c r="D355" s="9" t="n"/>
@@ -35367,7 +35367,7 @@
       <c r="AX355" s="9" t="n"/>
       <c r="AY355" s="9" t="n"/>
     </row>
-    <row r="356" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="356" s="27">
       <c r="B356" s="9" t="n"/>
       <c r="C356" s="9" t="n"/>
       <c r="D356" s="9" t="n"/>
@@ -35419,7 +35419,7 @@
       <c r="AX356" s="9" t="n"/>
       <c r="AY356" s="9" t="n"/>
     </row>
-    <row r="357" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="357" s="27">
       <c r="B357" s="9" t="n"/>
       <c r="C357" s="9" t="n"/>
       <c r="D357" s="9" t="n"/>
@@ -35471,7 +35471,7 @@
       <c r="AX357" s="9" t="n"/>
       <c r="AY357" s="9" t="n"/>
     </row>
-    <row r="358" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="358" s="27">
       <c r="B358" s="9" t="n"/>
       <c r="C358" s="9" t="n"/>
       <c r="D358" s="9" t="n"/>
@@ -35523,7 +35523,7 @@
       <c r="AX358" s="9" t="n"/>
       <c r="AY358" s="9" t="n"/>
     </row>
-    <row r="359" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="359" s="27">
       <c r="B359" s="9" t="n"/>
       <c r="C359" s="9" t="n"/>
       <c r="D359" s="9" t="n"/>
@@ -35575,7 +35575,7 @@
       <c r="AX359" s="9" t="n"/>
       <c r="AY359" s="9" t="n"/>
     </row>
-    <row r="360" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="360" s="27">
       <c r="B360" s="9" t="n"/>
       <c r="C360" s="9" t="n"/>
       <c r="D360" s="9" t="n"/>
@@ -35627,7 +35627,7 @@
       <c r="AX360" s="9" t="n"/>
       <c r="AY360" s="9" t="n"/>
     </row>
-    <row r="361" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="361" s="27">
       <c r="B361" s="9" t="n"/>
       <c r="C361" s="9" t="n"/>
       <c r="D361" s="9" t="n"/>
@@ -35679,7 +35679,7 @@
       <c r="AX361" s="9" t="n"/>
       <c r="AY361" s="9" t="n"/>
     </row>
-    <row r="362" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="362" s="27">
       <c r="B362" s="9" t="n"/>
       <c r="C362" s="9" t="n"/>
       <c r="D362" s="9" t="n"/>
@@ -35731,7 +35731,7 @@
       <c r="AX362" s="9" t="n"/>
       <c r="AY362" s="9" t="n"/>
     </row>
-    <row r="363" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="363" s="27">
       <c r="B363" s="9" t="n"/>
       <c r="C363" s="9" t="n"/>
       <c r="D363" s="9" t="n"/>
@@ -35783,7 +35783,7 @@
       <c r="AX363" s="9" t="n"/>
       <c r="AY363" s="9" t="n"/>
     </row>
-    <row r="364" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="364" s="27">
       <c r="B364" s="9" t="n"/>
       <c r="C364" s="9" t="n"/>
       <c r="D364" s="9" t="n"/>
@@ -35835,7 +35835,7 @@
       <c r="AX364" s="9" t="n"/>
       <c r="AY364" s="9" t="n"/>
     </row>
-    <row r="365" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="365" s="27">
       <c r="B365" s="9" t="n"/>
       <c r="C365" s="9" t="n"/>
       <c r="D365" s="9" t="n"/>
@@ -35887,7 +35887,7 @@
       <c r="AX365" s="9" t="n"/>
       <c r="AY365" s="9" t="n"/>
     </row>
-    <row r="366" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="366" s="27">
       <c r="B366" s="9" t="n"/>
       <c r="C366" s="9" t="n"/>
       <c r="D366" s="9" t="n"/>
@@ -35939,7 +35939,7 @@
       <c r="AX366" s="9" t="n"/>
       <c r="AY366" s="9" t="n"/>
     </row>
-    <row r="367" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="367" s="27">
       <c r="B367" s="9" t="n"/>
       <c r="C367" s="9" t="n"/>
       <c r="D367" s="9" t="n"/>
@@ -35991,7 +35991,7 @@
       <c r="AX367" s="9" t="n"/>
       <c r="AY367" s="9" t="n"/>
     </row>
-    <row r="368" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="368" s="27">
       <c r="B368" s="9" t="n"/>
       <c r="C368" s="9" t="n"/>
       <c r="D368" s="9" t="n"/>
@@ -36043,7 +36043,7 @@
       <c r="AX368" s="9" t="n"/>
       <c r="AY368" s="9" t="n"/>
     </row>
-    <row r="369" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="369" s="27">
       <c r="B369" s="9" t="n"/>
       <c r="C369" s="9" t="n"/>
       <c r="D369" s="9" t="n"/>
@@ -36095,7 +36095,7 @@
       <c r="AX369" s="9" t="n"/>
       <c r="AY369" s="9" t="n"/>
     </row>
-    <row r="370" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="370" s="27">
       <c r="B370" s="9" t="n"/>
       <c r="C370" s="9" t="n"/>
       <c r="D370" s="9" t="n"/>
@@ -36147,7 +36147,7 @@
       <c r="AX370" s="9" t="n"/>
       <c r="AY370" s="9" t="n"/>
     </row>
-    <row r="371" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="371" s="27">
       <c r="B371" s="9" t="n"/>
       <c r="C371" s="9" t="n"/>
       <c r="D371" s="9" t="n"/>
@@ -36199,7 +36199,7 @@
       <c r="AX371" s="9" t="n"/>
       <c r="AY371" s="9" t="n"/>
     </row>
-    <row r="372" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="372" s="27">
       <c r="B372" s="9" t="n"/>
       <c r="C372" s="9" t="n"/>
       <c r="D372" s="9" t="n"/>
@@ -36251,7 +36251,7 @@
       <c r="AX372" s="9" t="n"/>
       <c r="AY372" s="9" t="n"/>
     </row>
-    <row r="373" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="373" s="27">
       <c r="B373" s="9" t="n"/>
       <c r="C373" s="9" t="n"/>
       <c r="D373" s="9" t="n"/>
@@ -36303,7 +36303,7 @@
       <c r="AX373" s="9" t="n"/>
       <c r="AY373" s="9" t="n"/>
     </row>
-    <row r="374" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="374" s="27">
       <c r="B374" s="9" t="n"/>
       <c r="C374" s="9" t="n"/>
       <c r="D374" s="9" t="n"/>
@@ -36355,7 +36355,7 @@
       <c r="AX374" s="9" t="n"/>
       <c r="AY374" s="9" t="n"/>
     </row>
-    <row r="375" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="375" s="27">
       <c r="B375" s="9" t="n"/>
       <c r="C375" s="9" t="n"/>
       <c r="D375" s="9" t="n"/>
@@ -36407,7 +36407,7 @@
       <c r="AX375" s="9" t="n"/>
       <c r="AY375" s="9" t="n"/>
     </row>
-    <row r="376" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="376" s="27">
       <c r="B376" s="9" t="n"/>
       <c r="C376" s="9" t="n"/>
       <c r="D376" s="9" t="n"/>
@@ -36459,7 +36459,7 @@
       <c r="AX376" s="9" t="n"/>
       <c r="AY376" s="9" t="n"/>
     </row>
-    <row r="377" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="377" s="27">
       <c r="B377" s="9" t="n"/>
       <c r="C377" s="9" t="n"/>
       <c r="D377" s="9" t="n"/>
@@ -36511,7 +36511,7 @@
       <c r="AX377" s="9" t="n"/>
       <c r="AY377" s="9" t="n"/>
     </row>
-    <row r="378" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="378" s="27">
       <c r="B378" s="9" t="n"/>
       <c r="C378" s="9" t="n"/>
       <c r="D378" s="9" t="n"/>
@@ -36563,7 +36563,7 @@
       <c r="AX378" s="9" t="n"/>
       <c r="AY378" s="9" t="n"/>
     </row>
-    <row r="379" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="379" s="27">
       <c r="B379" s="9" t="n"/>
       <c r="C379" s="9" t="n"/>
       <c r="D379" s="9" t="n"/>
@@ -36615,7 +36615,7 @@
       <c r="AX379" s="9" t="n"/>
       <c r="AY379" s="9" t="n"/>
     </row>
-    <row r="380" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="380" s="27">
       <c r="B380" s="9" t="n"/>
       <c r="C380" s="9" t="n"/>
       <c r="D380" s="9" t="n"/>
@@ -36667,7 +36667,7 @@
       <c r="AX380" s="9" t="n"/>
       <c r="AY380" s="9" t="n"/>
     </row>
-    <row r="381" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="381" s="27">
       <c r="B381" s="9" t="n"/>
       <c r="C381" s="9" t="n"/>
       <c r="D381" s="9" t="n"/>
@@ -36719,7 +36719,7 @@
       <c r="AX381" s="9" t="n"/>
       <c r="AY381" s="9" t="n"/>
     </row>
-    <row r="382" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="382" s="27">
       <c r="B382" s="9" t="n"/>
       <c r="C382" s="9" t="n"/>
       <c r="D382" s="9" t="n"/>
@@ -36771,7 +36771,7 @@
       <c r="AX382" s="9" t="n"/>
       <c r="AY382" s="9" t="n"/>
     </row>
-    <row r="383" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="383" s="27">
       <c r="B383" s="9" t="n"/>
       <c r="C383" s="9" t="n"/>
       <c r="D383" s="9" t="n"/>
@@ -36823,7 +36823,7 @@
       <c r="AX383" s="9" t="n"/>
       <c r="AY383" s="9" t="n"/>
     </row>
-    <row r="384" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="384" s="27">
       <c r="B384" s="9" t="n"/>
       <c r="C384" s="9" t="n"/>
       <c r="D384" s="9" t="n"/>
@@ -36875,7 +36875,7 @@
       <c r="AX384" s="9" t="n"/>
       <c r="AY384" s="9" t="n"/>
     </row>
-    <row r="385" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="385" s="27">
       <c r="B385" s="9" t="n"/>
       <c r="C385" s="9" t="n"/>
       <c r="D385" s="9" t="n"/>
@@ -36927,7 +36927,7 @@
       <c r="AX385" s="9" t="n"/>
       <c r="AY385" s="9" t="n"/>
     </row>
-    <row r="386" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="386" s="27">
       <c r="B386" s="9" t="n"/>
       <c r="C386" s="9" t="n"/>
       <c r="D386" s="9" t="n"/>
@@ -36979,7 +36979,7 @@
       <c r="AX386" s="9" t="n"/>
       <c r="AY386" s="9" t="n"/>
     </row>
-    <row r="387" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="387" s="27">
       <c r="B387" s="9" t="n"/>
       <c r="C387" s="9" t="n"/>
       <c r="D387" s="9" t="n"/>
@@ -37031,7 +37031,7 @@
       <c r="AX387" s="9" t="n"/>
       <c r="AY387" s="9" t="n"/>
     </row>
-    <row r="388" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="388" s="27">
       <c r="B388" s="9" t="n"/>
       <c r="C388" s="9" t="n"/>
       <c r="D388" s="9" t="n"/>
@@ -37083,7 +37083,7 @@
       <c r="AX388" s="9" t="n"/>
       <c r="AY388" s="9" t="n"/>
     </row>
-    <row r="389" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="389" s="27">
       <c r="B389" s="9" t="n"/>
       <c r="C389" s="9" t="n"/>
       <c r="D389" s="9" t="n"/>
@@ -37135,7 +37135,7 @@
       <c r="AX389" s="9" t="n"/>
       <c r="AY389" s="9" t="n"/>
     </row>
-    <row r="390" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="390" s="27">
       <c r="B390" s="9" t="n"/>
       <c r="C390" s="9" t="n"/>
       <c r="D390" s="9" t="n"/>
@@ -37187,7 +37187,7 @@
       <c r="AX390" s="9" t="n"/>
       <c r="AY390" s="9" t="n"/>
     </row>
-    <row r="391" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="391" s="27">
       <c r="B391" s="9" t="n"/>
       <c r="C391" s="9" t="n"/>
       <c r="D391" s="9" t="n"/>
@@ -37239,7 +37239,7 @@
       <c r="AX391" s="9" t="n"/>
       <c r="AY391" s="9" t="n"/>
     </row>
-    <row r="392" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="392" s="27">
       <c r="B392" s="9" t="n"/>
       <c r="C392" s="9" t="n"/>
       <c r="D392" s="9" t="n"/>
@@ -37291,7 +37291,7 @@
       <c r="AX392" s="9" t="n"/>
       <c r="AY392" s="9" t="n"/>
     </row>
-    <row r="393" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="393" s="27">
       <c r="B393" s="9" t="n"/>
       <c r="C393" s="9" t="n"/>
       <c r="D393" s="9" t="n"/>
@@ -37343,7 +37343,7 @@
       <c r="AX393" s="9" t="n"/>
       <c r="AY393" s="9" t="n"/>
     </row>
-    <row r="394" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="394" s="27">
       <c r="B394" s="9" t="n"/>
       <c r="C394" s="9" t="n"/>
       <c r="D394" s="9" t="n"/>
@@ -37395,7 +37395,7 @@
       <c r="AX394" s="9" t="n"/>
       <c r="AY394" s="9" t="n"/>
     </row>
-    <row r="395" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="395" s="27">
       <c r="B395" s="9" t="n"/>
       <c r="C395" s="9" t="n"/>
       <c r="D395" s="9" t="n"/>
@@ -37447,7 +37447,7 @@
       <c r="AX395" s="9" t="n"/>
       <c r="AY395" s="9" t="n"/>
     </row>
-    <row r="396" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="396" s="27">
       <c r="B396" s="9" t="n"/>
       <c r="C396" s="9" t="n"/>
       <c r="D396" s="9" t="n"/>
@@ -37499,7 +37499,7 @@
       <c r="AX396" s="9" t="n"/>
       <c r="AY396" s="9" t="n"/>
     </row>
-    <row r="397" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="397" s="27">
       <c r="B397" s="9" t="n"/>
       <c r="C397" s="9" t="n"/>
       <c r="D397" s="9" t="n"/>
@@ -37551,7 +37551,7 @@
       <c r="AX397" s="9" t="n"/>
       <c r="AY397" s="9" t="n"/>
     </row>
-    <row r="398" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="398" s="27">
       <c r="B398" s="9" t="n"/>
       <c r="C398" s="9" t="n"/>
       <c r="D398" s="9" t="n"/>
@@ -37603,7 +37603,7 @@
       <c r="AX398" s="9" t="n"/>
       <c r="AY398" s="9" t="n"/>
     </row>
-    <row r="399" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="399" s="27">
       <c r="B399" s="9" t="n"/>
       <c r="C399" s="9" t="n"/>
       <c r="D399" s="9" t="n"/>
@@ -37655,7 +37655,7 @@
       <c r="AX399" s="9" t="n"/>
       <c r="AY399" s="9" t="n"/>
     </row>
-    <row r="400" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="400" s="27">
       <c r="B400" s="9" t="n"/>
       <c r="C400" s="9" t="n"/>
       <c r="D400" s="9" t="n"/>
@@ -37707,7 +37707,7 @@
       <c r="AX400" s="9" t="n"/>
       <c r="AY400" s="9" t="n"/>
     </row>
-    <row r="401" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="401" s="27">
       <c r="B401" s="9" t="n"/>
       <c r="C401" s="9" t="n"/>
       <c r="D401" s="9" t="n"/>
@@ -37759,7 +37759,7 @@
       <c r="AX401" s="9" t="n"/>
       <c r="AY401" s="9" t="n"/>
     </row>
-    <row r="402" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="402" s="27">
       <c r="B402" s="9" t="n"/>
       <c r="C402" s="9" t="n"/>
       <c r="D402" s="9" t="n"/>
@@ -37811,7 +37811,7 @@
       <c r="AX402" s="9" t="n"/>
       <c r="AY402" s="9" t="n"/>
     </row>
-    <row r="403" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="403" s="27">
       <c r="B403" s="9" t="n"/>
       <c r="C403" s="9" t="n"/>
       <c r="D403" s="9" t="n"/>
@@ -37863,7 +37863,7 @@
       <c r="AX403" s="9" t="n"/>
       <c r="AY403" s="9" t="n"/>
     </row>
-    <row r="404" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="404" s="27">
       <c r="B404" s="9" t="n"/>
       <c r="C404" s="9" t="n"/>
       <c r="D404" s="9" t="n"/>
@@ -37915,7 +37915,7 @@
       <c r="AX404" s="9" t="n"/>
       <c r="AY404" s="9" t="n"/>
     </row>
-    <row r="405" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="405" s="27">
       <c r="B405" s="9" t="n"/>
       <c r="C405" s="9" t="n"/>
       <c r="D405" s="9" t="n"/>
@@ -37967,7 +37967,7 @@
       <c r="AX405" s="9" t="n"/>
       <c r="AY405" s="9" t="n"/>
     </row>
-    <row r="406" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="406" s="27">
       <c r="B406" s="9" t="n"/>
       <c r="C406" s="9" t="n"/>
       <c r="D406" s="9" t="n"/>
@@ -38019,7 +38019,7 @@
       <c r="AX406" s="9" t="n"/>
       <c r="AY406" s="9" t="n"/>
     </row>
-    <row r="407" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="407" s="27">
       <c r="B407" s="9" t="n"/>
       <c r="C407" s="9" t="n"/>
       <c r="D407" s="9" t="n"/>
@@ -38071,7 +38071,7 @@
       <c r="AX407" s="9" t="n"/>
       <c r="AY407" s="9" t="n"/>
     </row>
-    <row r="408" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="408" s="27">
       <c r="B408" s="9" t="n"/>
       <c r="C408" s="9" t="n"/>
       <c r="D408" s="9" t="n"/>
@@ -38123,7 +38123,7 @@
       <c r="AX408" s="9" t="n"/>
       <c r="AY408" s="9" t="n"/>
     </row>
-    <row r="409" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="409" s="27">
       <c r="B409" s="9" t="n"/>
       <c r="C409" s="9" t="n"/>
       <c r="D409" s="9" t="n"/>
@@ -38175,7 +38175,7 @@
       <c r="AX409" s="9" t="n"/>
       <c r="AY409" s="9" t="n"/>
     </row>
-    <row r="410" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="410" s="27">
       <c r="B410" s="9" t="n"/>
       <c r="C410" s="9" t="n"/>
       <c r="D410" s="9" t="n"/>
@@ -38227,7 +38227,7 @@
       <c r="AX410" s="9" t="n"/>
       <c r="AY410" s="9" t="n"/>
     </row>
-    <row r="411" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="411" s="27">
       <c r="B411" s="9" t="n"/>
       <c r="C411" s="9" t="n"/>
       <c r="D411" s="9" t="n"/>
@@ -38279,7 +38279,7 @@
       <c r="AX411" s="9" t="n"/>
       <c r="AY411" s="9" t="n"/>
     </row>
-    <row r="412" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="412" s="27">
       <c r="B412" s="9" t="n"/>
       <c r="C412" s="9" t="n"/>
       <c r="D412" s="9" t="n"/>
@@ -38331,7 +38331,7 @@
       <c r="AX412" s="9" t="n"/>
       <c r="AY412" s="9" t="n"/>
     </row>
-    <row r="413" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="413" s="27">
       <c r="B413" s="9" t="n"/>
       <c r="C413" s="9" t="n"/>
       <c r="D413" s="9" t="n"/>
@@ -38383,7 +38383,7 @@
       <c r="AX413" s="9" t="n"/>
       <c r="AY413" s="9" t="n"/>
     </row>
-    <row r="414" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="414" s="27">
       <c r="B414" s="9" t="n"/>
       <c r="C414" s="9" t="n"/>
       <c r="D414" s="9" t="n"/>
@@ -38435,7 +38435,7 @@
       <c r="AX414" s="9" t="n"/>
       <c r="AY414" s="9" t="n"/>
     </row>
-    <row r="415" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="415" s="27">
       <c r="B415" s="9" t="n"/>
       <c r="C415" s="9" t="n"/>
       <c r="D415" s="9" t="n"/>
@@ -38487,7 +38487,7 @@
       <c r="AX415" s="9" t="n"/>
       <c r="AY415" s="9" t="n"/>
     </row>
-    <row r="416" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="416" s="27">
       <c r="B416" s="9" t="n"/>
       <c r="C416" s="9" t="n"/>
       <c r="D416" s="9" t="n"/>
@@ -38539,7 +38539,7 @@
       <c r="AX416" s="9" t="n"/>
       <c r="AY416" s="9" t="n"/>
     </row>
-    <row r="417" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="417" s="27">
       <c r="B417" s="9" t="n"/>
       <c r="C417" s="9" t="n"/>
       <c r="D417" s="9" t="n"/>
@@ -38591,7 +38591,7 @@
       <c r="AX417" s="9" t="n"/>
       <c r="AY417" s="9" t="n"/>
     </row>
-    <row r="418" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="418" s="27">
       <c r="B418" s="9" t="n"/>
       <c r="C418" s="9" t="n"/>
       <c r="D418" s="9" t="n"/>
@@ -38643,7 +38643,7 @@
       <c r="AX418" s="9" t="n"/>
       <c r="AY418" s="9" t="n"/>
     </row>
-    <row r="419" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="419" s="27">
       <c r="B419" s="9" t="n"/>
       <c r="C419" s="9" t="n"/>
       <c r="D419" s="9" t="n"/>
@@ -38695,7 +38695,7 @@
       <c r="AX419" s="9" t="n"/>
       <c r="AY419" s="9" t="n"/>
     </row>
-    <row r="420" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="420" s="27">
       <c r="B420" s="9" t="n"/>
       <c r="C420" s="9" t="n"/>
       <c r="D420" s="9" t="n"/>
@@ -38747,7 +38747,7 @@
       <c r="AX420" s="9" t="n"/>
       <c r="AY420" s="9" t="n"/>
     </row>
-    <row r="421" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="421" s="27">
       <c r="B421" s="9" t="n"/>
       <c r="C421" s="9" t="n"/>
       <c r="D421" s="9" t="n"/>
@@ -38799,7 +38799,7 @@
       <c r="AX421" s="9" t="n"/>
       <c r="AY421" s="9" t="n"/>
     </row>
-    <row r="422" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="422" s="27">
       <c r="B422" s="9" t="n"/>
       <c r="C422" s="9" t="n"/>
       <c r="D422" s="9" t="n"/>
@@ -38851,7 +38851,7 @@
       <c r="AX422" s="9" t="n"/>
       <c r="AY422" s="9" t="n"/>
     </row>
-    <row r="423" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="423" s="27">
       <c r="B423" s="9" t="n"/>
       <c r="C423" s="9" t="n"/>
       <c r="D423" s="9" t="n"/>
@@ -38903,7 +38903,7 @@
       <c r="AX423" s="9" t="n"/>
       <c r="AY423" s="9" t="n"/>
     </row>
-    <row r="424" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="424" s="27">
       <c r="B424" s="9" t="n"/>
       <c r="C424" s="9" t="n"/>
       <c r="D424" s="9" t="n"/>
@@ -38955,7 +38955,7 @@
       <c r="AX424" s="9" t="n"/>
       <c r="AY424" s="9" t="n"/>
     </row>
-    <row r="425" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="425" s="27">
       <c r="B425" s="9" t="n"/>
       <c r="C425" s="9" t="n"/>
       <c r="D425" s="9" t="n"/>
@@ -39007,7 +39007,7 @@
       <c r="AX425" s="9" t="n"/>
       <c r="AY425" s="9" t="n"/>
     </row>
-    <row r="426" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="426" s="27">
       <c r="B426" s="9" t="n"/>
       <c r="C426" s="9" t="n"/>
       <c r="D426" s="9" t="n"/>
@@ -39059,7 +39059,7 @@
       <c r="AX426" s="9" t="n"/>
       <c r="AY426" s="9" t="n"/>
     </row>
-    <row r="427" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="427" s="27">
       <c r="B427" s="9" t="n"/>
       <c r="C427" s="9" t="n"/>
       <c r="D427" s="9" t="n"/>
@@ -39111,7 +39111,7 @@
       <c r="AX427" s="9" t="n"/>
       <c r="AY427" s="9" t="n"/>
     </row>
-    <row r="428" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="428" s="27">
       <c r="B428" s="9" t="n"/>
       <c r="C428" s="9" t="n"/>
       <c r="D428" s="9" t="n"/>
@@ -39163,7 +39163,7 @@
       <c r="AX428" s="9" t="n"/>
       <c r="AY428" s="9" t="n"/>
     </row>
-    <row r="429" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="429" s="27">
       <c r="B429" s="9" t="n"/>
       <c r="C429" s="9" t="n"/>
       <c r="D429" s="9" t="n"/>
@@ -39215,7 +39215,7 @@
       <c r="AX429" s="9" t="n"/>
       <c r="AY429" s="9" t="n"/>
     </row>
-    <row r="430" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="430" s="27">
       <c r="B430" s="9" t="n"/>
       <c r="C430" s="9" t="n"/>
       <c r="D430" s="9" t="n"/>
@@ -39267,7 +39267,7 @@
       <c r="AX430" s="9" t="n"/>
       <c r="AY430" s="9" t="n"/>
     </row>
-    <row r="431" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="431" s="27">
       <c r="B431" s="9" t="n"/>
       <c r="C431" s="9" t="n"/>
       <c r="D431" s="9" t="n"/>
@@ -39319,7 +39319,7 @@
       <c r="AX431" s="9" t="n"/>
       <c r="AY431" s="9" t="n"/>
     </row>
-    <row r="432" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="432" s="27">
       <c r="B432" s="9" t="n"/>
       <c r="C432" s="9" t="n"/>
       <c r="D432" s="9" t="n"/>
@@ -39371,7 +39371,7 @@
       <c r="AX432" s="9" t="n"/>
       <c r="AY432" s="9" t="n"/>
     </row>
-    <row r="433" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="433" s="27">
       <c r="B433" s="9" t="n"/>
       <c r="C433" s="9" t="n"/>
       <c r="D433" s="9" t="n"/>
@@ -39423,7 +39423,7 @@
       <c r="AX433" s="9" t="n"/>
       <c r="AY433" s="9" t="n"/>
     </row>
-    <row r="434" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="434" s="27">
       <c r="B434" s="9" t="n"/>
       <c r="C434" s="9" t="n"/>
       <c r="D434" s="9" t="n"/>
@@ -39475,7 +39475,7 @@
       <c r="AX434" s="9" t="n"/>
       <c r="AY434" s="9" t="n"/>
     </row>
-    <row r="435" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="435" s="27">
       <c r="B435" s="9" t="n"/>
       <c r="C435" s="9" t="n"/>
       <c r="D435" s="9" t="n"/>
@@ -39527,7 +39527,7 @@
       <c r="AX435" s="9" t="n"/>
       <c r="AY435" s="9" t="n"/>
     </row>
-    <row r="436" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="436" s="27">
       <c r="B436" s="9" t="n"/>
       <c r="C436" s="9" t="n"/>
       <c r="D436" s="9" t="n"/>
@@ -39579,7 +39579,7 @@
       <c r="AX436" s="9" t="n"/>
       <c r="AY436" s="9" t="n"/>
     </row>
-    <row r="437" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="437" s="27">
       <c r="B437" s="9" t="n"/>
       <c r="C437" s="9" t="n"/>
       <c r="D437" s="9" t="n"/>
@@ -39631,7 +39631,7 @@
       <c r="AX437" s="9" t="n"/>
       <c r="AY437" s="9" t="n"/>
     </row>
-    <row r="438" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="438" s="27">
       <c r="B438" s="9" t="n"/>
       <c r="C438" s="9" t="n"/>
       <c r="D438" s="9" t="n"/>
@@ -39683,7 +39683,7 @@
       <c r="AX438" s="9" t="n"/>
       <c r="AY438" s="9" t="n"/>
     </row>
-    <row r="439" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="439" s="27">
       <c r="B439" s="9" t="n"/>
       <c r="C439" s="9" t="n"/>
       <c r="D439" s="9" t="n"/>
@@ -39735,7 +39735,7 @@
       <c r="AX439" s="9" t="n"/>
       <c r="AY439" s="9" t="n"/>
     </row>
-    <row r="440" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="440" s="27">
       <c r="B440" s="9" t="n"/>
       <c r="C440" s="9" t="n"/>
       <c r="D440" s="9" t="n"/>
@@ -39787,7 +39787,7 @@
       <c r="AX440" s="9" t="n"/>
       <c r="AY440" s="9" t="n"/>
     </row>
-    <row r="441" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="441" s="27">
       <c r="B441" s="9" t="n"/>
       <c r="C441" s="9" t="n"/>
       <c r="D441" s="9" t="n"/>
@@ -39839,7 +39839,7 @@
       <c r="AX441" s="9" t="n"/>
       <c r="AY441" s="9" t="n"/>
     </row>
-    <row r="442" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="442" s="27">
       <c r="B442" s="9" t="n"/>
       <c r="C442" s="9" t="n"/>
       <c r="D442" s="9" t="n"/>
@@ -39891,7 +39891,7 @@
       <c r="AX442" s="9" t="n"/>
       <c r="AY442" s="9" t="n"/>
     </row>
-    <row r="443" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="443" s="27">
       <c r="B443" s="9" t="n"/>
       <c r="C443" s="9" t="n"/>
       <c r="D443" s="9" t="n"/>
@@ -39943,7 +39943,7 @@
       <c r="AX443" s="9" t="n"/>
       <c r="AY443" s="9" t="n"/>
     </row>
-    <row r="444" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="444" s="27">
       <c r="B444" s="9" t="n"/>
       <c r="C444" s="9" t="n"/>
       <c r="D444" s="9" t="n"/>
@@ -39995,7 +39995,7 @@
       <c r="AX444" s="9" t="n"/>
       <c r="AY444" s="9" t="n"/>
     </row>
-    <row r="445" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="445" s="27">
       <c r="B445" s="9" t="n"/>
       <c r="C445" s="9" t="n"/>
       <c r="D445" s="9" t="n"/>
@@ -40047,7 +40047,7 @@
       <c r="AX445" s="9" t="n"/>
       <c r="AY445" s="9" t="n"/>
     </row>
-    <row r="446" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="446" s="27">
       <c r="B446" s="9" t="n"/>
       <c r="C446" s="9" t="n"/>
       <c r="D446" s="9" t="n"/>
@@ -40099,7 +40099,7 @@
       <c r="AX446" s="9" t="n"/>
       <c r="AY446" s="9" t="n"/>
     </row>
-    <row r="447" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="447" s="27">
       <c r="B447" s="9" t="n"/>
       <c r="C447" s="9" t="n"/>
       <c r="D447" s="9" t="n"/>
@@ -40151,7 +40151,7 @@
       <c r="AX447" s="9" t="n"/>
       <c r="AY447" s="9" t="n"/>
     </row>
-    <row r="448" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="448" s="27">
       <c r="B448" s="9" t="n"/>
       <c r="C448" s="9" t="n"/>
       <c r="D448" s="9" t="n"/>
@@ -40203,7 +40203,7 @@
       <c r="AX448" s="9" t="n"/>
       <c r="AY448" s="9" t="n"/>
     </row>
-    <row r="449" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="449" s="27">
       <c r="B449" s="9" t="n"/>
       <c r="C449" s="9" t="n"/>
       <c r="D449" s="9" t="n"/>
@@ -40255,7 +40255,7 @@
       <c r="AX449" s="9" t="n"/>
       <c r="AY449" s="9" t="n"/>
     </row>
-    <row r="450" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="450" s="27">
       <c r="B450" s="9" t="n"/>
       <c r="C450" s="9" t="n"/>
       <c r="D450" s="9" t="n"/>
@@ -40307,7 +40307,7 @@
       <c r="AX450" s="9" t="n"/>
       <c r="AY450" s="9" t="n"/>
     </row>
-    <row r="451" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="451" s="27">
       <c r="B451" s="9" t="n"/>
       <c r="C451" s="9" t="n"/>
       <c r="D451" s="9" t="n"/>
@@ -40359,7 +40359,7 @@
       <c r="AX451" s="9" t="n"/>
       <c r="AY451" s="9" t="n"/>
     </row>
-    <row r="452" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="452" s="27">
       <c r="B452" s="9" t="n"/>
       <c r="C452" s="9" t="n"/>
       <c r="D452" s="9" t="n"/>
@@ -40411,7 +40411,7 @@
       <c r="AX452" s="9" t="n"/>
       <c r="AY452" s="9" t="n"/>
     </row>
-    <row r="453" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="453" s="27">
       <c r="B453" s="9" t="n"/>
       <c r="C453" s="9" t="n"/>
       <c r="D453" s="9" t="n"/>
@@ -40463,7 +40463,7 @@
       <c r="AX453" s="9" t="n"/>
       <c r="AY453" s="9" t="n"/>
     </row>
-    <row r="454" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="454" s="27">
       <c r="B454" s="9" t="n"/>
       <c r="C454" s="9" t="n"/>
       <c r="D454" s="9" t="n"/>
@@ -40515,7 +40515,7 @@
       <c r="AX454" s="9" t="n"/>
       <c r="AY454" s="9" t="n"/>
     </row>
-    <row r="455" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="455" s="27">
       <c r="B455" s="9" t="n"/>
       <c r="C455" s="9" t="n"/>
       <c r="D455" s="9" t="n"/>
@@ -40567,7 +40567,7 @@
       <c r="AX455" s="9" t="n"/>
       <c r="AY455" s="9" t="n"/>
     </row>
-    <row r="456" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="456" s="27">
       <c r="B456" s="9" t="n"/>
       <c r="C456" s="9" t="n"/>
       <c r="D456" s="9" t="n"/>
@@ -40619,7 +40619,7 @@
       <c r="AX456" s="9" t="n"/>
       <c r="AY456" s="9" t="n"/>
     </row>
-    <row r="457" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="457" s="27">
       <c r="B457" s="9" t="n"/>
       <c r="C457" s="9" t="n"/>
       <c r="D457" s="9" t="n"/>
@@ -40671,7 +40671,7 @@
       <c r="AX457" s="9" t="n"/>
       <c r="AY457" s="9" t="n"/>
     </row>
-    <row r="458" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="458" s="27">
       <c r="B458" s="9" t="n"/>
       <c r="C458" s="9" t="n"/>
       <c r="D458" s="9" t="n"/>
@@ -40723,7 +40723,7 @@
       <c r="AX458" s="9" t="n"/>
       <c r="AY458" s="9" t="n"/>
     </row>
-    <row r="459" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="459" s="27">
       <c r="B459" s="9" t="n"/>
       <c r="C459" s="9" t="n"/>
       <c r="D459" s="9" t="n"/>
@@ -40775,7 +40775,7 @@
       <c r="AX459" s="9" t="n"/>
       <c r="AY459" s="9" t="n"/>
     </row>
-    <row r="460" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="460" s="27">
       <c r="B460" s="9" t="n"/>
       <c r="C460" s="9" t="n"/>
       <c r="D460" s="9" t="n"/>
@@ -40827,7 +40827,7 @@
       <c r="AX460" s="9" t="n"/>
       <c r="AY460" s="9" t="n"/>
     </row>
-    <row r="461" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="461" s="27">
       <c r="B461" s="9" t="n"/>
       <c r="C461" s="9" t="n"/>
       <c r="D461" s="9" t="n"/>
@@ -40879,7 +40879,7 @@
       <c r="AX461" s="9" t="n"/>
       <c r="AY461" s="9" t="n"/>
     </row>
-    <row r="462" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="462" s="27">
       <c r="B462" s="9" t="n"/>
       <c r="C462" s="9" t="n"/>
       <c r="D462" s="9" t="n"/>
@@ -40931,7 +40931,7 @@
       <c r="AX462" s="9" t="n"/>
       <c r="AY462" s="9" t="n"/>
     </row>
-    <row r="463" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="463" s="27">
       <c r="B463" s="9" t="n"/>
       <c r="C463" s="9" t="n"/>
       <c r="D463" s="9" t="n"/>
@@ -40983,7 +40983,7 @@
       <c r="AX463" s="9" t="n"/>
       <c r="AY463" s="9" t="n"/>
     </row>
-    <row r="464" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="464" s="27">
       <c r="B464" s="9" t="n"/>
       <c r="C464" s="9" t="n"/>
       <c r="D464" s="9" t="n"/>
@@ -41035,7 +41035,7 @@
       <c r="AX464" s="9" t="n"/>
       <c r="AY464" s="9" t="n"/>
     </row>
-    <row r="465" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="465" s="27">
       <c r="B465" s="9" t="n"/>
       <c r="C465" s="9" t="n"/>
       <c r="D465" s="9" t="n"/>
@@ -41087,7 +41087,7 @@
       <c r="AX465" s="9" t="n"/>
       <c r="AY465" s="9" t="n"/>
     </row>
-    <row r="466" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="466" s="27">
       <c r="B466" s="9" t="n"/>
       <c r="C466" s="9" t="n"/>
       <c r="D466" s="9" t="n"/>
@@ -41139,7 +41139,7 @@
       <c r="AX466" s="9" t="n"/>
       <c r="AY466" s="9" t="n"/>
     </row>
-    <row r="467" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="467" s="27">
       <c r="B467" s="9" t="n"/>
       <c r="C467" s="9" t="n"/>
       <c r="D467" s="9" t="n"/>
@@ -41191,7 +41191,7 @@
       <c r="AX467" s="9" t="n"/>
       <c r="AY467" s="9" t="n"/>
     </row>
-    <row r="468" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="468" s="27">
       <c r="B468" s="9" t="n"/>
       <c r="C468" s="9" t="n"/>
       <c r="D468" s="9" t="n"/>
@@ -41243,7 +41243,7 @@
       <c r="AX468" s="9" t="n"/>
       <c r="AY468" s="9" t="n"/>
     </row>
-    <row r="469" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="469" s="27">
       <c r="B469" s="9" t="n"/>
       <c r="C469" s="9" t="n"/>
       <c r="D469" s="9" t="n"/>
@@ -41295,7 +41295,7 @@
       <c r="AX469" s="9" t="n"/>
       <c r="AY469" s="9" t="n"/>
     </row>
-    <row r="470" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="470" s="27">
       <c r="B470" s="9" t="n"/>
       <c r="C470" s="9" t="n"/>
       <c r="D470" s="9" t="n"/>
@@ -41347,7 +41347,7 @@
       <c r="AX470" s="9" t="n"/>
       <c r="AY470" s="9" t="n"/>
     </row>
-    <row r="471" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="471" s="27">
       <c r="B471" s="9" t="n"/>
       <c r="C471" s="9" t="n"/>
       <c r="D471" s="9" t="n"/>
@@ -41399,7 +41399,7 @@
       <c r="AX471" s="9" t="n"/>
       <c r="AY471" s="9" t="n"/>
     </row>
-    <row r="472" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="472" s="27">
       <c r="B472" s="9" t="n"/>
       <c r="C472" s="9" t="n"/>
       <c r="D472" s="9" t="n"/>
@@ -41451,7 +41451,7 @@
       <c r="AX472" s="9" t="n"/>
       <c r="AY472" s="9" t="n"/>
     </row>
-    <row r="473" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="473" s="27">
       <c r="B473" s="9" t="n"/>
       <c r="C473" s="9" t="n"/>
       <c r="D473" s="9" t="n"/>
@@ -41503,7 +41503,7 @@
       <c r="AX473" s="9" t="n"/>
       <c r="AY473" s="9" t="n"/>
     </row>
-    <row r="474" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="474" s="27">
       <c r="B474" s="9" t="n"/>
       <c r="C474" s="9" t="n"/>
       <c r="D474" s="9" t="n"/>
@@ -41555,7 +41555,7 @@
       <c r="AX474" s="9" t="n"/>
       <c r="AY474" s="9" t="n"/>
     </row>
-    <row r="475" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="475" s="27">
       <c r="B475" s="9" t="n"/>
       <c r="C475" s="9" t="n"/>
       <c r="D475" s="9" t="n"/>
@@ -41607,7 +41607,7 @@
       <c r="AX475" s="9" t="n"/>
       <c r="AY475" s="9" t="n"/>
     </row>
-    <row r="476" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="476" s="27">
       <c r="B476" s="9" t="n"/>
       <c r="C476" s="9" t="n"/>
       <c r="D476" s="9" t="n"/>
@@ -41659,7 +41659,7 @@
       <c r="AX476" s="9" t="n"/>
       <c r="AY476" s="9" t="n"/>
     </row>
-    <row r="477" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="477" s="27">
       <c r="B477" s="9" t="n"/>
       <c r="C477" s="9" t="n"/>
       <c r="D477" s="9" t="n"/>
@@ -41711,7 +41711,7 @@
       <c r="AX477" s="9" t="n"/>
       <c r="AY477" s="9" t="n"/>
     </row>
-    <row r="478" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="478" s="27">
       <c r="B478" s="9" t="n"/>
       <c r="C478" s="9" t="n"/>
       <c r="D478" s="9" t="n"/>
@@ -41763,7 +41763,7 @@
       <c r="AX478" s="9" t="n"/>
       <c r="AY478" s="9" t="n"/>
     </row>
-    <row r="479" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="479" s="27">
       <c r="B479" s="9" t="n"/>
       <c r="C479" s="9" t="n"/>
       <c r="D479" s="9" t="n"/>
@@ -41815,7 +41815,7 @@
       <c r="AX479" s="9" t="n"/>
       <c r="AY479" s="9" t="n"/>
     </row>
-    <row r="480" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="480" s="27">
       <c r="B480" s="9" t="n"/>
       <c r="C480" s="9" t="n"/>
       <c r="D480" s="9" t="n"/>
@@ -41867,7 +41867,7 @@
       <c r="AX480" s="9" t="n"/>
       <c r="AY480" s="9" t="n"/>
     </row>
-    <row r="481" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="481" s="27">
       <c r="B481" s="9" t="n"/>
       <c r="C481" s="9" t="n"/>
       <c r="D481" s="9" t="n"/>
@@ -41919,7 +41919,7 @@
       <c r="AX481" s="9" t="n"/>
       <c r="AY481" s="9" t="n"/>
     </row>
-    <row r="482" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="482" s="27">
       <c r="B482" s="9" t="n"/>
       <c r="C482" s="9" t="n"/>
       <c r="D482" s="9" t="n"/>
@@ -41971,7 +41971,7 @@
       <c r="AX482" s="9" t="n"/>
       <c r="AY482" s="9" t="n"/>
     </row>
-    <row r="483" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="483" s="27">
       <c r="B483" s="9" t="n"/>
       <c r="C483" s="9" t="n"/>
       <c r="D483" s="9" t="n"/>
@@ -42023,7 +42023,7 @@
       <c r="AX483" s="9" t="n"/>
       <c r="AY483" s="9" t="n"/>
     </row>
-    <row r="484" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="484" s="27">
       <c r="B484" s="9" t="n"/>
       <c r="C484" s="9" t="n"/>
       <c r="D484" s="9" t="n"/>
@@ -42075,7 +42075,7 @@
       <c r="AX484" s="9" t="n"/>
       <c r="AY484" s="9" t="n"/>
     </row>
-    <row r="485" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="485" s="27">
       <c r="B485" s="9" t="n"/>
       <c r="C485" s="9" t="n"/>
       <c r="D485" s="9" t="n"/>
@@ -42127,7 +42127,7 @@
       <c r="AX485" s="9" t="n"/>
       <c r="AY485" s="9" t="n"/>
     </row>
-    <row r="486" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="486" s="27">
       <c r="B486" s="9" t="n"/>
       <c r="C486" s="9" t="n"/>
       <c r="D486" s="9" t="n"/>
@@ -42179,7 +42179,7 @@
       <c r="AX486" s="9" t="n"/>
       <c r="AY486" s="9" t="n"/>
     </row>
-    <row r="487" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="487" s="27">
       <c r="B487" s="9" t="n"/>
       <c r="C487" s="9" t="n"/>
       <c r="D487" s="9" t="n"/>
@@ -42231,7 +42231,7 @@
       <c r="AX487" s="9" t="n"/>
       <c r="AY487" s="9" t="n"/>
     </row>
-    <row r="488" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="488" s="27">
       <c r="B488" s="9" t="n"/>
       <c r="C488" s="9" t="n"/>
       <c r="D488" s="9" t="n"/>
@@ -42283,7 +42283,7 @@
       <c r="AX488" s="9" t="n"/>
       <c r="AY488" s="9" t="n"/>
     </row>
-    <row r="489" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="489" s="27">
       <c r="B489" s="9" t="n"/>
       <c r="C489" s="9" t="n"/>
       <c r="D489" s="9" t="n"/>
@@ -42335,7 +42335,7 @@
       <c r="AX489" s="9" t="n"/>
       <c r="AY489" s="9" t="n"/>
     </row>
-    <row r="490" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="490" s="27">
       <c r="B490" s="9" t="n"/>
       <c r="C490" s="9" t="n"/>
       <c r="D490" s="9" t="n"/>
@@ -42387,7 +42387,7 @@
       <c r="AX490" s="9" t="n"/>
       <c r="AY490" s="9" t="n"/>
     </row>
-    <row r="491" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="491" s="27">
       <c r="B491" s="9" t="n"/>
       <c r="C491" s="9" t="n"/>
       <c r="D491" s="9" t="n"/>
@@ -42439,7 +42439,7 @@
       <c r="AX491" s="9" t="n"/>
       <c r="AY491" s="9" t="n"/>
     </row>
-    <row r="492" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="492" s="27">
       <c r="B492" s="9" t="n"/>
       <c r="C492" s="9" t="n"/>
       <c r="D492" s="9" t="n"/>
@@ -42491,7 +42491,7 @@
       <c r="AX492" s="9" t="n"/>
       <c r="AY492" s="9" t="n"/>
     </row>
-    <row r="493" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="493" s="27">
       <c r="B493" s="9" t="n"/>
       <c r="C493" s="9" t="n"/>
       <c r="D493" s="9" t="n"/>
@@ -42543,7 +42543,7 @@
       <c r="AX493" s="9" t="n"/>
       <c r="AY493" s="9" t="n"/>
     </row>
-    <row r="494" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="494" s="27">
       <c r="B494" s="9" t="n"/>
       <c r="C494" s="9" t="n"/>
       <c r="D494" s="9" t="n"/>
@@ -42595,7 +42595,7 @@
       <c r="AX494" s="9" t="n"/>
       <c r="AY494" s="9" t="n"/>
     </row>
-    <row r="495" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="495" s="27">
       <c r="B495" s="9" t="n"/>
       <c r="C495" s="9" t="n"/>
       <c r="D495" s="9" t="n"/>
@@ -42647,7 +42647,7 @@
       <c r="AX495" s="9" t="n"/>
       <c r="AY495" s="9" t="n"/>
     </row>
-    <row r="496" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="496" s="27">
       <c r="B496" s="9" t="n"/>
       <c r="C496" s="9" t="n"/>
       <c r="D496" s="9" t="n"/>
@@ -42699,7 +42699,7 @@
       <c r="AX496" s="9" t="n"/>
       <c r="AY496" s="9" t="n"/>
     </row>
-    <row r="497" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="497" s="27">
       <c r="B497" s="9" t="n"/>
       <c r="C497" s="9" t="n"/>
       <c r="D497" s="9" t="n"/>
@@ -42751,7 +42751,7 @@
       <c r="AX497" s="9" t="n"/>
       <c r="AY497" s="9" t="n"/>
     </row>
-    <row r="498" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="498" s="27">
       <c r="B498" s="9" t="n"/>
       <c r="C498" s="9" t="n"/>
       <c r="D498" s="9" t="n"/>
@@ -42803,7 +42803,7 @@
       <c r="AX498" s="9" t="n"/>
       <c r="AY498" s="9" t="n"/>
     </row>
-    <row r="499" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="499" s="27">
       <c r="B499" s="9" t="n"/>
       <c r="C499" s="9" t="n"/>
       <c r="D499" s="9" t="n"/>
@@ -42855,7 +42855,7 @@
       <c r="AX499" s="9" t="n"/>
       <c r="AY499" s="9" t="n"/>
     </row>
-    <row r="500" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="500" s="27">
       <c r="B500" s="9" t="n"/>
       <c r="C500" s="9" t="n"/>
       <c r="D500" s="9" t="n"/>
@@ -42907,7 +42907,7 @@
       <c r="AX500" s="9" t="n"/>
       <c r="AY500" s="9" t="n"/>
     </row>
-    <row r="501" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="501" s="27">
       <c r="B501" s="9" t="n"/>
       <c r="C501" s="9" t="n"/>
       <c r="D501" s="9" t="n"/>
@@ -42959,7 +42959,7 @@
       <c r="AX501" s="9" t="n"/>
       <c r="AY501" s="9" t="n"/>
     </row>
-    <row r="502" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="502" s="27">
       <c r="B502" s="9" t="n"/>
       <c r="C502" s="9" t="n"/>
       <c r="D502" s="9" t="n"/>
@@ -43011,7 +43011,7 @@
       <c r="AX502" s="9" t="n"/>
       <c r="AY502" s="9" t="n"/>
     </row>
-    <row r="503" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="503" s="27">
       <c r="B503" s="9" t="n"/>
       <c r="C503" s="9" t="n"/>
       <c r="D503" s="9" t="n"/>
@@ -43063,7 +43063,7 @@
       <c r="AX503" s="9" t="n"/>
       <c r="AY503" s="9" t="n"/>
     </row>
-    <row r="504" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="504" s="27">
       <c r="B504" s="9" t="n"/>
       <c r="C504" s="9" t="n"/>
       <c r="D504" s="9" t="n"/>
@@ -43115,7 +43115,7 @@
       <c r="AX504" s="9" t="n"/>
       <c r="AY504" s="9" t="n"/>
     </row>
-    <row r="505" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="505" s="27">
       <c r="B505" s="9" t="n"/>
       <c r="C505" s="9" t="n"/>
       <c r="D505" s="9" t="n"/>
@@ -43167,7 +43167,7 @@
       <c r="AX505" s="9" t="n"/>
       <c r="AY505" s="9" t="n"/>
     </row>
-    <row r="506" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="506" s="27">
       <c r="B506" s="9" t="n"/>
       <c r="C506" s="9" t="n"/>
       <c r="D506" s="9" t="n"/>
@@ -43219,7 +43219,7 @@
       <c r="AX506" s="9" t="n"/>
       <c r="AY506" s="9" t="n"/>
     </row>
-    <row r="507" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="507" s="27">
       <c r="B507" s="9" t="n"/>
       <c r="C507" s="9" t="n"/>
       <c r="D507" s="9" t="n"/>
@@ -43271,7 +43271,7 @@
       <c r="AX507" s="9" t="n"/>
       <c r="AY507" s="9" t="n"/>
     </row>
-    <row r="508" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="508" s="27">
       <c r="B508" s="9" t="n"/>
       <c r="C508" s="9" t="n"/>
       <c r="D508" s="9" t="n"/>
@@ -43323,7 +43323,7 @@
       <c r="AX508" s="9" t="n"/>
       <c r="AY508" s="9" t="n"/>
     </row>
-    <row r="509" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="509" s="27">
       <c r="B509" s="9" t="n"/>
       <c r="C509" s="9" t="n"/>
       <c r="D509" s="9" t="n"/>
@@ -43375,7 +43375,7 @@
       <c r="AX509" s="9" t="n"/>
       <c r="AY509" s="9" t="n"/>
     </row>
-    <row r="510" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="510" s="27">
       <c r="B510" s="9" t="n"/>
       <c r="C510" s="9" t="n"/>
       <c r="D510" s="9" t="n"/>
@@ -43427,7 +43427,7 @@
       <c r="AX510" s="9" t="n"/>
       <c r="AY510" s="9" t="n"/>
     </row>
-    <row r="511" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="511" s="27">
       <c r="B511" s="9" t="n"/>
       <c r="C511" s="9" t="n"/>
       <c r="D511" s="9" t="n"/>
@@ -43479,7 +43479,7 @@
       <c r="AX511" s="9" t="n"/>
       <c r="AY511" s="9" t="n"/>
     </row>
-    <row r="512" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="512" s="27">
       <c r="B512" s="9" t="n"/>
       <c r="C512" s="9" t="n"/>
       <c r="D512" s="9" t="n"/>
@@ -43531,7 +43531,7 @@
       <c r="AX512" s="9" t="n"/>
       <c r="AY512" s="9" t="n"/>
     </row>
-    <row r="513" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="513" s="27">
       <c r="B513" s="9" t="n"/>
       <c r="C513" s="9" t="n"/>
       <c r="D513" s="9" t="n"/>
@@ -43583,7 +43583,7 @@
       <c r="AX513" s="9" t="n"/>
       <c r="AY513" s="9" t="n"/>
     </row>
-    <row r="514" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="514" s="27">
       <c r="B514" s="9" t="n"/>
       <c r="C514" s="9" t="n"/>
       <c r="D514" s="9" t="n"/>
@@ -43635,7 +43635,7 @@
       <c r="AX514" s="9" t="n"/>
       <c r="AY514" s="9" t="n"/>
     </row>
-    <row r="515" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="515" s="27">
       <c r="B515" s="9" t="n"/>
       <c r="C515" s="9" t="n"/>
       <c r="D515" s="9" t="n"/>
@@ -43687,7 +43687,7 @@
       <c r="AX515" s="9" t="n"/>
       <c r="AY515" s="9" t="n"/>
     </row>
-    <row r="516" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="516" s="27">
       <c r="B516" s="9" t="n"/>
       <c r="C516" s="9" t="n"/>
       <c r="D516" s="9" t="n"/>
@@ -43739,7 +43739,7 @@
       <c r="AX516" s="9" t="n"/>
       <c r="AY516" s="9" t="n"/>
     </row>
-    <row r="517" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="517" s="27">
       <c r="B517" s="9" t="n"/>
       <c r="C517" s="9" t="n"/>
       <c r="D517" s="9" t="n"/>
@@ -43791,7 +43791,7 @@
       <c r="AX517" s="9" t="n"/>
       <c r="AY517" s="9" t="n"/>
     </row>
-    <row r="518" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="518" s="27">
       <c r="B518" s="9" t="n"/>
       <c r="C518" s="9" t="n"/>
       <c r="D518" s="9" t="n"/>
@@ -43843,7 +43843,7 @@
       <c r="AX518" s="9" t="n"/>
       <c r="AY518" s="9" t="n"/>
     </row>
-    <row r="519" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="519" s="27">
       <c r="B519" s="9" t="n"/>
       <c r="C519" s="9" t="n"/>
       <c r="D519" s="9" t="n"/>
@@ -43895,7 +43895,7 @@
       <c r="AX519" s="9" t="n"/>
       <c r="AY519" s="9" t="n"/>
     </row>
-    <row r="520" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="520" s="27">
       <c r="B520" s="9" t="n"/>
       <c r="C520" s="9" t="n"/>
       <c r="D520" s="9" t="n"/>
@@ -43947,7 +43947,7 @@
       <c r="AX520" s="9" t="n"/>
       <c r="AY520" s="9" t="n"/>
     </row>
-    <row r="521" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="521" s="27">
       <c r="B521" s="9" t="n"/>
       <c r="C521" s="9" t="n"/>
       <c r="D521" s="9" t="n"/>
@@ -43999,7 +43999,7 @@
       <c r="AX521" s="9" t="n"/>
       <c r="AY521" s="9" t="n"/>
     </row>
-    <row r="522" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="522" s="27">
       <c r="B522" s="9" t="n"/>
       <c r="C522" s="9" t="n"/>
       <c r="D522" s="9" t="n"/>
@@ -44051,7 +44051,7 @@
       <c r="AX522" s="9" t="n"/>
       <c r="AY522" s="9" t="n"/>
     </row>
-    <row r="523" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="523" s="27">
       <c r="B523" s="9" t="n"/>
       <c r="C523" s="9" t="n"/>
       <c r="D523" s="9" t="n"/>
@@ -44103,7 +44103,7 @@
       <c r="AX523" s="9" t="n"/>
       <c r="AY523" s="9" t="n"/>
     </row>
-    <row r="524" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="524" s="27">
       <c r="B524" s="9" t="n"/>
       <c r="C524" s="9" t="n"/>
       <c r="D524" s="9" t="n"/>
@@ -44155,7 +44155,7 @@
       <c r="AX524" s="9" t="n"/>
       <c r="AY524" s="9" t="n"/>
     </row>
-    <row r="525" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="525" s="27">
       <c r="B525" s="9" t="n"/>
       <c r="C525" s="9" t="n"/>
       <c r="D525" s="9" t="n"/>
@@ -44207,7 +44207,7 @@
       <c r="AX525" s="9" t="n"/>
       <c r="AY525" s="9" t="n"/>
     </row>
-    <row r="526" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="526" s="27">
       <c r="B526" s="9" t="n"/>
       <c r="C526" s="9" t="n"/>
       <c r="D526" s="9" t="n"/>
@@ -44259,7 +44259,7 @@
       <c r="AX526" s="9" t="n"/>
       <c r="AY526" s="9" t="n"/>
     </row>
-    <row r="527" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="527" s="27">
       <c r="B527" s="9" t="n"/>
       <c r="C527" s="9" t="n"/>
       <c r="D527" s="9" t="n"/>
@@ -44311,7 +44311,7 @@
       <c r="AX527" s="9" t="n"/>
       <c r="AY527" s="9" t="n"/>
     </row>
-    <row r="528" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="528" s="27">
       <c r="B528" s="9" t="n"/>
       <c r="C528" s="9" t="n"/>
       <c r="D528" s="9" t="n"/>
@@ -44363,7 +44363,7 @@
       <c r="AX528" s="9" t="n"/>
       <c r="AY528" s="9" t="n"/>
     </row>
-    <row r="529" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="529" s="27">
       <c r="B529" s="9" t="n"/>
       <c r="C529" s="9" t="n"/>
       <c r="D529" s="9" t="n"/>
@@ -44415,7 +44415,7 @@
       <c r="AX529" s="9" t="n"/>
       <c r="AY529" s="9" t="n"/>
     </row>
-    <row r="530" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="530" s="27">
       <c r="B530" s="9" t="n"/>
       <c r="C530" s="9" t="n"/>
       <c r="D530" s="9" t="n"/>
@@ -44467,7 +44467,7 @@
       <c r="AX530" s="9" t="n"/>
       <c r="AY530" s="9" t="n"/>
     </row>
-    <row r="531" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="531" s="27">
       <c r="B531" s="9" t="n"/>
       <c r="C531" s="9" t="n"/>
       <c r="D531" s="9" t="n"/>
@@ -44519,7 +44519,7 @@
       <c r="AX531" s="9" t="n"/>
       <c r="AY531" s="9" t="n"/>
     </row>
-    <row r="532" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="532" s="27">
       <c r="B532" s="9" t="n"/>
       <c r="C532" s="9" t="n"/>
       <c r="D532" s="9" t="n"/>
@@ -44571,7 +44571,7 @@
       <c r="AX532" s="9" t="n"/>
       <c r="AY532" s="9" t="n"/>
     </row>
-    <row r="533" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="533" s="27">
       <c r="B533" s="9" t="n"/>
       <c r="C533" s="9" t="n"/>
       <c r="D533" s="9" t="n"/>
@@ -44623,7 +44623,7 @@
       <c r="AX533" s="9" t="n"/>
       <c r="AY533" s="9" t="n"/>
     </row>
-    <row r="534" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="534" s="27">
       <c r="B534" s="9" t="n"/>
       <c r="C534" s="9" t="n"/>
       <c r="D534" s="9" t="n"/>
@@ -44675,7 +44675,7 @@
       <c r="AX534" s="9" t="n"/>
       <c r="AY534" s="9" t="n"/>
     </row>
-    <row r="535" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="535" s="27">
       <c r="B535" s="9" t="n"/>
       <c r="C535" s="9" t="n"/>
       <c r="D535" s="9" t="n"/>
@@ -44727,7 +44727,7 @@
       <c r="AX535" s="9" t="n"/>
       <c r="AY535" s="9" t="n"/>
     </row>
-    <row r="536" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="536" s="27">
       <c r="B536" s="9" t="n"/>
       <c r="C536" s="9" t="n"/>
       <c r="D536" s="9" t="n"/>
@@ -44779,7 +44779,7 @@
       <c r="AX536" s="9" t="n"/>
       <c r="AY536" s="9" t="n"/>
     </row>
-    <row r="537" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="537" s="27">
       <c r="B537" s="9" t="n"/>
       <c r="C537" s="9" t="n"/>
       <c r="D537" s="9" t="n"/>
@@ -44831,7 +44831,7 @@
       <c r="AX537" s="9" t="n"/>
       <c r="AY537" s="9" t="n"/>
     </row>
-    <row r="538" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="538" s="27">
       <c r="B538" s="9" t="n"/>
       <c r="C538" s="9" t="n"/>
       <c r="D538" s="9" t="n"/>
@@ -44883,7 +44883,7 @@
       <c r="AX538" s="9" t="n"/>
       <c r="AY538" s="9" t="n"/>
     </row>
-    <row r="539" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="539" s="27">
       <c r="B539" s="9" t="n"/>
       <c r="C539" s="9" t="n"/>
       <c r="D539" s="9" t="n"/>
@@ -44935,7 +44935,7 @@
       <c r="AX539" s="9" t="n"/>
       <c r="AY539" s="9" t="n"/>
     </row>
-    <row r="540" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="540" s="27">
       <c r="B540" s="9" t="n"/>
       <c r="C540" s="9" t="n"/>
       <c r="D540" s="9" t="n"/>
@@ -44987,7 +44987,7 @@
       <c r="AX540" s="9" t="n"/>
       <c r="AY540" s="9" t="n"/>
     </row>
-    <row r="541" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="541" s="27">
       <c r="B541" s="9" t="n"/>
       <c r="C541" s="9" t="n"/>
       <c r="D541" s="9" t="n"/>
@@ -45039,7 +45039,7 @@
       <c r="AX541" s="9" t="n"/>
       <c r="AY541" s="9" t="n"/>
     </row>
-    <row r="542" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="542" s="27">
       <c r="B542" s="9" t="n"/>
       <c r="C542" s="9" t="n"/>
       <c r="D542" s="9" t="n"/>
@@ -45091,7 +45091,7 @@
       <c r="AX542" s="9" t="n"/>
       <c r="AY542" s="9" t="n"/>
     </row>
-    <row r="543" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="543" s="27">
       <c r="B543" s="9" t="n"/>
       <c r="C543" s="9" t="n"/>
       <c r="D543" s="9" t="n"/>
@@ -45143,7 +45143,7 @@
       <c r="AX543" s="9" t="n"/>
       <c r="AY543" s="9" t="n"/>
     </row>
-    <row r="544" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="544" s="27">
       <c r="B544" s="9" t="n"/>
       <c r="C544" s="9" t="n"/>
       <c r="D544" s="9" t="n"/>
@@ -45195,7 +45195,7 @@
       <c r="AX544" s="9" t="n"/>
       <c r="AY544" s="9" t="n"/>
     </row>
-    <row r="545" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="545" s="27">
       <c r="B545" s="9" t="n"/>
       <c r="C545" s="9" t="n"/>
       <c r="D545" s="9" t="n"/>
@@ -45247,7 +45247,7 @@
       <c r="AX545" s="9" t="n"/>
       <c r="AY545" s="9" t="n"/>
     </row>
-    <row r="546" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="546" s="27">
       <c r="B546" s="9" t="n"/>
       <c r="C546" s="9" t="n"/>
       <c r="D546" s="9" t="n"/>
@@ -45299,7 +45299,7 @@
       <c r="AX546" s="9" t="n"/>
       <c r="AY546" s="9" t="n"/>
     </row>
-    <row r="547" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="547" s="27">
       <c r="B547" s="9" t="n"/>
       <c r="C547" s="9" t="n"/>
       <c r="D547" s="9" t="n"/>
@@ -45351,7 +45351,7 @@
       <c r="AX547" s="9" t="n"/>
       <c r="AY547" s="9" t="n"/>
     </row>
-    <row r="548" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="548" s="27">
       <c r="B548" s="9" t="n"/>
       <c r="C548" s="9" t="n"/>
       <c r="D548" s="9" t="n"/>
@@ -45403,7 +45403,7 @@
       <c r="AX548" s="9" t="n"/>
       <c r="AY548" s="9" t="n"/>
     </row>
-    <row r="549" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="549" s="27">
       <c r="B549" s="9" t="n"/>
       <c r="C549" s="9" t="n"/>
       <c r="D549" s="9" t="n"/>
@@ -45455,7 +45455,7 @@
       <c r="AX549" s="9" t="n"/>
       <c r="AY549" s="9" t="n"/>
     </row>
-    <row r="550" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="550" s="27">
       <c r="B550" s="9" t="n"/>
       <c r="C550" s="9" t="n"/>
       <c r="D550" s="9" t="n"/>
@@ -45507,7 +45507,7 @@
       <c r="AX550" s="9" t="n"/>
       <c r="AY550" s="9" t="n"/>
     </row>
-    <row r="551" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="551" s="27">
       <c r="B551" s="9" t="n"/>
       <c r="C551" s="9" t="n"/>
       <c r="D551" s="9" t="n"/>
@@ -45559,7 +45559,7 @@
       <c r="AX551" s="9" t="n"/>
       <c r="AY551" s="9" t="n"/>
     </row>
-    <row r="552" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="552" s="27">
       <c r="B552" s="9" t="n"/>
       <c r="C552" s="9" t="n"/>
       <c r="D552" s="9" t="n"/>
@@ -45611,7 +45611,7 @@
       <c r="AX552" s="9" t="n"/>
       <c r="AY552" s="9" t="n"/>
     </row>
-    <row r="553" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="553" s="27">
       <c r="B553" s="9" t="n"/>
       <c r="C553" s="9" t="n"/>
       <c r="D553" s="9" t="n"/>
@@ -45663,7 +45663,7 @@
       <c r="AX553" s="9" t="n"/>
       <c r="AY553" s="9" t="n"/>
     </row>
-    <row r="554" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="554" s="27">
       <c r="B554" s="9" t="n"/>
       <c r="C554" s="9" t="n"/>
       <c r="D554" s="9" t="n"/>
@@ -45715,7 +45715,7 @@
       <c r="AX554" s="9" t="n"/>
       <c r="AY554" s="9" t="n"/>
     </row>
-    <row r="555" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="555" s="27">
       <c r="B555" s="9" t="n"/>
       <c r="C555" s="9" t="n"/>
       <c r="D555" s="9" t="n"/>
@@ -45767,7 +45767,7 @@
       <c r="AX555" s="9" t="n"/>
       <c r="AY555" s="9" t="n"/>
     </row>
-    <row r="556" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="556" s="27">
       <c r="B556" s="9" t="n"/>
       <c r="C556" s="9" t="n"/>
       <c r="D556" s="9" t="n"/>
@@ -45819,7 +45819,7 @@
       <c r="AX556" s="9" t="n"/>
       <c r="AY556" s="9" t="n"/>
     </row>
-    <row r="557" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="557" s="27">
       <c r="B557" s="9" t="n"/>
       <c r="C557" s="9" t="n"/>
       <c r="D557" s="9" t="n"/>
@@ -45871,7 +45871,7 @@
       <c r="AX557" s="9" t="n"/>
       <c r="AY557" s="9" t="n"/>
     </row>
-    <row r="558" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="558" s="27">
       <c r="B558" s="9" t="n"/>
       <c r="C558" s="9" t="n"/>
       <c r="D558" s="9" t="n"/>
@@ -45923,7 +45923,7 @@
       <c r="AX558" s="9" t="n"/>
       <c r="AY558" s="9" t="n"/>
     </row>
-    <row r="559" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="559" s="27">
       <c r="B559" s="9" t="n"/>
       <c r="C559" s="9" t="n"/>
       <c r="D559" s="9" t="n"/>
@@ -45975,7 +45975,7 @@
       <c r="AX559" s="9" t="n"/>
       <c r="AY559" s="9" t="n"/>
     </row>
-    <row r="560" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="560" s="27">
       <c r="B560" s="9" t="n"/>
       <c r="C560" s="9" t="n"/>
       <c r="D560" s="9" t="n"/>
@@ -46027,7 +46027,7 @@
       <c r="AX560" s="9" t="n"/>
       <c r="AY560" s="9" t="n"/>
     </row>
-    <row r="561" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="561" s="27">
       <c r="B561" s="9" t="n"/>
       <c r="C561" s="9" t="n"/>
       <c r="D561" s="9" t="n"/>
@@ -46079,7 +46079,7 @@
       <c r="AX561" s="9" t="n"/>
       <c r="AY561" s="9" t="n"/>
     </row>
-    <row r="562" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="562" s="27">
       <c r="B562" s="9" t="n"/>
       <c r="C562" s="9" t="n"/>
       <c r="D562" s="9" t="n"/>
@@ -46131,7 +46131,7 @@
       <c r="AX562" s="9" t="n"/>
       <c r="AY562" s="9" t="n"/>
     </row>
-    <row r="563" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="563" s="27">
       <c r="B563" s="9" t="n"/>
       <c r="C563" s="9" t="n"/>
       <c r="D563" s="9" t="n"/>
@@ -46183,7 +46183,7 @@
       <c r="AX563" s="9" t="n"/>
       <c r="AY563" s="9" t="n"/>
     </row>
-    <row r="564" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="564" s="27">
       <c r="B564" s="9" t="n"/>
       <c r="C564" s="9" t="n"/>
       <c r="D564" s="9" t="n"/>
@@ -46235,7 +46235,7 @@
       <c r="AX564" s="9" t="n"/>
       <c r="AY564" s="9" t="n"/>
     </row>
-    <row r="565" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="565" s="27">
       <c r="B565" s="9" t="n"/>
       <c r="C565" s="9" t="n"/>
       <c r="D565" s="9" t="n"/>
@@ -46287,7 +46287,7 @@
       <c r="AX565" s="9" t="n"/>
       <c r="AY565" s="9" t="n"/>
     </row>
-    <row r="566" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="566" s="27">
       <c r="B566" s="9" t="n"/>
       <c r="C566" s="9" t="n"/>
       <c r="D566" s="9" t="n"/>
@@ -46339,7 +46339,7 @@
       <c r="AX566" s="9" t="n"/>
       <c r="AY566" s="9" t="n"/>
     </row>
-    <row r="567" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="567" s="27">
       <c r="B567" s="9" t="n"/>
       <c r="C567" s="9" t="n"/>
       <c r="D567" s="9" t="n"/>
@@ -46391,7 +46391,7 @@
       <c r="AX567" s="9" t="n"/>
       <c r="AY567" s="9" t="n"/>
     </row>
-    <row r="568" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="568" s="27">
       <c r="B568" s="9" t="n"/>
       <c r="C568" s="9" t="n"/>
       <c r="D568" s="9" t="n"/>
@@ -46443,7 +46443,7 @@
       <c r="AX568" s="9" t="n"/>
       <c r="AY568" s="9" t="n"/>
     </row>
-    <row r="569" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="569" s="27">
       <c r="B569" s="9" t="n"/>
       <c r="C569" s="9" t="n"/>
       <c r="D569" s="9" t="n"/>
@@ -46495,7 +46495,7 @@
       <c r="AX569" s="9" t="n"/>
       <c r="AY569" s="9" t="n"/>
     </row>
-    <row r="570" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="570" s="27">
       <c r="B570" s="9" t="n"/>
       <c r="C570" s="9" t="n"/>
       <c r="D570" s="9" t="n"/>
@@ -46547,7 +46547,7 @@
       <c r="AX570" s="9" t="n"/>
       <c r="AY570" s="9" t="n"/>
     </row>
-    <row r="571" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="571" s="27">
       <c r="B571" s="9" t="n"/>
       <c r="C571" s="9" t="n"/>
       <c r="D571" s="9" t="n"/>
@@ -46599,7 +46599,7 @@
       <c r="AX571" s="9" t="n"/>
       <c r="AY571" s="9" t="n"/>
     </row>
-    <row r="572" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="572" s="27">
       <c r="B572" s="9" t="n"/>
       <c r="C572" s="9" t="n"/>
       <c r="D572" s="9" t="n"/>
@@ -46651,7 +46651,7 @@
       <c r="AX572" s="9" t="n"/>
       <c r="AY572" s="9" t="n"/>
     </row>
-    <row r="573" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="573" s="27">
       <c r="B573" s="9" t="n"/>
       <c r="C573" s="9" t="n"/>
       <c r="D573" s="9" t="n"/>
@@ -46703,7 +46703,7 @@
       <c r="AX573" s="9" t="n"/>
       <c r="AY573" s="9" t="n"/>
     </row>
-    <row r="574" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="574" s="27">
       <c r="B574" s="9" t="n"/>
       <c r="C574" s="9" t="n"/>
       <c r="D574" s="9" t="n"/>
@@ -46755,7 +46755,7 @@
       <c r="AX574" s="9" t="n"/>
       <c r="AY574" s="9" t="n"/>
     </row>
-    <row r="575" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="575" s="27">
       <c r="B575" s="9" t="n"/>
       <c r="C575" s="9" t="n"/>
       <c r="D575" s="9" t="n"/>
@@ -46807,7 +46807,7 @@
       <c r="AX575" s="9" t="n"/>
       <c r="AY575" s="9" t="n"/>
     </row>
-    <row r="576" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="576" s="27">
       <c r="B576" s="9" t="n"/>
       <c r="C576" s="9" t="n"/>
       <c r="D576" s="9" t="n"/>
@@ -46859,7 +46859,7 @@
       <c r="AX576" s="9" t="n"/>
       <c r="AY576" s="9" t="n"/>
     </row>
-    <row r="577" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="577" s="27">
       <c r="B577" s="9" t="n"/>
       <c r="C577" s="9" t="n"/>
       <c r="D577" s="9" t="n"/>
@@ -46911,7 +46911,7 @@
       <c r="AX577" s="9" t="n"/>
       <c r="AY577" s="9" t="n"/>
     </row>
-    <row r="578" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="578" s="27">
       <c r="B578" s="9" t="n"/>
       <c r="C578" s="9" t="n"/>
       <c r="D578" s="9" t="n"/>
@@ -46963,7 +46963,7 @@
       <c r="AX578" s="9" t="n"/>
       <c r="AY578" s="9" t="n"/>
     </row>
-    <row r="579" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="579" s="27">
       <c r="B579" s="9" t="n"/>
       <c r="C579" s="9" t="n"/>
       <c r="D579" s="9" t="n"/>
@@ -47015,7 +47015,7 @@
       <c r="AX579" s="9" t="n"/>
       <c r="AY579" s="9" t="n"/>
     </row>
-    <row r="580" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="580" s="27">
       <c r="A580" s="26" t="n"/>
       <c r="B580" s="9" t="n"/>
       <c r="C580" s="9" t="n"/>
@@ -47068,7 +47068,7 @@
       <c r="AX580" s="9" t="n"/>
       <c r="AY580" s="9" t="n"/>
     </row>
-    <row r="581" ht="16.5" customHeight="1" s="27">
+    <row customHeight="1" ht="16.5" r="581" s="27">
       <c r="A581" s="26" t="n"/>
       <c r="B581" s="9" t="n"/>
       <c r="C581" s="9" t="n"/>
@@ -47122,6 +47122,6 @@
       <c r="AY581" s="9" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>